--- a/storage.tmp/reviews.xlsx
+++ b/storage.tmp/reviews.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="892">
   <si>
     <t>stars</t>
   </si>
@@ -34,6 +34,12 @@
     <t>1.0</t>
   </si>
   <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
     <t>I bought the 2TB version and it does work with the PS4 (current version 4.50). At first it said it didn't support it but after I restarted my PS4 it worked. Currently works as intended. There's 1.84TB usable after formatting. It took 19 minutes to transfer 3 games (118.3 GB) over from the internal hard drive to this external hard drive. Will update if anything arises.Edit: It had been a little over two months and its still working as intended. To answer a common question:It works out of the box. Literally just plug it into your ps4 go to devices under settings then USB storage devices. It should pop up under there, select it then it will say "Format as extended storage" and select that. The support for external hard drives is absolutely great. If you have a TON of downloadable games then you can simply just have multiple external hard drives and download all you games to them. Then you can just plug in the external hard drive with the game you want and you're good to go. I highly recommend looking up how to set it up if you are still having trouble. It is very easy.</t>
   </si>
   <si>
@@ -49,21 +55,1341 @@
     <t>The 2TB Seagate Expansion Portable USB 3.0 hard drive is excellent expansion storage choice in an attractive package. This basic drive has a lot in common with other USB 3.0 compact drives including a similar price. This is the current model of the older and well received Seagate Expansion STBX2000401 still available on Amazon.I have used a number of Seagate and Western Digital external USB 3.0 hard drives. Over time the newer drives tends to operate a bit faster than my older ones. That is my sense with this Seagate 2TB USB 3.0 drive when used with USB 3.0.This drive has been used in a Windows environment and it plays very nice. Some older Seagate drives did NOT play nice on Linux systems unless the drive's sleep mode was disabled with the Seagate tools. If you plan to use the drive on Linux you may need to change the settings using Seagate tools on a Windows computer before use on Linux or sleep mode might cause loss of access until it is re-plugged.In my casual testing (copying a 9GB folder of updates, iso files, and many mixed large and small files) performance is on a par with other recent Seagate and WD drives I have for my own business and for clients. At this point I think the USB 3.0 external drive market is pretty much a commodity space.The drive fits easily in a pocket and as typical it uses a single cable for power and data making connections simple. The drive is compatible with USB 2.0, albeit at slower USB 2.0 speeds. The form factor for the drive is similar to the WD MyPassport Ultra and thicker than the WD My Passport Slim which are both more expensive. We are not talking about any big difference in size.The drive comes packaged with the drive itself, a shortish USB 3.0 cable, a quick start guide, and 1 year warranty. No fancy premium software is included. Just the basics.The Seagate Expansion 2TB is an economical commodity storage expansion. It clearly hits the  target for the commodity USB storage market. Because it works quite well for a good price I'm giving this drive 5 stars.UPDATE Jul 22, 2017:In the about 2 and a half years since getting this drive it has continued to work fine in it's roles first as backup drive and next as a drive I carry in my kit when visiting clients. It's worked as expected whenever I've needed it and I've had no problems.Since this drive was released as a top performer at the price in March 2015 this model has performed well but there are newer drives I would pick today. I see very few 2017 model drives from Seagate (or their subsidary LaCie).  I've had very good luck with recent WD My Passport drives though they seem to have uglyfied their cases..I think that while dated the Seagate Expansion drive has served me well and still deserves 5 stars..Hope this helps someone.</t>
   </si>
   <si>
-    <t>I love this little external hard drive. I use it to back up all the movie files that I have on my computer and I'm nowhere near the capacity it holds and I have tons of movies! The setup was super easy, you don't even need an external power cable like some other external hard drives require. My computer recognized the drive right away and self installed instantly. Moreover, I was a little hesitant about this getting this drive because I still operate on a usb 2.0 and this is advertised as a usb 3.0 device but since this drive is backwards compatible that wasn't an issue at all. It still transfers very fast! If you are in need of backing up information from your computer to an external source than the Seagate Expansion 1TB Portable External Hard Drive USB 3.0 (STEA1000400) is exactly what you need. And for the price, you def cannot go wrong!</t>
-  </si>
-  <si>
-    <t>I'm using this drive for my media server.  So far it is working well.  It was recognized by my PC very quickly and without any configuration.  The only thing is, with time, whether it will stay functional.  My other external hard drive malfunctioned and so, some external hard drives have this problem.  But, I'm hoping this one won't.For the money, this drive is affordable and the amount of storage is great.  I don't anticipate I will need more than this, but who knows.  At least this far, it's going well.</t>
-  </si>
-  <si>
-    <t>This USB 3.0 drive has impressive read and write speeds. It's a great way to store a relatively small amount of data. If you happen to looking for a larger, almost infinitely scalable data storage solution, I might check out Kansas City's underground storage options. With stable temperatures year round and the protection that only a hundred feet of solid limestone can provide, KC's underground real estate is ideal for data storage operations. That said, for my personal storage needs, this is a great, no-frills drive.</t>
-  </si>
-  <si>
-    <t>My ps4 wouldn't let me play new games due to storage issues. This was the perfect remedy. It was super easy to install (you do have to format for the ps4, so I would get this with the intention of only ever using it on your console). I also like that it is small and doesn't take up space in our media cabinet. The load times for games that are stored on it are a little bit longer, but I'll take it since I don't have to delete any save data.</t>
+    <t>I purchased this back up drive because it was advertised as compatible with Windows XP.  (Don't laugh.)  Some portable HD's advertized on Amazon say they are XP compatible, but they aren't.  Others are, but require a difficult reformatting process.  Out of the box, I did a low level format of this drive to remove anything on it.  I plugged it into my Windows XP PC, and it was recognized immediately.  I backed up some test files and it worked perfectly without any argument.  I've gone on to use it as my monthly main system back up using Norton Ghost.  I now maintain 5 month rolling mirror images of my system on this drive, all without a hitch.  I recently experienced a malware infestation (given to me by a hacked download of CCleaners version 5.33.6162), and I had to re-image from a two month old back-up.  That also went well.</t>
+  </si>
+  <si>
+    <t>So far so good. Connected it to a Late 2016 MacBook Pro running macOS High Sierra and Disk Utility couldn't properly format the drive. I ejected it, connected it to a 2011 MacBook Air running macOS Sierra and formatted the drive as MacOS Extended Case Sensitive, Journaled, with Encryption with no issues. Time Machine is now running on the 2011 MacBook Air.</t>
+  </si>
+  <si>
+    <t>i swear by these hard-drives - way better than the usual swearing at them!!! this series from Seagate is perfect for xbox one application or really any data transfer over usb 3personally tested 6 external hard drive types for usb 3 speeds - WD, Hitachi, Seagate, even hybrid ssd drives - both the pre-built versions and raw drives with external enclosures (2 diff enclosures usb3 certified) - this series from Seagate is faster than ALL of the other options currently available - and this was the only one not to lag in game video playback for xbox 1... works flawlessly... Found supporting data in the forums which confirmed my speed and latency testing was on the money too... 1tb 2tb and 4tb versions of the expansion series are all solid buys... you won't be disappointed!!!</t>
+  </si>
+  <si>
+    <t>Great little drive and it works with my Wally with a few undocumented easy steps. I formatted it on my Mac using Disk Utility--first as a Mac drive and then as a PC exFAT and renamed it "1 TB DVR Upgrade Expansion" (just in case, because if you buy theirs--that's what it's named without the quotes of course). Then I plugged it into my download completed Wally and got the pop up saying an external DVR has been detected. Call DISH to activate. Once it's activated, another pop up will ask if you want to format the drive. Yes, yes, and then yes! Finally, you have to restart your Wally and you're done. It works!</t>
+  </si>
+  <si>
+    <t>I bought this for the sole purpose of taking it out of its casing and putting it in my PS4 so that I'd have more storage space for games. You can buy an HDD without the casing, but in my situation, I was going to have a leftover stock PS4 HDD and nowhere to put it, so I preferred to have a casing to put it in. This HDD satisfied that need. Removing it from the casing took nothing but a very thin flat head screwdriver and a little patience. After it was out of the case, it was just a matter of carefully pulling off the SATA-to-USB attachment and popping the HDD into my PS4. No formatting required. My PS4 was up and running in minutes with no problems. I took the stock PS4 HDD, put the SATA-to-USB attachment on it, and then put it into the leftover casing and reformatted it so that it would work with my PC. Now I have plenty of space on my PS4 and an extra 500 GB for my laptop. I would recommend this device to anyone looking to simultaneously upgrade their PS4 storage and reuse the leftover stock PS4 HDD.</t>
+  </si>
+  <si>
+    <t>I have a 1TB Seagate external hard drive that I use for my home computer, but found that I needed an external hard drive to use at my job as a special education teacher as well as I've been carrying multiple flash drives for all the files I want to back-up/have access to when I'm not at work. I purchased a Seagate drive because I've had issues in the past with WD drives crashing. I was slightly disappointed when I realized the price I paid for this drive is essentially the same that I paid for the 1TB hard drive I purchased in 2013 (you'd think the price would come down after 2 years!) but it was still a good buy compared to what's currently being offered on Amazon. I have transferred my files from my flash drives without issue and am looking forward to the convience of having all of my work files in one location. I would highly recommend this product to a friend or family member.</t>
+  </si>
+  <si>
+    <t>Works well. I have a MAC. When you first plug it in, it walks you through setup, with MAC guidelines that show you how to format the drive to change over to MAC format for use with time machine.</t>
+  </si>
+  <si>
+    <t>You'd think being labeled "portable" that removing the USB 3.0 data cable and plugging it back in no more than 4-5 times wouldn't be an issue - but it is - and one that others have had, too. The pins are not much bigger than a human hair - and bend easily. One pin was bend and grounding out, making it impossible to use on 3.0 (but 2.0 still worked). After some research I put it under a magnifying lamp and found the pin. I used a straight pin (needle) to probe the pin but the pin broke free. The drive now works</t>
+  </si>
+  <si>
+    <t>Bought for an Xbox One. Was almost scared away by other reviews stating that you would have to wait for the Xbox to be turned on every time before plugging it in but I bought the 2 TB drive anyway. Not sure if things have changed since older reviews were written but I leave my drive plugged in and it works just fine - gets recognized as soon as I reach the home screen. Got it formatted with 1.8 TB to spare and moving saved items from my internal memory to the drive was simple. Only had it for a week so far so I cant speak to durability but fingers crossed that it doesn't crash anytime soon. Also, much smaller than I thought it would be.Good luck!</t>
+  </si>
+  <si>
+    <t>got it extremely quickly, I have prime but im overseas on deployment so I was surprised how quick it came. I would not have bought this if it were not on prime. i bought one then realized i needed another drive so i shopped around for the second one and came to the conclusion this was still the best one, prob have only used it 20 or 30 times so far but zero issues as of yet, we will see if it makes the whole year in the desert</t>
+  </si>
+  <si>
+    <t>I have owned almost every brand of external harddrive and at this point I can say this one was the worst. I had it for a month and it stopped working all together. When I plug it in the light comes on but the drive doesn't spin. Even my HP external is still working and it's over 6-7 years old. Needless to say I had to RMA it back to Seagate. They sent me the replacement quick enough though I had to pay $12 to get it quicker and receive the packaging/label to ship the broken one. I wouldn't recommend this brand of external as it's life expectancy is very low. Go with Western Digital instead.</t>
+  </si>
+  <si>
+    <t>The size is on the plus side if you are space limited like me. I immediately plugged it in and formatted it and transferred files over to the hard drive. No special training needed for use of this device. On the down side of this if you are trying to use this for a backup of a video game system be sure you check the website for your gaming system first. You CANNOT use this as a backup for WII U!!!!! Even if you try using a Y cable it will not work. Also, for use as a video game back up system you will want to use it only for that video game system.This is not a failure of the hard drive but a failure for the video game systems that you are trying to hook up to the hard drive.</t>
+  </si>
+  <si>
+    <t>I haven't had this long but I really like it. It let me back-up with Time Machine from my MAC the same day I spilled food on my laptop and likely broke it. The help line has been really helpful and responsive to direct me how to find my documents and pictures via a non-Apple computer, and I like the size. I bought an Amazon travel pouch with this order, which fits it perfectly. I can keep it in the pouch when I use it to back up quickly. So far, I'm pretty satisfied. I'm glad I read others' reviews of this product.</t>
+  </si>
+  <si>
+    <t>This is the second Seagate Expansion 4TB Portable External Hard Drive that I purchased after being happy with the first one that I purchased 3 months ago. The reason that I bought this second is because I accidentally dropped my first one and was terrified, because all my files were on that drive and I had no backup at all, but it continued working like a champ *Sigh of relief*. It operates very quietly, can't be heard at all, it doesn't heat after being put to heavy workloads (I copied 1TB from one drive to the second in a single go), it's lightweight and small in dimensions compared to other external hard drives, it doesn't need a power source, it gets it from the single usb3 connection, fast transfer rates on par with usb3 capabilities. With this last purchase I bought 2 Lacdo Hard EVA Shockproof Carrying Cases as protection for these HD's but prior to that I used the original box as protection when carrying it in my bag, last but not least it has the cheapest price of the 4TB portable usb3 external hard drives that are on the market.</t>
+  </si>
+  <si>
+    <t>Do you want a hybrid external 3.0 hard drive? This is the one you want. Do you want to change your 500Gb PS4 HDD to a hybrid 2TB hard drive? This is definitely the one you want.As you can probably guess, I used this for the second option. Opening the case is unbelievably easy, although since this is a new model, don't expect it to be glued like you see in all the videos of people opening this. The new model is locked via plastic locks which sound horrible when you're prying the case open. Fortunately, it can still be closed again if you choose to be careful and want to reuse the case.There's a Samsung Spinpoint 2TB M9T inside, which is perfect as a PS4 replacement. As long as your PS4 has a 2.50 or later firmware and you download the 7000-800Mb full firmware from Playstation, there should be no hiccups during installation. I formatted the HDD before placing in on the PS4, just in case the software that comes with Seagate drives intereferes somehow.</t>
+  </si>
+  <si>
+    <t>Works fine! No longer have to delete games or apps due to low storage. We did get the error message that other posters talk about, but after turning off the PS4 and turning back on, message was gone and hard drive works fine.</t>
+  </si>
+  <si>
+    <t>Very happy with this purchase, it's perfect! I needed an external hard drive to store all my music, photos, etc. And this is more than enough for me. My dad got a Seagate hard drive years ago and his is still going strong, so I knew Seagate was a trusted brand, and I wasn't let down. Also the device is very small and super portable (especially compared to the old one we'd been using!). The USB 3.0 connection makes for very fast transfer speeds; I was able to transfer 2000+ songs from my library in under  an hour, and it only took that long because I had to move it by artist (idk if it was too much to move at once or just iTunes being dumb). If anything my only problem is that it unplug very easily. If I so much as move it over a little to adjust some cords it'll disconnect from my computer. However I'm sure this is either a cord issue or a port issue, and has nothing to do with the quality of the device itself. Buying an extra USB isn't that big of a deal.Overall very happy, I would definitely buy again if  I needed to!</t>
+  </si>
+  <si>
+    <t>I have a MacBook Air and this product is not formatted for macs. Searched online how to format for Mac and was using it in less than 10 minutes.</t>
+  </si>
+  <si>
+    <t>I use external hard drives to store video and photo content I gather from trips and vacations. This is my first time buying a seagate product and so far I am very impressed. The casing itself is strong and sturdy, does not scratch or scuff easily, and looks great. When connected to the computer it has very minimal vibration compared to other external hard drives I have used. Data transferring and excretion has always been smooth. Great product.</t>
+  </si>
+  <si>
+    <t>Super legit, usually if you format the hard drive on a windows OS, you cant use it on Mac, but seagates has a little addon that supports you to use it on both OS without re-formating. Besides that the transfer speed also exceeds my expectation, and the unit is well built with solid material and good design. Instead of buying a cheap hard drive and end up losing all your valuable data, this would be a one time purchase that leaves you worry free.</t>
+  </si>
+  <si>
+    <t>worthless piece of crap it worked for my xbox one and now it doesn't work anymore don't buy this unless you want to waste your money. it stops completely it when I plug it back in it wont show up my games at all and I try to connect to my computer it doesn't work either. do not buy unless you are super despret.</t>
+  </si>
+  <si>
+    <t>Arrived quickly in a manufacturer case/box and wrapped in a bubble envelope.The protection was good and my product was not harmed or scratched.I am using it (Seagate 1 TB model) for my Xbox one, and it comes with about 980 GB after being formatted to be compatible with Xbox One.Not upset about that, 20 GB is barely missed when you have 980 more, haha.My last external HD (the "My Passport" 1TB model) worked for about 3 months and then went out (started making a ticking noise and then couldn't be read), so I am hoping this new Seagate Ext HD is going to be better.I plugged it into my xbox, formatted it, and it worked perfect.I will comment/update this in a few months when I have been using it for a while.But so far so good :)</t>
+  </si>
+  <si>
+    <t>The drive worked fine but the short usb cable provided had an intermittent connection problem. Tried with several usb devices. You had to have the plug pushed in just so to have the drive be recognized by the host device otherwise no joy. Returned for exchange. Seagate is a trusted name. Just a bad cable. It happens.</t>
   </si>
   <si>
     <t>Great purchase ... about to order a second as a back up. No instructions ... was hoping to mirror my hard drive but had to settle on using this as a document and file backup (guess I need to get to a techie). Accurately described, shipped and arrived quickly.</t>
   </si>
   <si>
+    <t>Fantastic external hard drive. With 2 TB of data, it'll take a while to use it to its limit. The product itself was plug and play and that's all there is to it! Really can't complain about anything Seagate did with this product. The design itself is beautiful, with the pattern/texture very pleasing to the eye. It is much sexier than other external hard drives I've purchased in the past. The writing speed was quick, transferring multiple GB of data quickly.It was packaged securely, and I really can't complain. A+ by Seagate. Well done!</t>
+  </si>
+  <si>
+    <t>Sure did relieve a lot of stress about backing up my music library. I was hesitant to buy an external USB drive because the Western Digital one I had just stopped powering up. I bought this based on reviews. If it fails in an unreasonable amount of time, I'll come back and be sure to write a fittingly scathing review. But, so far so good. Now if only my old laptop had a USB 3.0 port...</t>
+  </si>
+  <si>
+    <t>I wish I had gotten this ages ago! I managed to put everything from two old Mac laptops on here so I could sell them. (There are instructions in another review on how to configure this for Macs.) My ONE complaint is you have to be very firm when inserting it into the USB port. It doesn't easily go all the way in, but the computer will recognize it. If you try to then insert it fully, the computer will think it has been incorrectly removed. Still glad I got it!</t>
+  </si>
+  <si>
+    <t>A very Good drive, three stars because this one failed after 1 month, they will honor the warranty but it will cost you, either to send it back and wait for replacement  or 12$ to Seagate  for them to send it out immediately with prepaid return package and label, Not bad but a defective unit should be replaced free of charge. other than that these are great units.</t>
+  </si>
+  <si>
+    <t>When I got this, I expected it to work right away.Maybe it is different for me because I have a Mac, but it took me 20 minutes to figure out how to simply put a file on this HD.Here's Why:I tried to drag/drop a file. It acted like it wasn't able to store anything. I looked in the files that came with the HD. There was a set up for mac. I had to register it and a few other things. It still didn't work.I had to google until finally I found someone who said to go to Disk Utility and format the HD, eject it, plug it back in, and THEN it would be usable.I'm sure now it will do its job, but this was very frustrating.</t>
+  </si>
+  <si>
+    <t>I keep everything on this hard drive because of the fast download/upload speed and it does NOT CRASH! 1tb is plenty of space as I consolidated 2 personal laptops with documents, pictures, program files, laptop games, school docs, and computer clutter all onto the same hard drive with space to spare. I now have 2 clean laptops with a hearty hard drive that I can use to access anything. Also a pretty and textured design that is professional looking to bring around.</t>
+  </si>
+  <si>
+    <t>This is a great deal for the price. I bought it to use as external storage for my PlayStation 4(original model). It works great but with one nuance. It will only work in the the left USB port. When I tried the right port the system kept telling me it was an unsupported drive. As soon as I moved to the left port I was able to format it and use it. The transfer speed was impressive, copying full games from the internal drive in a few minutes if that long.</t>
+  </si>
+  <si>
+    <t>Used to backup files, and only accessed about once or twice per week, this drive has failed in record time compared to any other drive I've ever owned or used. The quality control of these units seems to be lacking, as a large number appear to be highly rated and working well for so many people -- but a significant percentage of the units (as rated here and on other websites) are complete duds. This is very disappointing.</t>
+  </si>
+  <si>
+    <t>Very good and well made hard drive. I bought this to put in my ps4 and it was pretty easy to install all I needed to do to pop off the case of the hard drive was use a flathead screwdriver with a thin tip to get in the groove, but you could use a knife also but if you have my luck the knife would end up slipped and cut yourself so I wouldn't recommend using a knife unless that's all you have. After I got it opened all I had to do was unscrew four screws and slip it into the ps4 and take off the adapter. And then install the current firmware and then your good to go. And then you can put your old hard drive in the external case and use just like a flash drive.I recommend this hard drive if your looking for a hard drive for your ps4 and it's cheaper than getting the bare hard drive.</t>
+  </si>
+  <si>
+    <t>This little jewel I am using as a basic personal data backup primarily for the many data bases I have built over the years. Also have numerous photo albums using TIFF files for research work I use to do. Easily setup. I did reformat it to exFAT since I also use it with a couple Macs as well as Windows machines. Macs don't like NTFS. Small, handy and worth the price.</t>
+  </si>
+  <si>
+    <t>I ordered this hard drive to use with Time Machine. It is small, very portable, and a lot of memory for the price. Set up was easy. However, I wouldn't reorder this product because about half the time it doesn't function in backing up via Time Machine. I don't know why. If, like me, you are going to use it for Time Machine, I'd consider another option.</t>
+  </si>
+  <si>
+    <t>So small and cute, I am surprised at how small these really are. And so far they have so much space and they're working great so I'm really happy. Holds so much space. I'm not like these hackermans who are running tests on their things, but so far I loaded hundreds of GBs on it and it's the faster one for video editing. I'm very happy.</t>
+  </si>
+  <si>
+    <t>Just what I needed. I have a Macbook Air and you have to reformat on a Windows computer. Convert from NFTS to exFAT for it to work. After formatting, the hard drive is compatible on both Win and Mac.1. On a Windows computer, right click hard drive and select "Format"2. In "File System" dropdown box select exFat instead of NFTS3. Click "Ok" and you're done!</t>
+  </si>
+  <si>
+    <t>Great product at an awesome price. Took less than 3 minutes to format for PS4 use as extended storage and the system file took less than half a TB, so i started out with 3.7TB extra space. The only complaint i have is the length of the included cord. It isn't long enough to put the drive anywhere except on the PS4 or directly beside. If you're wanting to tuck it away anywhere you will have to buy a longer cable than what is provided</t>
+  </si>
+  <si>
+    <t>I previously wrote a five star review for this hard drive. Two hard drives and a few months down the road, I am reconsidering my review. The first one I bought failed within two months and I had to send it back. I ended up giving my son the refurbished one that the warranty gave me for the failed one.The second new one I bought, which is hooked to my XBox One right now, is very new and  is already trying to fail on me. Without moving it around or turning it upside down, it doesn't work</t>
+  </si>
+  <si>
+    <t>It will give you the extra space needed but I think the write speed is slow. Not sure if it is just mine as I have seen other reviewers saying it's fast but maybe I expect too much. Have it for a couple weeks now and it's still working fine. Works well enough</t>
+  </si>
+  <si>
+    <t>She hasn't even opened it yet but I'm certain it's just fine. I think she thinks it's an early birthday present not due until November, she wants to open it on her birthday. It's not an early birthday present,, I have that stashed away already, this was for her to use but now I can't say anything without giving away my secret :-)</t>
+  </si>
+  <si>
+    <t>I have bought several of these over the past few months. One for the office, one for my work laptop, one for my home laptop and one to hold extra movies for my blue ray player. Love the extra storage and no muss no fuss installation.</t>
+  </si>
+  <si>
+    <t>The part that gave it power failed on me and there was no way to access the files. And, of course, it fails on me right after the warranty expires. My computer technician brother-in-law had to help me and I ended up having to purchase a program to recover all my data since all of my valuable art, documents, and videos were on there. Don't buy this. Buy something that plugs into the wall to get its power instead of your computer/laptop.</t>
+  </si>
+  <si>
+    <t>This drive works great for expanding the storage on your Xbox One S. The drive shows up as 1.9 TB in the Xbox.To use this with the Xbox One S just plug it into the USB port on the back.  The XBOX software will prompt you to use the drive for media or to format it.  You will want to choose format. After this you are prompted to use this device as the default location to store games.  To move games, simply click the menu button over the game in My Apps and click manage. Then select move all.</t>
+  </si>
+  <si>
+    <t>Functioning nicely with the exception that the blue 'on' indicator light expired very early in the game earning this unit one less star than I would otherwise give it. Previous experience with another smaller Seagate external hard drive (still functioning two years later but full) taught me that they really prefer to be powered from two usb ports so I am running this one on a 'Y' adapter and saving some wear &amp; tear on my computers ports by leaving the cheap to replace 'Y' on the machine at all times. The 1TB size is turning out to be a good choice- backing up two computers and a couple dozen full length HD movies with plenty of room to grow.</t>
+  </si>
+  <si>
+    <t>This drive started giving me errors at month 4 of ownership (40% capacity). At month 6 (75% capacity), I now get constant errors of "Not properly ejecting the drive" when the drive is just sitting on my desk, which when you're using a program like LR can cause your entire catalog to corrupt. Needless to say, this is the last Seagate drive I will purchase.</t>
+  </si>
+  <si>
+    <t>I browsed several reviews and read that some users were having trouble with the drive. Heck I plugged it into a late 2016 Mac model and it recognized the drive. It was formatted with ntfs and I reformatted it and chose Mac OS extended journaling and then I performed a time machine backup. Success! The drive is a bargain at its current price!</t>
+  </si>
+  <si>
+    <t>I got this when memory space became an issue with my Wii U.  I bought a USB 3.0 "Y" cable to power this, and it's working great!  Now I have oodles of memory, this drive is pretty quiet, and the Y cable eliminates the need for a power supply.  All I had to do was connect the cable from the drive to the two USB ports on the back of the Wii U, format the drive from the Wii U options, and start loading content into it!  Highly recommended if you need a external drive for your home console!</t>
+  </si>
+  <si>
+    <t>I bought this is february for my boyfriend. It's worked ok except the occasional it freezes up his xbox and he has to restart it. Now it no longer works at all!!! When he connects the rather short cord it lights up for a second then shuts off. It won't even register on his Xbox that it's connected.</t>
+  </si>
+  <si>
+    <t>This drive, likes it's larger cousin (Seagate Expansion 4TB Portable External Hard Drive USB 3.0 (STEA4000400)), is a fantastic drive for computer data backup, storage of large media files like drone footage, lots of digital photographs, or music. With a variety of data storage sizes, it's easy to find the precise model to match your backup/storage needs!Two thumbs and two big-toes (for a total of "4") up!!!</t>
+  </si>
+  <si>
+    <t>I bought two of these, one for data backup and one for a PS4. The one I've been using on my PS4 for several months now without any issues.  I sent the other one to a brother in the navy which lasted about a month and then quit working. I'm not positive it failed on it's own or due to damage or other reason. Amazon returns attempted to assist, and have issued a return once my brother is able to ship it back.</t>
+  </si>
+  <si>
+    <t>My only gripe with this product is the fact that it took a week for me to recieve it after paying for 2 day delivery!!! Outside of that and that fact that  you can only save your applications to the unit. You can not save your saved game data do it which kind of negates the reason for it. However I can confirm that it is compatible with the PS4. After formatting you have 1.84 TB of space left. It's still an exceptional storage device and a steal for the price. It does what it says it will do.</t>
+  </si>
+  <si>
+    <t>Well, bought two of these until I got an IPhone 7 plus with 256gb, and a Galaxy S7 active each holding over 10,000 pics and a laptop with 1TB (or estimated 930GB).  I bought the 2TB, but I will need either a network server or a 5TB just to keep up. Still an awesome product and efficient. I've used Seagate for decades, and they've always got the job done!</t>
+  </si>
+  <si>
+    <t>Small and compact, plug and play, holds lots of stuff. The only thing I don't like about it is that it's so small and dark it disappears into the background. You may want to slap an orange sticker on it if you tend to misplace things.</t>
+  </si>
+  <si>
+    <t>great hard drive i am using it for more memory on my ps4, i would have given it 5 stars but the drive just dose not like to run big games i tried putting fallout 4 on the hard drive and it crashed about every 20 mins or so, but if i played something like dark souls 3 or gta v even rainbow six siege, it works fine. but just be aware it dose not work that well with big game that use an enormous amount of memory but other than that it works wonderful.p.s- i have the 2tb one</t>
+  </si>
+  <si>
+    <t>I got this to use as a backup drive for my work laptop. It works as expected. Transfer speeds are great and it doesn't draw too much power from my USB port.</t>
+  </si>
+  <si>
+    <t>The USB hard drive arrived in perfect condition, well packaged and cushioned. Opened it and started using it immediately. Was already formatted NTFS. Just an excellent product. Fast. I use Windows 10 so no problem at all. Used it to copy movies, photos. Everything displays well and plays well.</t>
+  </si>
+  <si>
+    <t>I use this thing all of the time! Everything from presentations for my school to go pro videos for my YouTube channel buck-N-dive productions! I put so many videos on here it's ridiculous and the thing doesn't slow down or a lag! No files have been lost to date and it still as reliable as ever! I use it with my surface pro for laptop notebook and keep all my files for video in different presentations on the same external hard drive and it works flawlessly!!</t>
+  </si>
+  <si>
+    <t>I bought this device for my PS4 to use an expanded storage. At first it said that the device was unsupported, but I found out a way to make it work. To those of you who got the same message here's what you need to do: (1) Find the USB storage settings, then (2) make sure that you have the device plugged into your system, then (3) format it. Your device should work now. I didn't know about that until I got a discovery tip from PlayStation saying that I could use a USB storage expansion for the PS4. I clicked on the tip and it took me directly to the USB storage settings and I formatted it. So far I only have until dawn in the expansion, but I'm planning to put my other games in there as well. Have a good one!</t>
+  </si>
+  <si>
+    <t>After constantly having to delete my games to make space for new ones,I decided to buy one of these.When I got it the next day,I plugged in one side of the cord into the drive and one into my Xbox and a screen popped up saying 931.5GB available,then after selecting some options My games and apps page went from 94.7%used with 19.1 GB left to 26.6% used with 950.4 GB left.I now finally have enough storage for all of my games.Amazing Product for Xbox one</t>
+  </si>
+  <si>
+    <t>This thing is awesome it is a small and fits any place you need. My only critique is the cord that comes with it is very short, like only 6 inch maybe. It will reach only the top of your computer. It runs great and has tons of room. It was very easy to set up you just plug it in and follow instructions and your done. :D</t>
+  </si>
+  <si>
+    <t>These external drives are very handy. Among other uses, I back up my computer to them. When they fill up, I can easily just get another, and keep my computer information for years.</t>
+  </si>
+  <si>
+    <t>Love this drive! Small footprint with ample storage. We have three PC's in the house running Windows 10, 32 &amp; 64 bit versions. This drive can store two system backups for each our computers for a total of six full system backups (I backup our data directories to the cloud using Comodo Backup). I'm doing a system file backup as I write this review.</t>
+  </si>
+  <si>
+    <t>I DID NOT GET THIS FOR FREEWhy I love this product. I recently purchased a Macbook Pro for editing videos and do a lot of work but i didn't want to use my internal storage and decided to order a portable external hard drive. I saw this one for sale, a reasonable price for its memory, thin for portability, light weight, and USB 3.0 (Fast Transfer) and once i got it and started transferring my 1080P 60FPS- 4K videos into this hard drive i was amazed how quickly it got the job done. I had to transfer 5GB worth of footage and 2GB worth of pictures(pictures at a high quality setting=more memory) and all of it transferred under 2 minutes! This was my first purchase of a portable external hard drive and overall i'm loving it, can't wait to get another when i run out!</t>
+  </si>
+  <si>
+    <t>I bought this drive to back up an extensive music collection. It does a beautiful job backing up and retransferring files to and from my Windows 7 desktop PC, but it wasn't recognized on My Braille Sense U2 note taker. Aparently devices that work with that note taker need to be a FAT-32 format, and this Seagate drive uses a newer format, so be careful if you want to use it with older portable devices to transfer files. I'm not a high-tech person, and others who want to buy this drive may already know how to check for this issue.</t>
+  </si>
+  <si>
+    <t>I am not a tech-oriented person so I am just not equipped to write about write speed, reading speed, etc. with this hard drive.  But for non-techy people, I will tell you how I used this and how it is working out for me, and hopefully that will aid your decision.I got a new MacBook Pro a few months ago and I wanted to get a new backup drive to go with it.  My computer has a 500 GB capacity, and I had somewhere read a recommendation to use an external drive with about twice the capacity of the hard drive for Time Machine backups.  So I bought the 1 TB drive at this listing.I did reformat this with Apple's Disk Utility before using, it was pretty simple but not 100% hitch free (for some reason, the first time I tried, Disk Utility crashed, but I restarted the process and it worked after that).  Iif you encounter this same kind of problem, try again (at least once or twice more) before giving up!This is pretty small and doesn't require external power (I think the lack of external power has been a thing for awhile, but the last time I bought an external 1 TB hard drive was in early 2010).  If you are using it with a new Mac, you'll need an adapter (USB C/USB A) because this has an older style port.  (if you're buying for use with most current PCs and gaming systems, you should not need an adapter.)  But those adapters can be had inexpensively from Amazon and you will probably want a few for other devices, anyway.  (I have not tried using this from a USB hub.  I am under the impression from reading specs on it that you require a powered USB slot so I don't think it would work with a hub.)Backups seem quick.  I don't have a ton of stuff on my hard drive, and I do usually just plug this in (Time Machine automatically detected it and asked if I wanted to use it as a backup disk) and let it go without paying a lot of attention.  I try to use it at least once a week.  I've had my computer for maybe two months and done 8 or 9 backups and haven't had any errors.  This hasn't made any strange noises (of the sort you would hear if it was struggling to read/write).  Once when one of my cats knocked into it and it came detached from my computer, I just plugged it back in with no ill effects.Anyway, I've been happy with this so far and would buy the same one if I had it to do over again.</t>
+  </si>
+  <si>
+    <t>Used for a softmodded Wii. Works perfectly. Currently playing backup Gamecube and Wii titles off this drive.</t>
+  </si>
+  <si>
+    <t>I really like my Seagate Expansion 1TB portable External Hard Drive. My only complaint is that I wish it came with a longer cord so I don't knock it off my desk and I could put it behind my computer not at the side. Other than that I really think this will be a huge help with my storage.</t>
+  </si>
+  <si>
+    <t>Got this drive to upgrade my PS4's internal drive. It took a little time to pry it open (use a small flat head screwdriver), but it came apart without too much trouble and it went into my PS4 just fine. The best part is that I was able to put my PS4's 500gb drive back into the enclosure and use it as a nice external drive with my Xbox One. The speeds have been about the same; I know I could have sprung for a SSD, but you can't beat $70 for 2TB at the same speeds the standard PS4 drive gets. Great little hard drive all around!</t>
+  </si>
+  <si>
+    <t>I haven't been able to make it work properly on my Asus laptop with Windows 10. It was supposed to be plug and play but when I plugged it to the USB port the device was not detected. Actually it seems it's detected, If I go to My Computer -&gt; Manage -&gt; Devices I can see it and it says it has the latest version of the driver. But, on Windows Explorer, it never shows up. There's no drive. This is frustrating I hate this product. I shouldn't move from WD....</t>
+  </si>
+  <si>
+    <t>This thing is slightly smaller than my hand, although I do have fairly large hands.  Anyway, 2TB is enough to store a lifetime of pics and videos.  Since my wife and I are just getting started on our family, I think it'll be a wonderful way to consolidate our lives and adventures.</t>
+  </si>
+  <si>
+    <t>This hard drive is perfect for students to use. I used it to store videos and projects. For optimal read and write speeds, you should plug this external hhd to either USB-c or USB 3.0 port. If you plug it into a USB 2.0 port, the write speeds aren't that amazing but isn't that bad either. While plugged into USB 3.0, I get write speeds of 70-90 mb/s while transferring 10GB files. Overall, it is a very good external hhd to have.</t>
+  </si>
+  <si>
+    <t>Bought for Xbox expansion. Worked great! Speeds are fast and can't even tell I am using an expansion memory. I also used for computer to transport all files and settings from old computer to new. Worked like a charm! That is how it came formatted. Had to reformat for Xbox but Xbox makes that extremely easy and painless!!</t>
+  </si>
+  <si>
+    <t>I bought this in lieu of more internal storage with the introduction of patch 4.5 on PSN and am so far pleased by this solution. There was some mix up with a FFXIV update that resulted in my having to reinstall the entire game, but I'm hoping that was a one time occurrence.</t>
+  </si>
+  <si>
+    <t>Seagate has always been a trusted brand for me especially for external HD and memory expansions.Very reliable and user friendly.I am not paid or in any way tied to promote these and I don't review, praise or give negative reviews on just anything. Hope this is helpful.</t>
+  </si>
+  <si>
+    <t>Bought this for our 21.5 Imac and used the Time Machine to back up our pictures and stuff. Everything seems to be working</t>
+  </si>
+  <si>
+    <t>Not happy with this AT ALL!! We are on our SECOND hard drive and now this one stopped working out of nowhere.  I will NOT be purchasing another one. It will work for a few weeks or a month and then won't connect . It's not damaged it hasn't been dropped and I can't even begin to understand WHY these aren't working properly??? I've heard great things about Seagate, however our luck hasn't been so great! If I were you I would definitely look into a different brand. This one has been hell dealing with!</t>
+  </si>
+  <si>
+    <t>Love this drive. Very light weight but feels sturdy. Extremely fast transfer speed. Only suggestion is get an extension cord, the one that is provided is only about 1.5 Ft and since it's a special port on the drive you'll want a regular 3.0 USB extension cord. Also bought a travel case for this and even with the case this drive is feather weight</t>
+  </si>
+  <si>
+    <t>Just got and installed - This is sold as a 1 TB External Portable - which is 1024 GB.  Actual total starting point of storage is 931 GB and before it even starts backing up says there is only 929 GB.  Now mind you... Sounds silly to complain...but I should get what I pay for and not 100 GB less.  We shall see how well it works and then I will write another review.</t>
+  </si>
+  <si>
+    <t>works great as a network server, network hard drive, external hard drive or even expanded storage for a PS4 and xBox One. It is fast enough for standard use and handles being moved around very well. It is SMALL, so be prepared for a little product with a big drive quality!</t>
+  </si>
+  <si>
+    <t>I purchased this portable drive for my PS4 , set up was as easy , I plugged it into my PS4 and formatted the drive and now I have 4 TB of extra space . Took maybe 5 minutes if that , ordered the drive on Sunday and it was delivered on Monday . This my 2nd seagate expansion drive , good product no complaints.</t>
+  </si>
+  <si>
+    <t>I bought this external drive for use with a Wii U and it works wonderfully. It requires a Y cable for power, but I've had absolutely no problems.</t>
+  </si>
+  <si>
+    <t>So I got it and plugged it into my PS4 and there wasn't a full 1tb of useable storage only 878 GB and I had completely wiped all files off of it. I'm marking it down because I got chipped 125 GB worth of storage space. But hey 878 is still a lot and more then enough for now.</t>
+  </si>
+  <si>
+    <t>This is a really nice expansion external hard drive. Really easy to use. Just plug in your USB port on your computer and in an instant you can drag and drop files safely for storage. Thanks I really like this product and I am especially happy with my customer service experience, too.</t>
+  </si>
+  <si>
+    <t>1tb hard drive seems ok so far I use it to store music files but im sure you can save whatever your preference is. Light weight plastic construction. Dont feel this would make it through the apocalypse or a 20 foot drop. However for day to day seems to be holding up ok</t>
+  </si>
+  <si>
+    <t>I bought this for my ps4 and it isn't recognized by my playstation or by my computer and won't work. The blue light is on and the drive itself seems to be spinning but it won't make itself recognizable to any of my devices. This was broken straight out of the box and I am extremely annoyed.Update: I read other reviews and listened for a beeping noise and lo and behold, it is in fact beeping which by the sounds of other people's reviews means that it is no good.</t>
+  </si>
+  <si>
+    <t>I download a lot of music and movies, so many in fact, it's 75% full in a little over a month.However, out of all the external drives I have purchased, this one  I can honestly say is truly "Plug &amp; Play".No BS setup to deal with like other externals I have purchased.My only disappointment is that the computer manufacturers have done away with "FireWire"Sure, USB 3.0 is indeed faster, but still draws on other USB devices, slowing down the process, as opposed to FireWire operating independently.Yes, I will soon purchase another drive like this one.</t>
+  </si>
+  <si>
+    <t>My son used this from July 2016 to April 2017.  It started out working fine then started not working all the time and now it is dead.  Not happy that this fairly expensive hard drive lasted less than a year.</t>
+  </si>
+  <si>
+    <t>Bought this for my Xbox One for additional storage space. Great for gamers with a lot of games or apps on their device. Simple to use.</t>
+  </si>
+  <si>
+    <t>I bought this for my PS4 and it worked like a charm. Being able to move games off my PS4's HD is a life saver as I kept having to uninstall and reinstall bigger games when it got full. Setup was easy, and so far this HD has been reliable, fast, and no hassle.</t>
+  </si>
+  <si>
+    <t>I purchased this drive as a backup after losing a lot of important data. My computer runs Windows 7 64 bit which I will continue to use as long as possible and it instantly recognized this Seagate. I use the Windows 7 backup utility and it works perfectly with this drive. This Seagate drive is very small, just 5" x 3.5" and .5" thick, so it's almost out of site just sitting on top of the computer. The only indication it's there is the little blue light on the front which blinks as data is being written to it. I greatly appreciate Seagate for the quality of their products and the warranty that comes with them. I actually am a fan of both Seagate and WD when it comes to data storage. I therefore dub this drive my official backup device for my entire digital existence. Excellent job, Seagate!</t>
+  </si>
+  <si>
+    <t>Wow, I got transfer rates of close to 100 Megs a second. It smokes my western digital USB 3.0 external hard drive. I used to be a loyal WD consumer but Seagate has really taken over in my opinion. I highly recommend this hard drive. It is a lot lighter than the WD passport too.</t>
+  </si>
+  <si>
+    <t>Notice for less tech savvy buyers:Before using it on your PS4, you'll need to hook it up to a PC and format it to Fat32 or ExFat. Google it if you don't know how. It's quick and easy. Now then...After the format, it works flawlessly. Backed up my stock drive (With P.T. on it) and restored it on a 2TB drive. The backup process took around three hours, and restored it in three more.The drive is also bus powered. I wasn't expecting that. :D The only slight catch is that the included USB cables is a tad short. But it's a tiny issue.Buy it! :D</t>
+  </si>
+  <si>
+    <t>I'm still baffled to carry 4TB in such a small package, best price out there, I got 100MBs sequential write speeds on it on an USB 3.0 port copying from an SSD. Decent speed, I am happy with it.PS: Careful, this is the version that cannot have it's internal disk removed (the usb controller is built-in).If you just want to get the disk out of it, then get the other version STDR4000100</t>
+  </si>
+  <si>
+    <t>I was super happy with this and gave it 5 stars, but 11 months after buying, its failed, corrupted. It was a good price, very easy to use, ran my back ups on it for 10 months, so 2 stars for that. Seagate has been one of my go-to brands for a long time, but will replace this with a toshiba and see how that goes.</t>
+  </si>
+  <si>
+    <t>The bad first the problem was the connection between it and the USB was the weird connection it's like a USB 4?and it was impossible to find it so I gave up and I don't use the external hard drive</t>
+  </si>
+  <si>
+    <t>Works great. Just turn your xbox one on and then plug the hardrive in. It will recognize it after the console is already on. Then configure the hardive to how you wanna use it. Want movies and music, perfect there's an option for that. Just want to store games on it? You have that choice as well. But you cannot store both catagories on it. So choose wisely. WorKS perfect though. It's a must buy if you don't wanna buy a new console.</t>
+  </si>
+  <si>
+    <t>This is a great hard drive. I just purchased a Mac Pro and used this hard drive as my full backup and I am glad that I did. By saving everything on the hard drive I will guarantee that my computer will run fast and I will have enough storage for photos for years!</t>
+  </si>
+  <si>
+    <t>Just what i need ...  i never buy a game disk i buy digital ones and download them to my PS4 therefor i need as much as a space that i can get . this 4TB external hard drive gave me what i really need ... i could`ve got a larger one BUT i went with this size because it doesn`t need a power cable its A USB powered (just connect it to your PS4 by USB cable(included) And your good to go) ..  larger than that will require a power cable . its up to you if you are ok with extra cables and weirs..but..  4TB is a plenty of a space i have to say.</t>
+  </si>
+  <si>
+    <t>This product was recommended to me by an IT specialist after I lost a lot of data from my hard drive through operational error. (I goofed, badly.) I have backed up my data on this Seagate twice; it is very simple to use and completes the job with remarkable speed.</t>
+  </si>
+  <si>
+    <t>Very fast, convenient, and for this price! My pc read it right away and I had no trouble using it. I'm a gamer and I keep a lot of games on it so when I do maintenance on my pc I won't loose important stuff. If you're heading to college I recommend you take this with you for extra back up storage. I don't have anything bad to say expect how it heats up when under heavy use. I was transferring like 40+ GB onto it and it got crazy hot but still. Great product.  just like torturing my devices :P</t>
+  </si>
+  <si>
+    <t>First, the expansion drive works well.Second, Seagate's support is outstanding.  I had a problem getting my computer to identify the drive. (Turns out the problem is that my computer has a faulty USB port.)  Seagate support took all the time needed to help get the drive installed.It was easy to reach them by telephone at 1 (405) 324-4700.  Besides installing the drive, they also helped me install their software needed to make a mirror copy of my computer hard drive on the Seagate external drive .  And, it saved lots of my time when I permitted them to assist me remotely on my computer.Having that level of help was essential and appreciated.</t>
+  </si>
+  <si>
+    <t>At first I loved this for it's size and easy connection to my laptop. However, it was bumped and fell on the floor. Since then  it doesn't work although loaded with important files. I'm a bit frustrated and disappointed in the fragility of the product.</t>
+  </si>
+  <si>
+    <t>Bought it for my PS4. I have the lastest update but my PS4 still doesn't recognize it. However I think it's more of a fault with my PS4. 4 stars because all the reviews said it will work on my PS4 with update. However I use seagate for all my storage needs. Never had an issue with them before. So the product itself is 5 strars.</t>
+  </si>
+  <si>
+    <t>This product worked as instructed and also serves as a great portable hard drive out side of using it for the PlayStation 4 so if you running out of space with your console and don't feel like playing operation with it buy this product it will save you time and money. Plus its small and compact so its not heavy at all.</t>
+  </si>
+  <si>
+    <t>These came quickly and the 3.0 usb is fast . I replace my older drive in an encloser and this seagate is super fast and compact.I bought 2($55 each) so I can back them up and put one on the pc and the other in storage to save all my important things.</t>
+  </si>
+  <si>
+    <t>This hard drive has been excellent. I got this to hold lots of media: pictures and videos. It transfers quickly and the 2TB of storage is great! It is a pretty standard size, small and compact. I really like the smooth texture and feel of it as well. Would buy again most certainly.</t>
+  </si>
+  <si>
+    <t>The Seagate Expansion drive is an excellent choice for external storage at home or in the office. The drive is compact and designed with some aesthetics in mind; it can sit on your desk without being an eyesore and is small enough to keep out of the way. After having this HD for a few months now, I can adequately give some pros and cons:Pros:- Small- Quiet- Great Price- SeagateCons:- The interface is the connected USB that has been popular with some electronics recently. Harder to find than a simple USB 3.0 Micro.- The included cord is very short.Though I had some personal issues with the cord, it wasn't enough for me to subtract a star from the rating. I have had good luck with Seagate drives in the past, and this one hasn't let me down.</t>
+  </si>
+  <si>
+    <t>Great product!!!  Absolutely LOVE it!!Package arrived safely and on time!What my reviews mean:5 Stars: EXCELLENT!!! I LOVE EVERYTHING ABOUT THE PRODUCT! Nothing needs improvement. Highly highly recommended.4 Stars: Pretty Good Product! There is at least one little thing I do not like.3 Stars: Average/Good. Ok product. Not great. Something or a few things need improvement.2 Stars: EH! Don't bother wasting your money. There is a lot that needs attention with this product.1 Star: AWFUL! Run, don't walk! Go find another product. This one is HORRIBLE!Thank you for taking the time to read my review.</t>
+  </si>
+  <si>
+    <t>okay, have had it a day and am well pleased.  I'm not a techno person that can analyze speed, but do know that transferring files was a snap and the price was right.  I will comment further if over time the product fails, but right now it is a 5</t>
+  </si>
+  <si>
+    <t>This was purchased to extend the capacity on a PS4. However, whatever I tried it did not work. I kept getting this Drive is not compatible errors. I’m not sure what others did, but it didn’t work with mine. I’m can at least give it 2 stars because it did work with my Xbox one</t>
+  </si>
+  <si>
+    <t>This really helped me out.  I have multiple 1 and 2 TB external drives used for many things and need something I can put all my backups in one place.  I've found the Seagate is the easiest to use.  The "plug and play" ability of this drive was great.  I had already purchased the Seagate backup software with another external drive, so I didn't need it again.  That saved me $5.</t>
+  </si>
+  <si>
+    <t>Had worried a bit about many reviews indicating their units failed after a relatively short period of use. I have only had it for a short period (a month or so) but so far it is functioning as intended. If that should change, I will update my review.</t>
+  </si>
+  <si>
+    <t>First one I got was broken (the connection on the actual drive was broken) I believe someone returned it and I happened to have the bad luck of getting it. I didn't mind though I got it for free in a bundle with a router. So I exchanged it for a new one and it worked perfectly. Seagate has been around for like 40 years. I have hard disk drives by Seagate that belonged to my father from the 90's  that still work.</t>
+  </si>
+  <si>
+    <t>Works great as an Xbox One external drive.  Turn on your Xbox, plug this in to the USB port in back, and wait for the Xbox to acknowledge this new drive.  You do have to choose whether to make this a game save drive or a media drive so figure that out before you start.</t>
+  </si>
+  <si>
+    <t>This drive worked fine for about two months.  I was using it to clone two Macbook Pro laptops using Carbon Copy Cloner.  Recently, the drive has caused my laptops to do the grey screen of death/force reboot.  After the reboot the Seagate is corrupted and has to be reformatted.I also perform CCC clones with an external Western Digital drive with no issues, so I know the problem lies with the Seagate.</t>
+  </si>
+  <si>
+    <t>So far, so great. Got this as a replacement for a desktop external USB drive. Powered up immediately, and I think it's actually faster than my old USB 2.0 drive. Not doing a lot of reads/writes as this is just a stored media drive for MP3s and the like, but so far, it's very good.</t>
+  </si>
+  <si>
+    <t>Works as I expected, louder than I would've have liked though. I use it as a backup drive and can hear it humming regularly as it does its job. This is partly caused by the case being such a thin plastic. If I hold the case firmly, the hum is gone.</t>
+  </si>
+  <si>
+    <t>Can't beat it for the price.  Have two of these now, no problems with either one.  Portable &amp; compact.  I ordered the bundle that included the amazon basics carry case, which was also pretty nice for the price.  I would recommend this drive.</t>
+  </si>
+  <si>
+    <t>Seagate makes a super, small, easy to use external hard drive!  I bought this for my Mother's computer to transfer all of her pictures onto.  It works great!  I've been able to store all of her pictures and there's plenty more room for more!</t>
+  </si>
+  <si>
+    <t>Love this.  Besides the fact it is only really workable on the PC and not so much on the Mac, that's the only reason for the 4 stars.</t>
+  </si>
+  <si>
+    <t>I loved these hard drives for Time Machine Backups. BUT, one of the two I ordered this year has stopped working. It appears to be trying to work, as the light is flashing when I plug it in, but isn't recognized by my computer. I have bought new cords, tried the other port..but to no avail. This is really disappointing as this is a rather expensive hard drive, at least to me. I don't see a way to contact the manufacturer, so........I guess it's a loss....</t>
+  </si>
+  <si>
+    <t>So far, easily synced and working great! Had over 25,000 , yes over 25,000 pics I had to get off my laptop. Worked easily and effortless. Winner Winner!! Saved my full laptop !Note: this is a real shopper review, nothing given etc</t>
+  </si>
+  <si>
+    <t>Just as described, plug and play set up in less than 10 seconds. Bought as extra memory for our 500GB PS4. Transferred 362GB from the system to the external in about 45 minutes. Small and sleek doesn't take up very much room at all.</t>
+  </si>
+  <si>
+    <t>Perfect for PS4 expansion now that it accepts external hard drives! It does come with a USB 3.0 cable, but it's pretty short. If you want to locate your external drive anywhere besides directly on to of your PS4, get a longer cable.</t>
+  </si>
+  <si>
+    <t>Works perfectly with my PS4!. Just plug in and format the drive. DONE. Highly recommend for game storage instead of internal drives.</t>
+  </si>
+  <si>
+    <t>I use this with my ps4 and have been very happy---I have plenty of room now! Only issue (and i think this is ps4 related) is that every so often my ps4 has to "repair" the device because it becomes disconnected when it really didn't</t>
+  </si>
+  <si>
+    <t>The drive has plenty of storage space to go around. Good for travel for sure, but I do work from both my laptop and PC (which is the term they use on the box and sum it up with an image of a laptop. I would think a company as prestigious as Seagate would know the difference between PC and Laptop) and the accompanying USB cord does help greatly for a laptop but too short for PC use. Seagate should advertise on the box that its meant for laptop or tablet use only and not make a mention of the acronym PC.</t>
+  </si>
+  <si>
+    <t>This is a great Hard-drive. I use it with my standard 500 GB PS4 because my storage was full and the console in general was getting really slow. Now with the extra 2 TB I've downloaded every single game I own and I barely used 600-700 GB. I also moved all the downloaded game from the console to the hard-drive and the console speed is back to normal.</t>
+  </si>
+  <si>
+    <t>This Seagate expansion drive was perfect for what I needed it for.  I was looking for an inexpensive external HDD with USB 3.0 support to supplement the meager 256 GB SSD on my laptop, and this fits that exactly.  Unlike some of the more expensive drives that cost more simply for their encryption software or backup programs that are preinstalled that you'll probably never use, this one gives you maximum space by having as little of a partition as possible.  While the speeds were not as fast as it advertises, they were still significantly faster than my USB 2.0 HDD that it's replacing.  In terms of appearance, it is made with an inexpensive plastic, but the diamond texturing helps to hide the material.  It has a small blue light that activates when it powers up.  Finally, it operates very quietly and stays cool.  All in all, this is an excellent HDD for the price and I would definitely recommend it for anyone looking for a basic model.</t>
+  </si>
+  <si>
+    <t>4TB for $120Super portableSleek designPlug and playFormatted for Mac and I was ready to backup within a minuteI just wish it had some type of wireless transfer option. I'm sure we will see a lot more of that in the near future</t>
+  </si>
+  <si>
+    <t>Put some photos on it and now I can't even get the drive to open or show up on my computer. I tried different cords and different computers. Lost all pics that I put on it. I called Seagate and they are sending a new on but I won't use it in fear of losing pics again.</t>
+  </si>
+  <si>
+    <t>Fantastic and easy to use. When I first plugged it in, I thought I had mistakenly been given a Solid-State Drive because of how quiet it was. I didn't feel even the slightest sign of a vibration or sound from the motor. It's smaller and much lighter than my 3 year old 250 GB Seagate drive.The only qualm I have with this drive, (which could be seen as my own fault) is even though it has USB 3.0, the fastest I have been able to get it to read is 43 MB/s through my USB 3.0 port. Just because a device says it has USB 3.0, which has the capability to transfer at 1.5 GB/s, doesn't mean it can ACTUALLY do that.</t>
+  </si>
+  <si>
+    <t>Though it worked just fine with my USB3.0 Laptop (x64 Win10),  it would hang on large file writes when used with my  Dell XPS420 32bit Win10 running a Inatech USB3.0 PCI-E card. Yet the same system works fine with a USB3 SD drive. Best guess is a driver or firmware issue with the XPS420. (Dell does not support it for Win10).  The drive works fine on the XPS420 in a USB2 slot (slower of course).Bottom line, if you have an older PC that didn't originally support USB3 or Win10 by the manufacturer, you might need to be willing to run at USB2 speeds.  But if using more modern hardware, the drive works fine on USB3.</t>
+  </si>
+  <si>
+    <t>I bought this unit as an early Christmas gift to a friend that needed more space on his Xbox 1.  He has a 500 gig model, and was constantly jockeying games around depending on what he wanted to play or update for a given week.  That's no way to game.  In any event, he told me he loves the unit.  All he had to do was plug it in, and he was prompted to run a fast format.  Once that was done he had an extra 2 tb of space!  He told me that he downloaded every update for every game he had, went back and downloaded every game he had deleted to make room, and he is still only at 28% capacity.  Most useful gift I ever got anyone.</t>
+  </si>
+  <si>
+    <t>I've had this since May and it worked great at first but out of nowhere it stopped working today. No power light and doesn't even show up in my list of drives! Won't buy this product again that's for sure!</t>
+  </si>
+  <si>
+    <t>Keep the original packaging. When this dies...and it WILL DIE...you will have to pay upwards of $40 for an electrostatic bag PLUS a box with 2" foam rubber padding to 'protect' the drive or your warranty will be invalidated.</t>
+  </si>
+  <si>
+    <t>I love this external hard drive. I have a macbook air from 2012, so it runs out of storage quite easily. This is my lifesaver! It has an endless amount of storage, is fast, reliable and looks bloody fabulous. It's quite compact too. If I'm traveling, i'll just carry it in my laptop sleeve. It barely takes up any space.</t>
+  </si>
+  <si>
+    <t>Dead on arrival.  Except for a faint buzz.  Since a good Merlot does that for me much better, I returned the drive.</t>
+  </si>
+  <si>
+    <t>Been using this with my Xbox One. About half of the stock 500gb internal drive is used by the operating system, so this basically triples your available space. I like that it doesn't require a separate power connection and it comes with a relatively short usb cable that works well to hide it behind the Xbox, or would work well to just set next to your laptop if you were using it as a typical portable drive.</t>
+  </si>
+  <si>
+    <t>Loving the portable physical size of this drive and of course the massive digital storage size of it as well. Being a Mac user, the only issue I had was that this drive came formatted for Windows PC. They do offer you instructions on how to change it so it runs on Mac, but it had me wondering why the default format wasn't exFAT or FAT32, so it could run on both to begin with.</t>
+  </si>
+  <si>
+    <t>I have owned this particular Seagate External HD as my primary source of backup for a few of my regular HD. I have a few 2TB versions as well as this 4TB model. The HD is well built, looks stylish and the casing doesn't look cheap or tacky. So far they have performed flawlessly. The price point is just right and I will continue to purchase them.</t>
+  </si>
+  <si>
+    <t>A great deal for the money. I purchased this external drive to backup the data on my home computer and it is working great. I plugged it in to a unused usb port on my desktop pc and sat the backup setting. It started copying all the files and is working great.</t>
+  </si>
+  <si>
+    <t>It works great. They usually last a couple of years then the connecting cable no longer allows the HD to show up and I have to purchase another one. Or that has been my experience in the past. This is my 3rd one. But the price is right so I deal with the issue.</t>
+  </si>
+  <si>
+    <t>This drive is doing exactly what I had planned for it.  All I had to do to work with my MacBook was to reformat, which took about 2 minutes.  This item quadrupled my storage, and has really helped with some media projects that I needed to work on!</t>
+  </si>
+  <si>
+    <t>This arrived the next day and was much smaller than expected. I was very pleased. Side note: if you have a brand new Apple laptop, you'll have to get an adapter. Something I didn't think about till after the fact. Go ahead and buy at the same time.</t>
+  </si>
+  <si>
+    <t>I am a Photographer and backup all of my images on external hard drives.  This drive crashed within a month of me plugging it in to my PC.</t>
+  </si>
+  <si>
+    <t>I am so happy with this. I needed to move some stuff off my computer and I use Carbonite to back up. When I got the plan that backs up an external drive, I discovered that my old drive had some firmware that prevented it from being seen by Carbonite.Problem solved. This drive has so much space and is so little. I'm very pleased.</t>
+  </si>
+  <si>
+    <t>Very handy size.  Easily transferred files without any problems.  Will be great to use with our emergency preparedness packs to store our valuable documents, photos, videos, etc.  I ordered it with the AmazonBasics External Hard Drive Case which is conveniently small.  Plan to keep hard drive in plastic ziplock back to protect from potential water damage in the event of an emergency.</t>
+  </si>
+  <si>
+    <t>super small! it fits right in my laptop case! CoolBell(TM)11.6 Inch Laptop Sleeve Case Cover With Elephant Pattern Ultrabook Sleeve Macbook Canvas Bag For Ultrabook/Tablet/Macbook Pro/Macbook air/Surfase RT/Surface Pro2/3/women/men,Blue</t>
+  </si>
+  <si>
+    <t>Very user friendly, it's a simple plug and play hard drive. if your using it as an extended hard drive for an xbox one or PS4 just make sure you have internet to allow the formatting process to be a bit easier. The store will automatically download formatting software for it and simply ask you to name the hard drive. do remember when you save things on the system itself that you choose under the "storage/Memory" section that you want the system to use the hard drive as your primary memory unit rather then the internal storage, it's easy enough though to go back and forth between the two. Very pleased with this.</t>
+  </si>
+  <si>
+    <t>Awesome portable drive and currently the 4 terabyte version is one of the biggest values for drives in this class. The entire unit is slightly larger and thicker than a standard deck of cards. It doesn't use a separate power adapter as it is powered directly through the USB 2.0/3.0 port that you're plugged into. If you're using it on a Windows system you're ready to go right out of the box as there are no software installs or download process to go through to get it up and running. So far I've been using it almost daily for 3 consecutive months at 80% full capacity and have experienced no crashes, errors or other issues.</t>
+  </si>
+  <si>
+    <t>I purchased this hard drive to expand storage on an Xbox One, it was immediately recognized and formatted for storage on the Xbox One.  I like that it does not require an external power supply and it has worked perfectly.</t>
+  </si>
+  <si>
+    <t>I purchased specifically to use with my Xbox One as an expansion. And it works flawlessly! You save money by purchasing this version versus the green official xbox version, and it works the same just for information. It does take some time to download games but it plays back smoothly and effortlessly like it was playing from the console! Just plug it in format it and you are ready to download and play! If anybody has questions or needs any help I would be glad to lend my experience with it just ask! Thank you for your time and I highly recommend this for expanding your memory!Thank youTyler F.</t>
+  </si>
+  <si>
+    <t>I needed more space to back up my growing video, photo, and music collections.  I plugged this into a USB port.  My W10 desktop PC recognized it.  I started backing up files.  It worked perfectly right out of the box.  What more could you want?</t>
+  </si>
+  <si>
+    <t>I bought this for my sons birthday and he loves it. He is a gamer and needed more storage because he has so many games he plays online. He's very happy with it and it came just in time for his birthday. Great product!</t>
+  </si>
+  <si>
+    <t>amazing! I've had this for quite sometime to store all of my photos, videos, and music files. I'm so very pleased that it hasn't crashed/corrupted and is super duper durable. I have a PC laptop and it works swimmingly</t>
+  </si>
+  <si>
+    <t>Compared to other company's Seagate has never failed me in any way , so I decided pick this one up and to my surprise it surpassed my exceptions. The 3.0 transfer speed is decent and the design is pretty smooth. If your looking to buy a hardrive , just avoid Western Digital</t>
+  </si>
+  <si>
+    <t>This expansion is running at a satisfactory reading/writing speed. I tested it with HD.Tune,the benchmark reading starts at 135MB/s, ends at 62MB/s,the benchmark writing starts at 125MB/s, ends at 62MB/s.</t>
+  </si>
+  <si>
+    <t>The main problem is not how well it works but for how long. I've had this product for less than half a year and I plan on buying a better one very soon. Currently it still works but I'm getting all the signs of incoming failure. Such as: Slowing down my computer, freezing when recovering data, the "click of death" that the drive makes more often now and in general more weird noises coming from it. It was good while it lasted though, now I know not to buy cheap drives. Quite the learning experience!</t>
+  </si>
+  <si>
+    <t>I use this external drive as a backup for my Mac. This was worth the price at the time I purchased it for a 2TB drive. This is a USB 3.0 external drive and it comes with the cable as well. This is my first portable external hard drive from Seagate. Very small and portable, which is a major feature for me.</t>
+  </si>
+  <si>
+    <t>Fabulous Product! My husband needed to backup his laptop urgently due to fraudulent warnings appearing!  This external hard drive did the trick!  The instructions were easy to follow, the product was new, and I would definitely buy it again!</t>
+  </si>
+  <si>
+    <t>Received the unit today and immediately hooked it up to Xbox One. In 30 minutes all was running and I also had moved my Fallout 4 game from console drive to the this unit with no problems at all. Then I played the game for a couple hours and all was proper.</t>
+  </si>
+  <si>
+    <t>Perfect for expanding the kids wiiu! Did need to buy the y-cable with it for it to work.</t>
+  </si>
+  <si>
+    <t>Bought this to expand my Xbox One's memory since I have filled up both a 2TB and 500GB HDs. Works like a charm and easy to format.</t>
+  </si>
+  <si>
+    <t>Zero issues using with the Xbox. Plugged it in and it immediately recognized it as an external hard drive. It will then format it for use with the Xbox. A literal 5-minute setup.So far for the money this cannot be beat.</t>
+  </si>
+  <si>
+    <t>my son is going to college for system Engineering, ask me to buy him this i have no idea for what, guess what it fit perfect inside a playstation 4 now his PS4 HAVE 2TB MEMORY HARD DRIVE .....and it works great,......</t>
+  </si>
+  <si>
+    <t>This is a very straight forward little drive. Just plug it in and it works. It seem pretty fast too. I am using it to back up a Windows 10 machine and it is perfect for that task. If you don't need any software bundled with your drive I would recommend it. If you do need software there are similar models for just a little more.</t>
+  </si>
+  <si>
+    <t>I bought this to use on my PS4 since I ran out of room on the 500 gb stock drive.  It was little tricky to open the case to take out what's inside but little screw driver and little bit of finger muscles did it.  I followed instructions from YouTube and installed it.  However my PS4 didn't recognize the driver.  After researching and reading forums I found out that I have to make the EXACT folders that contained the PS4 Files.  I hope this helps whoever trying to install.  Driver is working super fine, and got plenty of room to download more games.  I used the case to put the old PS4 500 gb harddrive and using it as a external hard drive.  You have to format and erase partition to use the old one as a external harddrive.  You can do that through system management and selecting the drive that has like 10 different partition and right click and deleting it. Good luck guys!</t>
+  </si>
+  <si>
+    <t>It works like a charm, I use it to back up my computer to it periodically, as well as to move my personal files into it from time to time. I also run a couple of games I've installed into it from my Mac (against everyone's advice saying it'll affect my gameplay) and they all run pretty flawless.  Has never gotten overly hot, I've dropped it on hard ground quite a few times actually and It's never had a problem so far besides a little scuff or scratch here or there so I'm very happy with the durability and the build of this External HDD.</t>
+  </si>
+  <si>
+    <t>This portable hard drive has made my life easier. It not only is 1TB, but it is incredibly fast. Granted, not SSD fast, but it noticeably faster than some other HDD. I have been able to almost double the speeds from my internal hard drive (seemed odd to me but a pleasant shock.) It has been incredibly reliable and was super easy to set up. I have managed to download large files and transfer them from computer to computer with incredible ease.If you are in need of an affordable, reliable 1TB portable HDD then this will surely exceed your expectations.</t>
+  </si>
+  <si>
+    <t>Easy to use, just plug in a USB and copy items in. I bought this to clear space on my laptop hard drive. I moved 200GB. It took several hours, but cleared up a ton of space on my laptop. And now I still have plenty of room on the external drive.</t>
+  </si>
+  <si>
+    <t>Worked great for abiut 4 months then it started beeping a lot and 14 of my movies all became corrupt. I had watched them before and they worked fine. After not using it for a couple weeks, it seemed to be working again. Now after another month the beeping is starting again. Often times when I go to transfer some movies or tv shows it will freeze my whole system. I read that these have a 25 percent fail rate which is extremely high. I am going to buy a WD 2tb hdd and see if it works any better.</t>
+  </si>
+  <si>
+    <t>Specifically purchased for use with a Playstation 4 and though other reviews states it works, we cannot seem to get it to work. Pretty disappointed as that was the only purpose for the purchase. We will keep fiddling with it and update it we can get it working.</t>
+  </si>
+  <si>
+    <t>So far so good.  I prefer this external drive to cloud backing up.  1 TB pretty much covers me at least for now though others may want to go upwards from that level.  Price is good so I might pick up another to add another just to double cover me.</t>
+  </si>
+  <si>
+    <t>Excellent quality, love the convenience. It's plug and play - had to reformat it for my mac but that was easy to do. Fast transfers, 4TB holds a ton. It's a USB plug and requires no additional power source. Recommend!</t>
+  </si>
+  <si>
+    <t>The 1TB drive was running out of space and would soon be full. Needing room for more data, I hooked it up and transferred over 700 GB of movies, music and photos to it. Will soon exceed 1TB of data. Working great.</t>
+  </si>
+  <si>
+    <t>Using it, like others, as an external for my Xbone. It works great, make sure to format it correctly for game storage. Have had zero issues with it since Feb 2017. Have it nearly full from just games. Going to probably end up getting the 2TB here soon for more space.</t>
+  </si>
+  <si>
+    <t>Works well, plenty of storage! Please note that if you have a Mac computer you're going to have adjust the settings so that you can transfer items. There are tutorials online for this but it can be a bit of a pain.</t>
+  </si>
+  <si>
+    <t>I wanted an external drive without the hassle of built in backup software.  Seagate doesn't tell you it comes loaded with a backup app, but that app is in a folder and only executes if you choose to use it.  Even with USB 2.0, file transfers are relatively quick.</t>
+  </si>
+  <si>
+    <t>Great price for what it is! 2TB is a lot, but I take a lot of photos and videos with my phone and GoPro so I figured this would just be smarter for the long run. Easy to use and came with instruction to format it for my Mac.</t>
+  </si>
+  <si>
+    <t>I bought this to use with my Xbox One. Works great! Plug it it, power up the Xbox. You're done.  The Xbox walks you through a couple of quick questions and a minute later it's ready to go. Quick and easy.</t>
+  </si>
+  <si>
+    <t>Lots of storage space for our Dad's ever expanding video projects. The case is nice and the texture is cool. It's nice that it's USB powered and doesn't require another AC adapter. He has had for over a year now and no complaints!</t>
+  </si>
+  <si>
+    <t>This hard drive has saved my life. There were 24,000 things on my computer clogging it up, and for 90$ I was able to clear out my memory without losing a single photo or document. Buy this and make your life easier, home skillet.</t>
+  </si>
+  <si>
+    <t>Needed this for my daughter to store all of her pictures and information for her business. It works well, and has a large amount of storage for the price. Sturdy outside so won't worry about if it gets accidentally dropped.</t>
+  </si>
+  <si>
+    <t>I use if for back up on my photos .  could no be better</t>
+  </si>
+  <si>
+    <t>I purchased this to add extra memory to my Xbox one and it works perfectly and flawlessly. I honestly forgot it was even there for awhile because there is no sound while it's running and the black color makes it very incognito. The sleek design is very attractive and transfer speed is amazing thanks to the USB 3.0 feature. A 2TB seagate external hard drive for $69.99 is DEFINITELY a steal!</t>
+  </si>
+  <si>
+    <t>I bought two of these, 1 for the laptop and one for my boys xbox one. They are very easy to install and very slim. This product is definitely better for the xbox one external drive considering you dont have to pay 100 from xbox for their external drive. I would highly recommend this product for anyone looking to add some more storage. Great product guy! Thanks.</t>
+  </si>
+  <si>
+    <t>So far this is easy to use and seems to be a great plug &amp; play storage drive. It's smaller than I expected, but I didn't even read to find the dimensions before ordering.  It's barely bigger than my phone which is pretty cool.  I loaded it up, ok, put a bunch of stuff on it, quickly &amp; easily.  I can't comment on durability, but it appears the be a great product.</t>
+  </si>
+  <si>
+    <t>This remains the cheapest way to get a 2 TB 2.5" 9mm SATA drive, as this portable hard drive is cheaper than purchasing the bare drive. (Although the WD Elements 2 TB drive is a little cheaper, the internal drive on it isn't your standard SATA drive like you use in notebooks, but a native USB drive, which you can NOT use in laptops or devices like the PS4.) It's fairly difficult to access the drive inside, as the enclosure is held together by plastic clips (you'll definitely break some while prying it open), but it's a small price to pay for saving yourself a few bucks from the bare-drive price.To be honest, I originally thought that if I wanted to actually use the enclosure I would spend the extra $5 to get the Backup Plus Slim drive, which photographs as much more attractive, with its brushed metal finish in a range of colours. In reality, this Expansion drive is surprisingly attractive, and the pyramid design isn't the 2-D optical illusion I thought it would be, but the result of actual shallow 3-D pyramids molded into the matte plastic. The matte plastic means that the drive doesn't pick up fingerprints or smudges, and the Seagate logo embossed in the lower right of the drive is surprisingly attractive and understated. There is a blue LED at the upper right to indicate when the drive is active, and thankfully it's not one of those LEDs that can light up an entire room (though I think I would still prefer a drive without any lights): it's mainly visible when you're right above it, and if you're looking at it from an angle the light pretty much disappears entirely.Aside from the enclosure design, the other differentiating factor between this and the Backup Plus drive is that the Backup Plus contains backup software, while this drive contains no software. I have a Mac, so I would use the built-in "Time Machine" backup software, but if you're on a PC and use backup software this could be a concern (though you could probably download the software from Seagate on this drive, anyway).</t>
+  </si>
+  <si>
+    <t>It served it's purpose with ease and kept plugged in.  I can back up at anytime I add something new to my computer.  Excellent product and highly recommended by my tech who picked it out to use when changing computers.</t>
+  </si>
+  <si>
+    <t>Very happy with the product. Works great with great speed as well.</t>
+  </si>
+  <si>
+    <t>My computer was on its last leg and this thing saved me from a heart attack I don't trust the cloud because I physically don't have it in my possession I have used Seagate before so I highly recommend it</t>
+  </si>
+  <si>
+    <t>I just wanted to let all know this worked as a hard drive for a dish receiver even though they ask you to use one with an external power supply.I simply said it had an external supply when asked its 45 dollars cheaper than the one they want you to buy!</t>
+  </si>
+  <si>
+    <t>After the PS4 update that allowed external storage I was looking for something that would store all my games. I already upgraded the internal storage and was still running out of space. This was perfect for my PS4. I haven't even hit a tb on the drive. The drive does have to be formatted before use. After your done using it you have to hold the PS button and then select devices. Then press stop using external storage.</t>
+  </si>
+  <si>
+    <t>Used to expand storage on an xBox 360 to extend its useful life. Fully compatible with no special power requirements. I just plugged into a USB port on the 360 and had it up and going in minutes.</t>
+  </si>
+  <si>
+    <t>I had invested in another external hard drive that was the metal version, but decided to get this plastic one instead. It is so sturdy, and it was such a good value, I am so glad I got it. It is so well made I don't worry about it breaking or anything. It holds SO MUCH data, so I can store tons of pictures for years to come on it. It allowed me to clear up my computer's pictures folders, allowing it to run much smoother and more efficient. You can even use it as a back up for your computer just in case something happens to it. I would completely 100% recommend anyone with valuable pictures and information to use this as your back up just in case.</t>
+  </si>
+  <si>
+    <t>I like the little tufted look to it, and it frickin works. I mean, what else is there to evaluate on this hard drive? It does its job, it's sturdy, and its pretty. And it hasn't crapped out yet.</t>
+  </si>
+  <si>
+    <t>It performed well as extra storage for a home server, it lasted 16 months before dying completely without notice. No longer being recognized by the host. I had this expectation going in and didn't keep anything critical on the drive. So it's inconvenient, but for the price it's to be expected.</t>
+  </si>
+  <si>
+    <t>Phenomenal!!! best price harddrive that works flawlessly with the XBOX one. the only thing I will say is as a note for people wondering. you cannot save videos and music, and video games simultaneously. you either format it for video games, or you leave it be and use it for Music Audio and Video. this is no set back for me at all .games load fast and are effective, I used my old 2TB hard drive as back up for any videos or other jargon I wanted to download. this 4TB hard drive is perfect. and matches the One much better then the external harddrive made for xbox</t>
+  </si>
+  <si>
+    <t>Small and yet large.  Great for doing back ups and storing lots of graphics.  No issue at all connecting to a Windows 10 machine.  I will probably give these as a gift to family for Christmas.</t>
+  </si>
+  <si>
+    <t>Works great with my ps4. I was able to connect it in under 5 minutes. Transfer all of my game downloads without an hassle. You must have 4.50 update or newer for it to function externally. Great product. 8 or more times the space on my ps4. Love it</t>
+  </si>
+  <si>
+    <t>I connected it to my desktop computer, the light on the drive came on, the drive clicked rapidly, then made a repeated high-pitched whine, clicked some more, then the light went out and the computer wouldn't recognize it.  I tried connecting it to multiple computers (desktops and laptops) using USB 3 and USB 2 ports, and even swapped out the cable and the drive would never actually show up on any of the computers it was connected to.  I returned it to Amazon (which was a very positive experience BTW).  My previous external drive that failed (reason I was buying a new drive) was also a Seagate drive.  I'm not impressed with the quality or reliability of the Seagate drives that I have used and don't think I'll be buying another one.</t>
+  </si>
+  <si>
+    <t>It is compact in size, works like a USB drive on my Win 10 laptop, and has a ton of storage space. And shipping was fast!</t>
+  </si>
+  <si>
+    <t>We bought this to expand the storage on an Xbox system.  It was very easy to connect it and gain the expanded storage capacity. It works great and is much more cost effective than buying from Microsoft.</t>
+  </si>
+  <si>
+    <t>Great price, quick ship, holds a lot of memory!</t>
+  </si>
+  <si>
+    <t>I bought this to expand the storage of my Xbox One. It's PEFECT. It doesn't get much easier than this. There's not even any instructions other than it telling you to plug it in. SIMPLE. Plugged it into the Xbox One and within 15 seconds I was downloading and transfering games on to it. Just received it today with free 2 day shipping so I'll add on to the review in about a week to go over the performance after the constant Xbox use.</t>
+  </si>
+  <si>
+    <t>Purchased to replace an aging 500GB external, and it is perfect. I've had this drive for a few months now, and it has not shown any problems yet. So far, this seems like a great little drive.</t>
+  </si>
+  <si>
+    <t>Have had zero problems so far, super simple and works great</t>
+  </si>
+  <si>
+    <t>Its exactly waht you think. Worked great with my Tablo - too bad the Tablo didn't work as well.  I'll find a new use for this HDD without question.  FYI, bigger drives are a better value now.</t>
+  </si>
+  <si>
+    <t>Very nice! I've had (and have) a few other external hard drives over the years, but this is my first 1. 1 terabyte drive, and 2. USB 3.0 drive.Drive is nice and compact, as expected. Finish is nice, too.  For the innards, the capacity is as stated, and the USB 3.0 is much appreciated.I haven't actually done any formal tests of transfer times, but USB 3.0 is obviously much more speedy than 2.0 on this drive.I am quite happy.</t>
+  </si>
+  <si>
+    <t>This drive is great. It's small and heavy duty. It's very simple to operate and all I had to do is plug it in. My PC picked it up right away and I was moving large files at a good speed. I would definitely buy a second one when I fill the first one up. Love this hard drive.</t>
+  </si>
+  <si>
+    <t>So far so good.  I was a little worried at first reading the product information that I might have to download software, but this is plug and play.  Fits the USB port, recognized immediately and provides plenty of storage space to back up all my files.  I have 2 Windows computers I use back and forth and haven't had any problems.  I actually have kept it in the plastic container it was delivered in.  Cut out a little section where the connection is and helps protect it when I transport it.  Seems pretty sturdy so don't know if my make-shift cover is even needed but works for me.</t>
+  </si>
+  <si>
+    <t>This external hard drive is a total LIFESAVER. I use it to store all of my documents, photographs, and videos on from my laptop. I am a college student and I often find that my computer is cluttered up with random things I never look at or use anymore and this hard drive helps me keep my computer from slowing down. I use it to back up all of my important data and it fits everything I have. I am a crazy photo fanatic and I have hundreds of documents and assignments from classes and this hard drive still has space to spare after I loaded everything onto it.</t>
+  </si>
+  <si>
+    <t>Works great, very portable and lightweight. So lightweight I keep having to check that I have it in my bag when I take it places. Have only taken it on commuting trips, not through public transit or plane travel yet.</t>
+  </si>
+  <si>
+    <t>I bought this 1tb hd for expanding the storage on my Xbox one and it was as easy as possible. The drive itself is small and does not need to be plugged into the wall, only need to plug the usb 3.0 cord in and go. Formatting took less than a minute.Note for Xbox one: boot the console before plugging in the drive or else it'll just assume it's a media drive and not try to format it.I've always like Seagate for their dependability and ease of use. This one does not disappoint and I think I'll be using the desktop version to upgrade my NAS. Highly recommended👍✔😁</t>
+  </si>
+  <si>
+    <t>The Seagate external 1Tb hard drive that I purchased for home PC use was smaller in size than I had expected, but that was OK with me.  I had been thinking of the older, bigger external drives that I had used at work in past years.  All I needed for this particular application was a 1tb drive, so this has worked out very well for me.  I am certain the bigger versions of this drive would work well, too.  The price is also very reasonable.  As a result, I would highly recommend the drive because of the quality, price, compactness, and speed of performance.</t>
+  </si>
+  <si>
+    <t>this hard drive awesome ,i bought a lot ps4 games ,it works on ps4 ,you just need format to work with your system ,i got plenty room after installing the games i still got 3 terribytes left ,at good price to</t>
+  </si>
+  <si>
+    <t>This has come in really handy for my overpacked-with-band-video files PC 1TB drive. This allows me to store more and share with other machines in the house. Works great, and it's lightweight.</t>
+  </si>
+  <si>
+    <t>Lightweight, plug-and-play, and very straight forward.  FOR THOSE WITH MACS, you will have to format, which was confusing because instructions were listed for a previous rev of the OS. But once I got through that, this seems like a snappy way to carry music or movies. It weights practically nothing and seems decently sturdy for everyday carry with your laptop. The low price makes it easy to buy a couple and make backups of the backups. I hear that you should replace backup drives every 3-5 years with average use. If you use this daily (music, movies, etc.) I think the price would be justified even if it only lasted a year.</t>
+  </si>
+  <si>
+    <t>We purchased this to add storage space on our Xbox One console and it has been perfect!  It was easy to set up, just plug and play really.  We like the small size of it, you can't even really tell it is sitting there next to the console.  It is exactly what we needed and so far, it has worked perfectly.</t>
+  </si>
+  <si>
+    <t>It loads super fast and transfers files quickly allowing to multitask. Also it is very easy to install. I don't know much  technical computer things but this was really easy to install. The size is small to fit any purse or carrying bag.</t>
+  </si>
+  <si>
+    <t>Seems like a small hard drive but I'm no where near 20% used up. Well that's like 168gB used and over 800gB free.This was and still is an awesome deal. I'd by another but still trying to fill up this drive. Guess the second will make a B-Day gift.</t>
+  </si>
+  <si>
+    <t>A great little HDD. It's 2TB of storage in a space that's roughly the size of a standard pack of playing cards. It's thinner and wider but about the same overall volume. The USB 3.0 is super fast as well. Moving large files or groups of files to and from this drive is very quick. I have a SSD and USB 3.0 connections and it can move 100 GB onto it in roughly 15-20 minutes. It also doesn't need a power supply and only has the USB in and Out which is very convenient.It doesn't get extremely hot when I use it either. I don't leave it plugged in all the time, but it's only ever slightly warm when I unplug it, even after heavy usage such as moving files to and from it over long periods of time.Worth every penny, small enough to be super portable, and a great little storage option.</t>
+  </si>
+  <si>
+    <t>Its has a reallly nice feel to it and its easy to set up. I bought it for my ps4 and set it up under 5 mins. You cant download games on it ( understandable ) but you can download the files and everything and thats REALLY neat.</t>
+  </si>
+  <si>
+    <t>Lots of room - I backed up 2 Tb's of photo files that are now in my bank's safety deposit box. I'll but a new one every 6 month to a year [for the affordable cost] and recopy - to capture all new works, and then toss the next one into my Bank's safety deposit box too!</t>
+  </si>
+  <si>
+    <t>Working fine... had one that was supposed to be a one touch, I touched that thing everywhere and it never worked!  Happy to see lights flashing that tells me it is backing up my computer!</t>
+  </si>
+  <si>
+    <t>I use this as extra disk space for my Surface Pro 4. It was truly "plug &amp; play" as advertised. Having the USB 3.0 is a plus as it matches the USB on my SP4. Been using it for 6 months, and so far no problems</t>
+  </si>
+  <si>
+    <t>After reading the reviews, we were a little skeptical. But we received the hard drive, hooked it right up, and it has veen working trouble free for around a month now. My husband loves it!!</t>
+  </si>
+  <si>
+    <t>My original order for this product never arrived but when I received the replacement order I was pleased.  It is way smaller than I realized but that is a good thing.  I used it to backup my laptop and photos and all went well.  Compact, light weight and easy to use.</t>
+  </si>
+  <si>
+    <t>Great! Use it as an external drive for xbox one</t>
+  </si>
+  <si>
+    <t>Zero complaints.  Easy to use.  Perfect for storing my photos and documents.  I like the pattern, it helps set it apart from other devices I have, so I can easily distinguish which one I want at a glance.</t>
+  </si>
+  <si>
+    <t>Seems to work fine but this was clearly not new when it arrived. Original manufacturer tape was cut so someone previously opened it. Disappointing to say the least that I pay for new and get used. If I was alright with that I would have just gone to ebay, craigslist, or any number of places to get one cheaper. As much as I hate seeing low ratings that have nothing to do with a particular product but is in regards to the service how else am I supposed to express my disappointment.</t>
+  </si>
+  <si>
+    <t>Works great, nice and compact, able to take a reasonable amount of abuse with no ill effects.  I have two of them attached to Dish Network receivers and they are just there - working perfectly without notice!</t>
+  </si>
+  <si>
+    <t>unbelievably great. when i bought my new mac last year, i figured i'd only go with thunderbolt and ssd. i did purchase one to run my itunes storage but never purchased more because i've been waiting (and waiting and waiting) for the prices to come down to something reasonable. well my photos really need a back up before it's too late so i decided i could put up with this seagate even if it wasn't great.but damn, i can't hear a thing. it's as quiet as my ssd. and it self powers! cost nothing!! i'll never bother with thunderbolt again. use one of these for time machine backup and another for critical backups of photos, video, music (a back up of a back up is a good thing if you've ever experienced hard drive failure like i have).</t>
+  </si>
+  <si>
+    <t>Works perfectly as storage expansion on a PS4.  Very really errors out, only during an unexpected power outage but the PS4 automatically corrects the errors.  Compact and easily sits next to or on top of the PS4.  Would definitely purchase again.</t>
+  </si>
+  <si>
+    <t>About the size of note card and 1/2" thick. Fairly light weight. Boy does this transfer files fast compared to my older external HD. Love it and would highly recommend this product.</t>
+  </si>
+  <si>
+    <t>I use this every week for back ups and have had no issues. My computer is a Dell Inspiron running Windows 7. Device is easy to use and works well. I have been using for several months.</t>
+  </si>
+  <si>
+    <t>I like how compact and nondescript it is. I usually buy flashy things so I don't lose them. But sometimes, you don't want people to know something is there. It fits in my shirt pocket.</t>
+  </si>
+  <si>
+    <t>Very nice portable hard drive. Considering my computer only has 2.0 USB ports, it writes fairly quick, but I'm sure if it was connected to a USB 3.0 port it would be much faster.Highly recommend it.</t>
+  </si>
+  <si>
+    <t>I use this external hard drive to backup my PC and laptop.  It took a while to get my PC to recognize this as a drive because I plugged it into a USB multi-strip.  Maybe that reduced the abiltity to operate the hard drive?  Anyway, once I connected it directly into one of the PC USB ports, as suggested by on-line support, it worked fine.  Small size is very manageable and easily stored.</t>
+  </si>
+  <si>
+    <t>The best hard drive for the price I could get. I'm hapy with this big drive, can carry all my docs and my heavy files with no problem. The drive is in the perfect size for portability. USB 3.0 compatibility is great, just be sure your PC has one too. Great product overall</t>
+  </si>
+  <si>
+    <t>Works perfectly with my XBox one.  I have used it for months without a problem.  Just plugged it in the a USB port on the XBox and followed the on screen prompts.</t>
+  </si>
+  <si>
+    <t>Received my new hard drive today. Tried it out using my Windows XP Professional computer and the drive saved my files without issues. Going to try using it next on my Windows 2000 Professional. I will post the results tomorrow. I need this unit for storing drawing and word processing files. Very satisfied so far. Up dated my review on 7/29/2017. Works with my Windows 2000 Professional as well. Gonna buy another one. What more can I say.</t>
+  </si>
+  <si>
+    <t>Unfortunately Amazon won't allow me to return this drive (1 month window has passed) otherwise I would have. (Seagate 4TB version). Therefore I am forced to write this review. I bought the drive from Amazon Warehouse. It has surface problems. Hard Disk Sentinel reports it to be less than 90% healthy, with several bad and weak sectors. I expected a more reliable product.</t>
+  </si>
+  <si>
+    <t>I got this as a portable hard drive for my PS4 and it works great. It didn't take long to format and allows me to store a ton more games than the device's 500GB provides. Highly Recommend!</t>
+  </si>
+  <si>
+    <t>Great size.  Fast usb 3 speeds.  Works on all my devices.  Love to use as my number one device for external storage.  Highly recommend.  No need external power supply is a big plus!</t>
+  </si>
+  <si>
+    <t>This is my third expansion drive and I use it to backup individual files.  The other two are set up to do mirror images on my desktop but I found out that I needed to access backups without totally reinstalling my system.  Works great.</t>
+  </si>
+  <si>
+    <t>After easy, automatic configuration it connected to my PS4, and now I have a lot more space and can download and play more than 3 games at a time. I've waited a long time for this!</t>
+  </si>
+  <si>
+    <t>I've using this hard drive for a little over a month and so far it's been work great.  Data transfer seems to be faster than the one in my Samsung laptop which is about 4 years old, it's diffidently faster than my usb 3.0 flash drives.  My one complaint is the nearly useless manual, I'm still trying to find away to password encrypt the drive.</t>
+  </si>
+  <si>
+    <t>Device stopped working or was not recognized by computer after one week.  I did contact Seagate Cust Service and they tried to help with various suggestions but it still did not work.  Device has since worked intermittently so I believe it may be a faulty cable so I have asked them for a new one.  Waiting to receive that.  So far, not very happy with product but customer svc has been good.Update: I received the new cable very quickly and have been using it for several days without any problems.  Seagate Cust Svc even sent an email asking me if the new cable had solved the problem.  I have since changed my rating to 5 stars.  Very pleased.</t>
+  </si>
+  <si>
+    <t>This thing is great.  It's small, sturdy, stylish (love the look of the front) and above all it's fast... fast with plenty of storage space, slim enough to fit in your pocket and USB 3.0.  I would recommend carrying case just for extra protection when traveling because it is rather thin.</t>
+  </si>
+  <si>
+    <t>This is perfect for what I needed. The price was right and I was able to clear my work from my computer and help it run smoother. It's a bonus that it's small enough that I can take it with me when traveling.</t>
+  </si>
+  <si>
+    <t>Great, easy registration software. Fast transfer speeds (~100Mb/s) and plentiful storage. Using it as an external media drive and so far it has performed equal to my high expectations, seagate is a quality brand in my experience.</t>
+  </si>
+  <si>
+    <t>3.63Tb actual space. Still very good but was hoping to have a little more space, I have a 2Tb that came with 1.94Tb space so was hoping to get at least 3.8Tb out of this but oh well.</t>
+  </si>
+  <si>
+    <t>I bought this external a while back for my PC side of my macbook steam library, it works great!  Connects fast and runs new games.  Currently I have mass effect 1 and 2 on it and I see no load difference from when I had the games directly on my computer.  Good buy!</t>
+  </si>
+  <si>
+    <t>great size, great little device, easy to use.  plugged it into my home network wireless router and made it network storage.</t>
+  </si>
+  <si>
+    <t>This hard drive is perfect. I use a Macbook pro, and the steps to reformat were extremely simple. All I had to do was plug into my usb, and it was ready to go. It's extremely user friendly and at a very great price.</t>
+  </si>
+  <si>
+    <t>So far so good it's working just fine.  I recently had a Seagate external hard drive that I've had for some years to crash on me.  It was very expensive to recover my data, so I made sure to get rescue recovery for this one.</t>
+  </si>
+  <si>
+    <t>I got this for my laptop works great provides an additional terabyte to the memory. It wants me to register it but I don't know why I need to, I can use it already so I didn't bother</t>
+  </si>
+  <si>
+    <t>I was in need of extra storage for all my pictures and music files (plus documents). I bought the 2TB external Hard drive. It's small and rugged. Good quality portable Hard Drive.</t>
+  </si>
+  <si>
+    <t>Seagate 1TB External Harddrive is the best to backup your MAC or PC.  I prefer to use it for one or the other.  I love the fact that it is portable and not a hassle to set up.</t>
+  </si>
+  <si>
+    <t>Works great for PS4 external hard drive use, would expect it to be a bit more sturdy (Shell wise) as I know I paid for the storage space chip basically. but what's the use of having that if the she'll doesn't really protect it, feels like if I drop it it'll crack open. also the rubber bit on usb part that goes into a device should be alittle smaller, so it'll fit more firmly into a PS4 port.</t>
+  </si>
+  <si>
+    <t>On time with the correct product.</t>
+  </si>
+  <si>
+    <t>I accidentally bought the PC version; I have a Mac. I was able to set up a new partition on the drive and format it correctly for the Mac in about ten minutes.I can't speak to the longevity or durability of the drive, but it's small enough to carry around and does what it says it does. Five stars then, because why not?</t>
+  </si>
+  <si>
+    <t>I got this because it was cheaper than the internal version of the same drive. I ended up using the drive in a server PC and used the case for another smaller 2.5mm drive.</t>
+  </si>
+  <si>
+    <t>Great drive. Perfect size so i can easily carry this around wherever I need to go. It's been reliable and I have not had any issues with it. I use a Macbook and it was easy to format and worked great. Build quality feels solid, hopefully this thing will last me forever or at least until the cloud becomes more reliable and safer.</t>
+  </si>
+  <si>
+    <t>Working great as an extension to my laptop.  I don't have to worry about putting too much in the memory, can save files directly  to the extension and easily retrieved, too.</t>
+  </si>
+  <si>
+    <t>This excellent drive does not need an extra power supply. The USB connection does everything. It is quiet and can remain attached to your computer 24/7 without a problem.</t>
+  </si>
+  <si>
+    <t>I am a nursing student and absolutely love photography. I wanted a storage device that I could put all of my important documents and countless photos on. I used to rely on CDs, which ended up getting scratched, damaged, or lost.  Small flash drives had similar problems.The Seagate Expansion Hard Drive is something I use on a weekly basis. 1TB is SOO much storage, I have had mine for several months now and have hardly made a dent in the amount of storage accessible. I no longer flip through CDs or numerous small flash drives, now everything is on one device and I couldn't be happier.</t>
+  </si>
+  <si>
+    <t>So much storage.  Feelsgood.meme.  I use this for extra storage for my xbox one.  Now I can have all my games on there without having to delete some to save on space.  Muy bien.</t>
+  </si>
+  <si>
+    <t>Just add described. Happy with my purchase now I can backup my wii games.</t>
+  </si>
+  <si>
+    <t>Small, portable, lightweight. Extremely easy setup, just plug it in and you're good to go. I use this as a bridge between an old personal computer that's on it is last limb and my work computer (so im able to store my personal documents in this hard drive, plug into my work computer, and edit them from there, without storing them on my work computer). Tons of storage for this purpose.</t>
+  </si>
+  <si>
+    <t>The connector to the device will easily break off.  I had to purchase a new one because the usb that goes into the external hard drive broke and it became hard to insert it.</t>
+  </si>
+  <si>
+    <t>Excellent source for extension of harddrive space on XBOX ONE. Simply plug and play!</t>
+  </si>
+  <si>
+    <t>I just got 2 of these. Mac Sierra wouldn't allow me to reformat it for some reason, so erased it on my older Mac, which it did fine. We'll see how it goes, but for Mac you MUST reformat it unless you want to use it on PC too.</t>
+  </si>
+  <si>
+    <t>Short and simple have been using this drive with the PS4 in the bedroom and has worked with no issues since its been purchased.  PS4 gets used at least a few hours a day.</t>
+  </si>
+  <si>
+    <t>I am a Computer Scientist &amp; Information Technologist. Seagate is a great technology company and this external hard drive is very good. The outer casing looks very nice, is sturdy, lightweight, runs quiet and the 1 TB of storage is great especially for the price.I purchased this item for a friend and she easily partitioned the drive for working with Windows and Mac's (she is an art student). The cable has held up nicely and she takes good care of it, so I can not say about drops.For what I/she needed it to be (1TB, good company, non very expensive) this was the perfect external.</t>
+  </si>
+  <si>
+    <t>DOA right out of the box. Plugged in - no power indicator came on but heard drive clicking trying to work.</t>
+  </si>
+  <si>
+    <t>I bought this to work with my Channel Master DVR for additional storage for recording. Very easy to set up to work with the Channel Master. I know I will never use up the 1 TB storage, but I will never run out of storage either.</t>
+  </si>
+  <si>
+    <t>The purpose of this 4tb is to store data of whatever you want to fill in. For my case I use this baby for my x box 1.(console I'd bought 2 years ago.) I always hated uninstal game and movies I bought from xbox store just to have some gig left. So, again, this baby help alot, I'm no longer need to delete or uninstal any games or movies.( fyi: if you want to use this mainly for gaming storage; xbox,pc, it will tell you which option you want to choose from to storage game data or music, movie storage. It cannot pick both.</t>
+  </si>
+  <si>
+    <t>This product died suddenly. I am extremly disappointed. It lasted me a little over two months</t>
+  </si>
+  <si>
+    <t>Very easy to set up and use.  Everyone should have an external hard drive. Computers crash and pictures can be lost.  This is so much easier to set up than I expected.</t>
+  </si>
+  <si>
+    <t>Purchased two of these. BOTH failed! Even though paying a company $1,100, they could not recover the files. Spend the extra money and get a better one. Seagate customer service is the WORST!!!</t>
+  </si>
+  <si>
+    <t>I use this with my Micca Speck G2 media player and it's never failed me!</t>
+  </si>
+  <si>
+    <t>I have been really pleased with this external hard drive.  It has ample memory for my photos and files and all the future ones tooIt is very easy to use and my computer easily and quickly recognizes the drive every time it is plugged into the computer.I highly recommend this external HD.</t>
+  </si>
+  <si>
+    <t>Got this in a bundle with my router for a extra $7 best hardrive ive had for the price. And its 1tb very good harddrive.</t>
+  </si>
+  <si>
+    <t>Reliable for me. The blue light blinks calmly and slowly, no need to cover this with tape, like some drives which have piercing white light with harsh fast blinking.</t>
+  </si>
+  <si>
+    <t>Works very well, is only about 5 inches or so in height, the connection to my laptop is excellent as it holds without any problems, and the transfer speed is amazing.Now, I will say this, I don't have probably the top of the line tech so for those of you who do I don't know comparison to that stuff. However, for my uses this was amazing. Being able to transfer a good size of material within a short period was great. I think I was able to transfer somewhere around 100 or so or more gigabytes of data from my laptop to the harddrive in about 30 minutes or less. You have any idea how long it takes me to do that with other things I've worked with, lets just say longer.All in all, very very good in my opinion, well worth the cost and storage being a terabyte makes it more worth it.The only thing I'd mention is to please be careful with the harddrive, it's not like one of those really sturdy things I've run across. Feeling the top of it it feels like plastic possibly. It feels pretty fragile so you do not want to leave this laying on the floor or something like that as I'm thinking if I stepped on it accidentally it may actually break, so please be careful with this. Having put a couple hundred Gbs on one myself already I'd hate to accidentally break mine, so I imagine it's the same for you, so remember to keep this in mind when using and not using it.Other than that, awesome!</t>
+  </si>
+  <si>
+    <t>Perfect portable hard drive. I bough this to use with my XBox One and it works perfect. Easy to "plug-and-play" and format. The games work just as well as a disk would.</t>
+  </si>
+  <si>
+    <t>I absolutely love this external hard drive! This is so much easier then the last external hard drive I had, for this one I can simply copy and paste all of my files from my computer onto this external hard drive. I have already used 99% of this storage and have had no issues with the hard drive holding it. In the beginning, simply plug this in your computer and it will appear in your hard drive area, from that point all you really have to do is copy and paste anything on your computer onto this hard drive. I also the love how compact this is in which I can carry this in my pocket if I chose to do so. I will most likely purchase another one of these due to it being so easy to use.</t>
+  </si>
+  <si>
+    <t>I have issues backing up my computer because it makes a mess of my flash drives; this was a simple solution and for the most part, it gets the job done. It's compact, feels sturdy, and connects easily.I docked a star because for some reason I cannot carry files from a Mac computer (which my university uses in its classrooms) to a PC (which I use personally). I've had a few awkward run-ins where I have my files with me but I can't prove it because they don't show up on a Mac, and situations where I store files to complete for homework, which I can't do later.If you don't need to do this on a regular basis or you know how to fix it, then I do recommend this product.</t>
+  </si>
+  <si>
+    <t>Works well on connection, cheap for the storage capacity. Feels a little flimsy but I haven't had any problems, even after throwing it in my luggage multiple times.</t>
+  </si>
+  <si>
+    <t>I bought this several weeks ago to install in my PS4. It does fit the PS4 drive slot and was very easy to install, however, I had to download a program on my computer to format the disk properly so that the PS4 could use it. That only took a few minutes, and the install didn't take long either. After the system software was installed I have 1.77 TB accessible on my PS4. All in all, great product.</t>
+  </si>
+  <si>
+    <t>So far so good.... we were constantly having issue with thumb drives being destroyed and with a family of 4 - 3 of them in school. We love that we can save all of our school work on this and still have room.</t>
+  </si>
+  <si>
+    <t>The plastic case of the hard disk is really cheap quality and feels hollow. It feels delicate and you will always have fear of breaking it. But on the speeds department it has some really good speeds. Using NTFS via USB 3.0 port I was able to get speeds of about 95-100 mbps. Speeds even reached 110 mbps for few seconds. Overall good speed but bad build quality.</t>
+  </si>
+  <si>
+    <t>Super convenient and the price is right. The move towards SSD has meant that I just can't live in a 1 TB internal laptop drive anymore and because of that, I've come to rely on external drives. A 4 TB mini drive fits in my laptop bag and is just big enough for the files I always want with me. This drive meets all those requirements but it feels slow. Not just slow compared to an SSD but I feel like it is slow compared to the 7200 rpm drives that I tend to use. I also keep all my data in passworded, encrypted sparse images for data safety and security.</t>
+  </si>
+  <si>
+    <t>It's awesome on the computers it's compatible with. This HD holds &amp; backs up literally everything I have. And believe me I have a lot. The problem is that it doesn't work on all of my computers. It will only work on my newer ones. Don't buy this unless you have a computer that is about 8 years old or newer.</t>
+  </si>
+  <si>
+    <t>My computer (Lenovo Windows 10) didn't recognize it.  When plugged in, it just sat there and made a faint beeping noise.  Tried several different USB ports and a powered USB hub, without success.  A Google search indicated that maybe it needed more power via a USB 3.0 Y-cable with one Micro-B USB 3.0 connector and two USB-A connectors, to provide enough current from two USB ports.  If this cable was needed, it should have come with the drive.  Returned and purchased a non-Seagate drive.</t>
+  </si>
+  <si>
+    <t>Brand new so I can't speak the longevity but I loaded data on to this over a couple of days on a slow networked usb 2.0  connection (2.8 TB) and it worked as expected.</t>
+  </si>
+  <si>
+    <t>I ordered this to expand storage on my PS4 pro. It was very easy to install and transfer games to. I will be purchasing another for sure!</t>
+  </si>
+  <si>
+    <t>Bought for my original 500GB Xbox One. Works great and the only problem which I get very rarely maybe 2 times in the 8 months I have had, the Xbox doesn't pick up the hard drive and all I have to do is unplug and plug it back in</t>
+  </si>
+  <si>
+    <t>Bought for an expansion drive on a PS4, with the latest PS4 software it is plug and play, plug it in, format it, set it up as the main drive and it works perfect.</t>
+  </si>
+  <si>
+    <t>I brought this item back in December 2016 the item work real good with the Xbox One and PC but after the updates on the Xbox One which was back in April i started having problems with it. So now it don't work for the Xbox One it only work for the PC. Sucks</t>
+  </si>
+  <si>
+    <t>Bought it to go along with Tablo for recording on air TV. It seems to be working fine. Looking forward to lots of recorded shows. Helps me to get rid of DirecTV.</t>
+  </si>
+  <si>
+    <t>Here's the deal. It didn't fail, so I gave it 2 stars instead of 1. However, it's difficult to award any stars because have the time, my Mac doesn't even recognize it. It's like hit or miss whether it will show up. You can hear it spinning and see the light on - but no one's home. I'd heard to stay away from Seagate because despite the price, they're not worth it. However, I threw the dice and it worked great for a few months. Now, it just decides to come up as visible every so often, when it feels like it. I won't be buying anymore Seagate drives. Thanks for not much.</t>
+  </si>
+  <si>
+    <t>Confirmed Working upgrade to PS4. Manufactured 04/16. The 2TB has the SATA but 1TB has the USB mounted into the hard drive so you can't use it.</t>
+  </si>
+  <si>
+    <t>I use this particular external hard drives to make image copies of my computer's hard drives.In the event of a computer it's better to be safe than very sorry afterwards</t>
+  </si>
+  <si>
+    <t>Slow response opening files and an annoying beeping while you are using the drive. It's not a one off because this is the second one I gotwith the same issues.</t>
+  </si>
+  <si>
+    <t>I received this a couple days ago and it does the job! Just a heads up, if you are using it with a Mac, you need to format the hard drive before you can put documents onto it. After that, it worked just like any external storage. Was also lower quality than I imagined. Feels like pretty cheap housing for the drive compared to the solid look in the picture, but it doesn't really matter to me.</t>
+  </si>
+  <si>
+    <t>Work great for Windows and MAC, but NOT for Chrome OS.  Chrome OS is very slow and it disconnects the drive continuously.</t>
+  </si>
+  <si>
+    <t>Excellent works as intended awesome product great price. Plug in to  xbox format and off to the moving of games over. Will buy this again for expansion I need.</t>
+  </si>
+  <si>
+    <t>If you're wondering, Yes it does work with the Xbox One and PS4. You just need to transfer all the data to the new hard drive and trust me if you have little memory on your console, this is definitely worth your money.</t>
+  </si>
+  <si>
+    <t>Had this for several months now and another one just like it for a few years. Not the fastest but they are very reliable which is really whats most important.</t>
+  </si>
+  <si>
+    <t>Used the HDD inside this for replacement of my 500 gb stock HDD in my PS4. Removal was simple enough, works as it should, no issues with up til this point... Would recommend buying this opposed to buying the HDD without the enclosure, saves you quite a few bucks doing it this way...</t>
+  </si>
+  <si>
+    <t>Delivery was fast as always and everything with the hard drive worked perfectly. This product did exactly what I needed it to do. I am very happy with my experience.</t>
+  </si>
+  <si>
+    <t>I bought this to back up my gaming laptop, just in case it decides to go down, I have a backup on here, as well as a file of my childhood pictures, and maybe a few of my most epic replays on World of Tanks. And some other important stuff. And yes, this comes with a short usb 3.0 cable. It had about 930 gb on it when I got it, also. (wow, I am really scatterbrained here)</t>
+  </si>
+  <si>
+    <t>Not compatible with Wii U (at least, not without a Y cable USB adaptor which I am currently ordering. Not sure if that will solve issue.</t>
+  </si>
+  <si>
+    <t>This external hard drive seems well build and is small enough to be able to take with you or store easily.  I had no problem using it to back up my computer.</t>
+  </si>
+  <si>
+    <t>It's amazing how times have changed! When I bought my first computer back in 1993, it cost me nearly $1,500 for a machine which came with 200 MB of internal memory. For another $150, I was able to get a second hard drive with 250 MB internal memory. The Seagate Expansion 2TB Portable External Hard Drive gives me well over 4,400 times the storage capacity of that old computer with a second hard drive (10,000 times the computer's original installed internal memory). At just $79.99, this drive is a true steal! And the USB 3 connection means fast transfer speeds! This slim drive is a welcome addition to my current computer system!</t>
+  </si>
+  <si>
+    <t>Purchased as an expansion for a MINIX NEO z83-4. The drive is plug 'n play. Plugged into the USB 3.0 slot on my box--very satisfied with the performance. Just once, the MINIX did not find the drive I disconnected/reconnected and rebooted the box and have had no further issues. However, this gives me pause for rating it 5 stars as no other attached devices have done this. I'll watch this for a few more weeks and if there are no recurrences of the problem I'l update the number of stars on this review.</t>
+  </si>
+  <si>
+    <t>Bought this for huzzy  to transfer some files. Excellent price, excellent item. 4 months and no problems so far and I'm told it's almost half full already.</t>
+  </si>
+  <si>
+    <t>Does what it says so far. But the truth is I won't know if this is a decent buy for 2 years as that is how long I would expect it to work well at a minimum.</t>
+  </si>
+  <si>
+    <t>No complaints about this drive, it works perfectly on my two year old iMac. And so much smaller than the old school kind of external drives we all used to use!</t>
+  </si>
+  <si>
+    <t>Works great!</t>
+  </si>
+  <si>
+    <t>worked for about a month or two before the cord stopped working, we use macs at school and i use about 5-6 different computers around campus weekly. first my cord stopped working and i could borrow other peoples to get my images. i would have gladly just bought another cord but less than a week after it initially started acting up with the cords then the whole hard drive itself stopped working completely. its unreliable and i hope i can get my pictures i have saved off of it.</t>
+  </si>
+  <si>
+    <t>My husband uses this to back up his music for his dj business, he uses it quite regularly and has had it for several months and it's still working great.</t>
+  </si>
+  <si>
+    <t>This has an attractive design, and works quite well. I use mine to load movies and TV shows on it. Then plug in to my Smart TV, you can fit an amazing amount of crap on it. Fast enough for my needs.</t>
+  </si>
+  <si>
+    <t>Wow - so much in such a little case. It measures only 4-9/16 x 3-1.8 x 1/2. I had to re-format the disk for my Mac, but the instructions give you a link to download a free program to do the re-format. It was ridiculously easy. I had no trouble partitioning it, and it's now it's happily humming along (very quietly) and behaving very well!Update 2/12/2017: one of the two drives died after five months. Which is exactly why I bought two and used them concurrently to do simultaneous duplicate backups. Still really like them (unless and until the other one dies)</t>
+  </si>
+  <si>
+    <t>Working well since I installed it on my Xbox One as a back up memory.  One TB is plenty, unless you are a real game library collector and player.  For my small library and DLC content, it is more than adequate.</t>
+  </si>
+  <si>
+    <t>Does what I expected.  Timely delivery.  Used for PC backup drive. Own the 1TB version used as DVR storage for DISH WALLY MH Receiver, so it was an easy choice.</t>
+  </si>
+  <si>
+    <t>I brought this external hard drive for my Xbox One and it's been amazing. I have over 40 games downloaded on my Xbox and I can still download more. I highly recommend this hard drive for those who need some more storage for their Xbox or computer. If you want to use this external hard drive for both you Xbox and your computer you'll have to patrician it but I don't really recommend you using this for both. Overall this product is great for the price.</t>
+  </si>
+  <si>
+    <t>Very cheap quality.  Not sure if I want to store anything I need on it.  I guess as a second backup. . .the cheap quality makes it sort of worthless.</t>
+  </si>
+  <si>
+    <t>I  love my hard drive.I am a professional photographer and I used to buy Lacie hard drives and actually all of them broke in a couple of years. This is a cute one, lightweight, small sized ,I can carry anywhere, not like my heavy and fragile Lacie hard drives.</t>
+  </si>
+  <si>
+    <t>I use this as an external media drive for my computer. I use it with PLEX on an iMac and it runs really well. I experience very little lag when loading my media.</t>
+  </si>
+  <si>
+    <t>It's OK. I returned it in favor of the storage backup plus due to the software that was included witht he backup plus, but not the expansion version for the same price and capacity. Only difference was one had software and one did not, so why not go for the free software.</t>
+  </si>
+  <si>
+    <t>Files were randomly corrupted once, but after formatting I was able to use it again. I had to to re-download some games that were on the drive. It's not my only one thankfully, so I'm good. I would recommend it for additional space, but not to backup your files.</t>
+  </si>
+  <si>
+    <t>Great price for this much storage. I have an older Seagate external hard drive that has served me well for many years so I was already satisfied with the brand. This will last me a long time.</t>
+  </si>
+  <si>
+    <t>I have only had this device for three weeks at this point. It runs exactly how you would expect a hard dive to. The only thing that is a little strang I the weight of the device. It is incredibly light and feels hollow.</t>
+  </si>
+  <si>
+    <t>It worked great on my Xbox One then just stopped. It was never dealt any physical harm. I have a Square trade and Asurion protection plans but I'm not sure how to get a hold of the seller and use them. I to hope to get a refund and a new product considering that I spent about 50 dollars on the product.</t>
+  </si>
+  <si>
+    <t>Can't say much about it other than I am using it as a network drive attached to my router. It worked fine after I reformatted it for my Apple network. Good product fair price.</t>
+  </si>
+  <si>
+    <t>Can't beat the price/prime shipping. Excellent product, could not be happier.</t>
+  </si>
+  <si>
+    <t>Haven’t had any issues like other posters have written about. Amazing size, it’s smaller than my iPhone. The memory space is exactly what I needed.</t>
+  </si>
+  <si>
+    <t>It's a little less substantial than I expected as far as the plastic encasing the drive. I'm comparing it to a WD drive I bought several years ago and it just feels a lot lighter than that one and a bit cheaper on the material. But it does what it I wanted it to do. One thing though: it says it comes ready for drag and drop file transferring right out of the box. However, I found that it had that stupid management software installed on it and I couldn't drag and drop until I formatted the drive. After that I've had no problems.</t>
+  </si>
+  <si>
+    <t>The easiest setup ever!!! I plugged this device into the usb outlet on my PS4 &amp; followed the instructions it took less than 2 minutes to add the additional storage. I love this product. Thanks Amazon😄😄😄😄😊</t>
+  </si>
+  <si>
+    <t>I had bought this expansion storage as a companion to my Channel Master DVR.  I have some 60 hours of TV programming stored on it &amp; it is using less than a third of the space available.  Love it!</t>
+  </si>
+  <si>
+    <t>Wow...I've never had a drive take a nose-dive as fast as this one. Within two weeks of purchase the drive started the dreading clicking noise. The irony is that I purchased this one to replace my other dying Seagate drive that I bought back in March. Now I have to return this one, getting a replacement drive from Seagate for my other drive, and I also bought a WD drive just in case these continue to fail.</t>
+  </si>
+  <si>
+    <t>I bought two disks for the migration of my PS4 from 500Gb to 2 TB.The fist for the backup and the second to replace the PS4 disk inside the box.My first disk backup perfectly the full content of my PS4, but I need to format the disk in ExFat before this operation.Easy to open the Expansion box with a cutter and easy to install in the second disk in my PS4.I recommend this disk for this operation.Don't forget you need an extra USB key to restore the PS4 system before you plug your disk for the restore...</t>
+  </si>
+  <si>
+    <t>Love the fact it works GREAT with PS. Set up was a breeze.</t>
+  </si>
+  <si>
+    <t>I got this drive and checked it for it's size and found it was just under 1TB.  I started savings files on it and it gave me a full drive warning at 39GB.  I reformatted the drive and empty it showed 39GB.  This was on the first use of drive.  I would not recommend this product at all.</t>
+  </si>
+  <si>
+    <t>I bought this, my second portable Seagate, to use with Time Machine when my Western Digital external stopped communicating with my Mac (it kept saying that I had disconnected the drive without ejectng it, but I hadn't touched it). I've used this new Seagate for a few weeks; no problems. I reformatted  it for Mac, created three partitions, and connect it to my three laptops every few days to let Time Machine back everything up. All three internal hard drives are small, and not full, so this is working great.</t>
+  </si>
+  <si>
+    <t>So far so good. Only problem I has was I removed it while my Macbook pro was off and when I tried to use it again it wouldn't show. So I turned it off and plugged it in and when I turned it on it was showing it was connected. So just remember to eject before removing, which is obvious.</t>
+  </si>
+  <si>
+    <t>Love it. I swapped this drive out and installed it in my ps4 to upgrade space. Removal and installation took me all of 15 mins. I took my original hdd out and installed it back in the case and repurposed it as a backup 500gb external hard drive.</t>
+  </si>
+  <si>
+    <t>I'm using this as expanded memory for my PS4 after the update, it looks great, it's light weight, and it writes faster than the internal hard drive.</t>
+  </si>
+  <si>
+    <t>We bought two of these. One for the xbox one and 360 and the other for our laptops. They are so small! We are going to start downloading our stuff on the hard drives this week.</t>
+  </si>
+  <si>
+    <t>Bought this to us as a DVR for my new Dish Wally, but it took a little work.I'm giving it 4 stars because before the Hard Drive was not usable (or even visible to my computer) at first, I had to get in to the Windows "Disk Management" console to perform a format. I know a little about computers, and someone without this information may have immediately tried to return it. I was close myself.Though it is not the exact same part number as the "1 TB DVR Upgrade Expansion" on the dish website, it looks exactly the same and is half the price. This portable hard drive is only powered through the USB port, (no other power source), much of the documentation I saw from Dish said that the external hard drive should be self powered.Before this hard drive would work with my Wally, I had to plug it into my Computer. Then, I had to get in to the "Disk Management" tool and format the whole thing. Only then would the Wally bring up the menu to perform it's own format. I spent about 40 minutes on with Dish support trying to fix it, and they didn't know this. Before the format, I would plug in the brand new hard drive and the Wally would say, "External Hard Drive detected, call Dish to activate." And this was after I had already called to activate it. Hopefully you'll plug it in and it will simply work, but for me, it required formatting it with my Computer first.</t>
+  </si>
+  <si>
+    <t>Seems to be working well so far. Haven't tried to get anything off it yet, just storing my completed youtube videos to clear up space on my Mac</t>
+  </si>
+  <si>
+    <t>So I've begun to hop on the digital bandwagon, buying tons of games during sales, game sharing with my roommate, etc. As a result, my original 2tb filled fast. On comes this 4tb beast with only a USB needed to power! It was recognized immediately by my Xbox one and formatted immediately. I have a TON of games that downloaded and transferred quickly and I've barely made a dent. For the price and space, you can't beat it! Perfect for anyone else tired of deleting and redownloading games!</t>
+  </si>
+  <si>
+    <t>I use this for my XBOX 1 and it increases my storage to 4x what the original system was designed.  I no longer worry about space and download all the free games with GOLD I want.  I find myself buying more digital content today rather than disc format and this allows me to take my games with me.</t>
+  </si>
+  <si>
+    <t>Purchased for Dish Hopper. Works like it should. Dish should allow more GB of recordings than 2. Don’t buy a larger drive than this. 2 GB is Dishes limit.</t>
+  </si>
+  <si>
+    <t>This is a nice product in terms of its looks, other than that it does not work with my samsung tv, it freezes up my laptop when i plug it in my laptop as well. I dont know if my product is faulty or if its just a defect. But its frustrating since i live in Trinidad and returning it is such a pain.</t>
+  </si>
+  <si>
+    <t>Everyone should backup your data. My computer died and no back so I had to reload everything. Ugh!!  Trust me you do not want to ever make that mistake. This harddrive is small in size and perfect for your backup needs</t>
+  </si>
+  <si>
+    <t>Got this on sale for one twenty. Great price. Seagate is currently a good brand that can be relatively trusted. Decent speeds. Very compact. Didn't get very warm during prolonged use. Only question remaining - How long will it last? I'll be back when/if it fails.</t>
+  </si>
+  <si>
+    <t>My son connected this to his Xbox One S without any difficulty. He looks forward to having the ability to add more games to his console now.</t>
+  </si>
+  <si>
+    <t>I wish I didn't buy this drive. It has a proprietary USB connection which means I can't easily change out the cable with a longer, shorter, or one with a more compact connector. Case also feels cheap and hollow which makes me think it's larger than it needs to be, wasting valuable space for mobile computing. The case also seems to be glued together so there doesn't seem to be a way to replace the hard drive if it goes bad. I guess you're just supposed to shred it. Disappointed.</t>
+  </si>
+  <si>
+    <t>Bought this to expand the memory on my Xbox one. Just had to plug it in and configure the device to my xbox so it could story games and saves. I probably have 25 games and at least 20 of them are on this external hard drive with only 3/4 of the memory taken up</t>
+  </si>
+  <si>
+    <t>Long time WD customer that couldn't pass up a good deal. Very happy with my Seagate drive thus far. Decent speed, nice design. May look into more Seagate products in the future.</t>
+  </si>
+  <si>
+    <t>It's okay and worked with dish 211 k, but did not work well. Constant freezing and restarts of the receiver. I will keep it, but will buy something different for my dish receiver.</t>
+  </si>
+  <si>
+    <t>I ordered this as a backup for my photo sessions. Although the box says its for pc, you can format with disk utilities on your Mac and it will work perfectly! Lightweight, fast and reliable thus far. For the price, you can not beat it!</t>
+  </si>
+  <si>
+    <t>HANDY way  to  quickly save, store or  protcet  ANY  data! THE SPEED IS  OUTSTANDING on 3.0 USB  and very acceptable on 2.0THANKS for a well design SS hard drive.</t>
+  </si>
+  <si>
+    <t>Works well, I bought this for my PS4 and it was easy to set up and format and is working great with my PS4 I also really like the design.</t>
+  </si>
+  <si>
+    <t>Starting to make failing hard drive noises after a year and takes an extremely long time to read/write (Down to 1-3 mbs from 30-100mbs). Has not been dropped.</t>
+  </si>
+  <si>
+    <t>One of the most affordable external HDDs out there, you definitely want to go for the 2tb model, which is only 10$ more than the 1tb model.</t>
+  </si>
+  <si>
+    <t>I waited a little while to post this because most of the time people review things they purchase within 24 hours and those sometimes don't tell of the problems they experience over time. I guarantee that after weeks of use this drive works perfectly with my Xbox One console, setup process was not at all hard although I am very experienced in the tech field highly recommend to anyone with a USB device that is running low on storage.</t>
+  </si>
+  <si>
+    <t>I bought two, one for my XBOX ONE and the other for my PS4. Works perfectly with XBOX ONE, but for some reason I'm not allowed store games, or load games, with PS4, even after reformating. However, you can store game saves. I had to get a refund for the PS4 one</t>
+  </si>
+  <si>
+    <t>Does exactly what it's suppose to do.  I bought this as a secondary HDD for my Xbox One and it works just fine.  Everything loads quickly, no sound, no unwanted heat.  Highly recommended!</t>
+  </si>
+  <si>
+    <t>My friend said this holds a lot of data,movies,tv shows.What ever you watch on the dishnetwork dvr or you can use it on your computer!!</t>
+  </si>
+  <si>
+    <t>Didn't work at first, then swapped out the cable that came with it for one that came with another drive and it worked fine. Plastic case feels a bit cheap and the there is no excuse for shipping with the cheap cable they provided. Details  count and this came up short for me.</t>
+  </si>
+  <si>
+    <t>Worked great, attached it while the Xbox was on, it instantly recognized it, took about 30 seconds to format, and it's up and running!</t>
+  </si>
+  <si>
+    <t>The drive was working under medium load for about 20 months and died. The computer cannot see it anymore. Just to make sure, I tried different USB ports and also another computer. I've a similar drive with a similar load from another manufacture and it is going for four years by now.I probably wouldn't mind that much if it looses reliability, had bad sectors, or other wear and tear issues. But it looks like controller has died, so no data can be restored...</t>
+  </si>
+  <si>
+    <t>I absolutely love this hard drive. It is so tiny, has a ton of storage and does not require a power adapter like a lot of other external hard drives do. The only downside I would say, and it isn't even that bad, is that the read and write speeds are somewhat slow but I think that is to be expected of a hard disk drive compared to solid state drives for example.Overall though, this is a great hard drive for storing just about anything: movies, videos, games.</t>
+  </si>
+  <si>
+    <t>I received this drive in the mail today, and to my considerable disappointment, it FAILED the very first time I intended to put it to good use.  Before that happened, I first registered this product and downloaded the Seagate software ("Seagate DiscWizard" &amp; "Seagate Drive Settings").  I then proceeded with the "Entire PC" backup option.  Initially the drive appeared to work OK, until the device started to beep and stopped backing up data.The Seagate "Test My Drive" acknowledged that there was a problem: "This external drive requires service." -See picture.When I went to the "Warranty and Returns" link, the link: "Already registered? Please Log In" FAILED to recognize the login I had previously created.Up to this point, I felt disappointed.[UPDATE] Today (09/04/2016), I tried one more time by scanning the Seagate drive with the Windows Disk Check utility program, attempting to identify and automatically correct file system errors.  Interestingly, there were (recoverable) errors identified during the scanning of the 244,140,034 free clusters. I then copied the files from the disk, and NTFS reformatted the drive. I restarted the "Seagate DiscWizard" for a full 311 GB C:Drive backup.  And lo and behold, this time it actually worked, no more beeping and hang-ups.  I will closely monitor this drive's performance, and increase my one-star product rating accordingly.  I would appreciate if Seagate were to comment on my experience, though, because this drive was obviously not ready to be used "straight out of the box".</t>
+  </si>
+  <si>
+    <t>Drive did not work when I first got it but upon hours of research and trail/error. I got it working just fine. Other than that I like the drive it self.</t>
+  </si>
+  <si>
+    <t>Surpasses the storage I had with my old drive. Have a lot of graphic files and wanted to get them off my C drive. What better place!!</t>
+  </si>
+  <si>
+    <t>My son ran out of hard drive room on his Xbox one and this was the perfect solution. Plugged it in using the supplied USB cord, the Xbox One automatically prompted to format the drive and within seconds it was ready to use. He went from a 500GB hard drive on the Xbox One to now having almost 1.5 terabytes of usable space. This drive having USB 3.0 which is needed for the Xbox, makes this drive seem almost faster loading and installing games than the internal hard drive. Time will tell as far as durability, but I've never had bad luck with Seagate drives so I am confident that this will serve us well.</t>
+  </si>
+  <si>
+    <t>Product arrived as expected! I bought the 2 TB to backup my MacBook Air personal laptop and my iMac desktop work computer using Time Machine. All I had to do was plug it into my computer, let it reformat and set it to automatically back up whenever i plug it in. It backed everything up on both computers quickly. Plus it looks pretty bad ass. I definitely recommend this product if you are looking to backup large amounts of data!</t>
+  </si>
+  <si>
+    <t>Excellent portable hard drive. Efficient. Quick. Not much bigger in size than a deck of cards, which is convenient. Quick and easy connection to my computer (Windows OS). Highly recommend it.</t>
+  </si>
+  <si>
+    <t>I bought this drive to house my media library on.  It's powered from the USB port so it needs to external power brick making it uber portable.  This drive is pretty fast for USB.  I have copied 30+ gigs at once across my network to this drive on my media server at about 100 Megabytes per second.  It doesn't come with any software (such as a backup program) but I did not require one.Pros:SmallFastPortableBLACK!Cons:No included software.</t>
+  </si>
+  <si>
+    <t>Works perfect with my Xbox One</t>
+  </si>
+  <si>
+    <t>Bought this as an external for my Xbox One. Works great. Immediately recognized it, formatted quickly and downloaded everything fast.</t>
+  </si>
+  <si>
+    <t>Good size and weight, functions properly purchased it for someone who has a habit of breaking their electronics through heavy use and lack of caution and so far they haven't put a dent in it. Company is very informative and follows up with you regarding warranties and replacements. Overall a good purchase these are very tough hard drives and should be a common place purchase in every house hold with a laptop.</t>
+  </si>
+  <si>
+    <t>My computer crashed and had to be completely wiped two days after I decided to buy this product and back my computer up! All of my school material is on my computer, and it crashed the day before my last two finals. As a college student, I looked everywhere for a good quality yet cheaper hard drive, and this product is by far the most affordable external hard drive out there and definitely worth the investment! Is it too dramatic to say this product saved my life??</t>
+  </si>
+  <si>
+    <t>Right now the drive works great, but it's brand new.  We need to be asked about these things after some period of time, say six months.</t>
+  </si>
+  <si>
+    <t>This is a good way to move or store a large amount of data. I was tired of using several thumb drives and this is a better solution.</t>
+  </si>
+  <si>
+    <t>Received the drive and it did not work. Returned immediately to Amazon which shipped a replacement. Worked great. Well done Amazon.</t>
+  </si>
+  <si>
+    <t>This has been a lifesaver for me! I use it to store all kinds of documents and files. I have had it for 4 months or so and haven't had any issues.</t>
+  </si>
+  <si>
+    <t>Works as expected for our XBox One S.  Have had zero issues, don't notice any difference in game load times or anything like that.</t>
+  </si>
+  <si>
+    <t>OMG! these are great! I lost several thousand pictures on my laptop, but thankfully was able to retrieve them with some great software. I immediately bought one of these after researching the best, most resonably priced, external hard drives. I downloaded all my pictures to the Expansion in about 10 minutes. it usually takes hours to dowload them to DVDs. It was so easy that within a week I bought another one for a second backup. No more putting everything on CDs and DVDs. So easy to use!</t>
+  </si>
+  <si>
+    <t>Works great! I am a photographer, and I store most of my photos externally.</t>
+  </si>
+  <si>
+    <t>I bought my first external HDD a few years ago from Seagate and never had a problem (it was a 1 TB HDD). I decided that I needed an extra external and automatically went back to Seagate without hesitation. I personally love the sleek design. It is important to note that even though this is a 2 TB HDD, you actually get about 1.8 TB of space, but that happens with any HDD (and USBs). Don't forget to register your product on Seagate! It makes the whole warranty process easier (however, I never had to use it so far on any of my Seagate devices).</t>
+  </si>
+  <si>
+    <t>We bought 7 of these for our office in September 2016.  Now in February 2017, 1 has failed.  We can no longer copy data from the external hard drive to the PC.  Additionally, some memory chunks are corrupted.</t>
+  </si>
+  <si>
+    <t>Been very happy with this as a backup device.  I just dump everything on my computer and cloud storage onto it and then I don't worry.</t>
+  </si>
+  <si>
+    <t>Wow! Suuuper easy - just hook it up and go. I plugged this into my desktop PC to use as an external backup device. It's quiet and has ample storage. The small form means I've been able to just tuck it into a nook/cranny under my desk - out of sight, out of mind - which is perfect for a backup device. And I know that if there is some heinous emergency I can just rip it out and run out of the house with it. Huzzah!</t>
+  </si>
+  <si>
+    <t>I got this to do a time machine back up for my computer.  Set up was easy and the directions were clear. So far a great product!</t>
+  </si>
+  <si>
+    <t>This is much more quieter than my Western digital hard rives and hasn't given me any issues with my PC. I have yet to use it on my Mac, but I anticipate it will be ok as well. its slim and lightweight too.</t>
+  </si>
+  <si>
+    <t>I bought this to backup my wife's laptop. Installation was easy and it seems to work just fine. At these prices I don't know why anyone would not have this external drive to protect their computer files.</t>
+  </si>
+  <si>
+    <t>I use Opensuse Linux Leap on my laptop and I was happy that this works out of the box even with Linux. Came pre-formatted NTFS.</t>
+  </si>
+  <si>
+    <t>The hard drive works as expected; using for extra storage on a DVR. Attractive design and small footprint; also a good price for 1TB of storage.</t>
+  </si>
+  <si>
+    <t>I had bought this for my ps4 as extra storage and it works great. The only problem is the flimsy cord they send with it doesn't shield a lot of the interference it gives off. It constantly causes my dual shock controller to act up and hit "dead zones". Purchasing a new cord in hopes to fix this problem. Would have loved to give this 5 stars. Good hard drive for cheap price.</t>
+  </si>
+  <si>
+    <t>I needed an simple and cost effective device to back-up my document file and pictures. Its affordable, effective and easy to use. Also great to add-on to the Xbox One system for more storage. USB powered so there's no power adapter to lug around. It's quiet and doesn't seem to get warm either, works without a problem ....Works great! I do advise getting a case to protect and carry it around although it is a solid piece of equipment its better to be cautious.</t>
+  </si>
+  <si>
+    <t>I invested in this because my laptop was having issues and I needed an external hard drive to put my files onto. I've only used it a few times but it's working great so far! There's a lot of space on it with the 1TB, and it's really fast at loading files onto it. No complaints yet. There's an option to back-up the files to the cloud, but I haven't taken advantage of that yet (I think it costs extra?) Feels durable, and small enough to carry around on the go.</t>
+  </si>
+  <si>
+    <t>Works perfectly so far was seamless to start backing up my entire computer in case of a loss since it's starting to get older</t>
+  </si>
+  <si>
+    <t>I have this external hard disk drive (EHDD) plugged into my MacBook Air 24/7, and it's amazing. I use this specifically for editing videos in Final Cut Pro, and haven't noticed any issues when loading/saving/editing projects.</t>
+  </si>
+  <si>
+    <t>My computer tech guy told me to buy this, and I absolutely love the size, ease and price of this External Hard Drive! I started backing up my desktop computer this way, and it's a breeze to use. Love the price and the seller!</t>
+  </si>
+  <si>
+    <t>It's great! A nice small size, with plenty of room for all my pictures of absolutely everything, and all the music I have collected over the past twenty-plus years. It's super easy to use, and I can take it with me any and everywhere. Now I don't have to worry about losing precious family memories and music. It's with me all the time.</t>
+  </si>
+  <si>
+    <t>I bought a 1TB February 26th to expand my memory on my PS4. I haven't had any issues yet to this day! I love it and soon with in a week I'll be buying a 4TB one. After I see how over 2TB of games on it hold up for a few months I'll buy another 4TB as a spare in case the first 4TB drive fails. I highly recommend this external hard drive for gaming. You simply download the games and can play all the games you have on it with no problems.</t>
+  </si>
+  <si>
+    <t>Works without problems all day long.  When I shut down computer, all I have to do is turn back on computer and off it goes to do its work</t>
+  </si>
+  <si>
+    <t>Bought this for the PS4 and the process was easier than I expected.Now, there is so much space!This is worth it.</t>
+  </si>
+  <si>
+    <t>Works great I use it to store my PS4 games, stores up to about 20 to 30 games. Lightweight, easy to carry and works quietly.</t>
+  </si>
+  <si>
+    <t>I was in the market for a hard drive for my Xbox because space as some of you know is very limted when you start piling games add one and what not. The Xbox one branded one was a bit to expensive for my taste around 120$ for really green paint and the logo but this one, not only does it look cool and match my black console but I bought this with a case for only about 86$. And it works great just take it out unbox it plug it in and format it comes with warranty as always. And you can double it up to use for any PC or tablets ect you might have really a great product came here fast too!</t>
+  </si>
+  <si>
+    <t>Great compact drive.  It is very fast at file transfers.  Even with all of the files I loaded on to it I haven't even gotten to the midpoint of its capacity.</t>
+  </si>
+  <si>
+    <t>I've used this product for a month now. It looks good in general but the plastic case seems pretty cheap if I compare to the TOSHIBA I own.I use it both on MAC and Windows so I formatted it with exFAT. Lately it takes a while under MAC for the disk to be recognised (1min). I don't know if it's because the file format or the disk itself but its pretty inconvenient.Otherwise it has good performances, as expected. I just hope it will last in the long run.</t>
+  </si>
+  <si>
+    <t>I bought this to expand my memory on my xbox. It doesn't work.  It did at lease read on my computer,  although it has stopped working altogether shortly after.</t>
+  </si>
+  <si>
+    <t>This product is very defective. The software still work. The connect cord still works. However, this product is poorly made. The hardware when you connect the cord from the hard drive is broken. I have to hold it a certain way (which is destroying the item even more) in order for it to work. It is like trying to charge your phone with a broken charger, only the actually external hard drive is he one that’s broken.</t>
+  </si>
+  <si>
+    <t>Great for the price does what it's supposed to do hold pictures and video very simple to use does come with the wire needed</t>
+  </si>
+  <si>
+    <t>the drive works excellent I transfer photos from my desktop to my laptop with this drive. I have not had any trouble doing this.</t>
+  </si>
+  <si>
+    <t>I bought this for three reasons. The first was because my computer's hard drive was getting full with things that I need to keep, so I needed a place to store all of the files that I do not need to access every day. The second was because I needed a place to back up my computers in case of failure. The third was because... well, I just really like USB storage devices. I really should start collecting flash drives.I really like the drive. It is small, slim, and looks cool. The cable it comes with is rather short at about 18 inches, which is excellent. I was concerned about having to store a long cable for something that's just going to sit on the desk right next to the computer when I'm using it. I do recommend buying a case for the drive, simply to make it easier to keep the cable with it.The actual memory as shown by a computer is about 1.8 TB (All USB drives have a bit less memory than advertised because the way a computer counts the bytes is a bit different from the way we count). Plenty of memory for my purposes. My computer's hard drive has about 274 GB of space, and a significant portion of that is taken up by system files, so you can back up your files from a number of computers on this drive.When I first plugged it in, I got a message saying something about there being problems with clusters on the drive (I don't remember exactly what it said), but I just let the computer scan and correct the drive, and now it's good to go. It's easy to use, and works just like a flash drive. Just plug in and drag and drop files. I wish my computer had USB 3.0 ports so that I could take full advantage of the speed of this drive.I was really impressed by the size and convenience of the drive. My dad also owns a 2TB Seagate USB 3.0 external hard drive. His is about the size of a VHS tape, is very heavy, has a long USB cable, and also has a power cable that plugs into an AC outlet. This drive is about the size of my rather small cell phone, has a short USB cable with no other cables, and is very lightweight.I hope to get years of good use out of this drive.</t>
+  </si>
+  <si>
+    <t>The price was fair, easy to set up, and the product works as it should. Upon receiving my order it took a week before they shipped it out.</t>
+  </si>
+  <si>
+    <t>writes and reads and transfers fast enough that i am content with it.it doesnt connect to my television via usb.</t>
+  </si>
+  <si>
+    <t>I just use this to store my xbox one games and I have 15 games on it now and still have a ton of space to download more. If that's what you are using this for then this is all you will need.</t>
+  </si>
+  <si>
+    <t>Simply easy to set up. Connect provided cable to computer and external hard disc. Very easy to use. Operates fast.  Very nice product. This simply can't be any easier to use.  I am doing to shop for a 2 TG now.</t>
+  </si>
+  <si>
+    <t>I bought it straight by seeing positive reviews, but my unit never worked. It is incompatible with several computers and devices since it needs a high power USB entry to work and it came unrecognizable to any device (some units come with an 'unformattable' configured as I've learned). Run from this</t>
+  </si>
+  <si>
+    <t>I'll be honest. I liked the idea from the start of having a new hard drive for my Xbox One since the games seem to DEVOUR hard drive space. So an investment in this seemed like a good idea. I bought a used one from Warehouse Deals and the description said there was slight damage on the item, but there was none. I was pleased to see that the moment I plugged in the hard drive to my Xbox One, it picked it up and formatted it in literally 4.5 seconds and it was easy and quick to move my games over to my hard drive. I'm very impressed and will be buying more of these in the future.</t>
+  </si>
+  <si>
+    <t>I bought this as an expansion drive for my Xbox One. I have an original XB1 with only 500G HD.  Needless to say it doesn't store many games. This drive works great.  It was quick and easy to format, data transfer is quick and now I don't have to delete something just to update a game.</t>
+  </si>
+  <si>
+    <t>Love this product!!  So happy with this purchase.  Nice to feel my electronic docs/pictures are safe!!  I recommend buying two and backing up your backup.</t>
+  </si>
+  <si>
+    <t>easy to set up out of box, already backed up information I wanted. time will tell, but seems like a good product so far.</t>
+  </si>
+  <si>
+    <t>Laptop got yanked off the table in haste and this drive went 'flying' across the room and landed on the hard wood floor ... and cartwheeled into the wall ... I mean it hit the floor HARD.. and then it hit the wall HARD... so I knew it would be nothing more than a child's rattle after that ... BUT it still works perfectly ( no noise or rattles or missing files ) .. I was flabbergasted ( and I have never been flabbergasted before so I didnt even know I was until the doctor told me )5 stars for surviving ... only criticism I have is the color ... it should be Green like the Hulk</t>
+  </si>
+  <si>
+    <t>Lasted 8 months. I bought this as a Christmas gift for my mom. She used it to store her teaching materials and presentations. Unfortunately she didn't have it backed up when it died. It's a fancy looking paperweight now. I might try calling customer service but it doesn't sound like others have had much luck going that route.</t>
+  </si>
+  <si>
+    <t>Sleak construction, was able to partition and set it up with my mac with no problems, very easy. Used half of partition for Time Machine Back up, and another half for regular storage. Small sleek design, connects fast, transfers okay, great little back up to have. My only complaint would be Amazons price. They have it for $90.00 and on seagates official website you can purchase it for a little over $75.00. Amazon really should fact check their prices before posting it, but I still received it at a good deal thanks to Prime Day. Probably the one and only thing that was worth taking a look at on Prime Day. Besides the 5 gallon drum of lube of course.</t>
+  </si>
+  <si>
+    <t>Works great. I use it to make a complete copy of my hard drive, a time machine backup of my drive and to backup all of my website data.</t>
+  </si>
+  <si>
+    <t>It took about 15 min the first try to get the hard drive icon to show up on my desktop. I'm using a Mac and had to go into preferences to set it up.  Finally worked and it's straightforward.  No software needed.</t>
+  </si>
+  <si>
+    <t>Light weight, small and has 2 TB of space... Where is the down side? This product replaced a 1TB external hard drive that weighed twice as much as this product and was larger. Couldn't be happier with the product.</t>
+  </si>
+  <si>
+    <t>So far so good.  Very easy to use!  At that price, I think I will buy more.  You can use them on the laptop, xbox, anything!  Glad I found it!</t>
+  </si>
+  <si>
+    <t>Bought for my xbox one.  Worked for a couple of months.  After installing Doom to the drive, I noticed it would slowly load textures and sometimes not load them at all.  Also loading times would get up to 10 minutes.  Formatted the drive through xbox and reinstalled my games.  Still doing it and not only with Doom, all my games have either extremely slow loading times or muddy textures from not completely loading.  After transferring the games to the internal drive, the games work fine.  Time to find a different drive.</t>
+  </si>
+  <si>
+    <t>This is a fantastic drive. Ordered it for my iMac and it arrived timely and as advertised. It is very portable (about the size of an iPhone. Very quiet, fast and reliable. I reformatted it with the Apple Disk Utility for Mac OS X Extended Journaled format. Only took a few minutes and then I set it as my Time Machine Backup Drive. Works great and I highly recommend.</t>
+  </si>
+  <si>
     <t>Working as intended for PS4.</t>
   </si>
   <si>
@@ -79,19 +1405,1291 @@
     <t>(UPDATE Jul 22, 2017) Quality No Frills Storage Expansion Drive, Fast USB 3.0 Connection</t>
   </si>
   <si>
-    <t>Amazing and powerful little external drive!!</t>
-  </si>
-  <si>
-    <t>Used for my Plex media server and thus far seems to be working well</t>
-  </si>
-  <si>
-    <t>It's a great way to store a relatively small amount of data</t>
-  </si>
-  <si>
-    <t>Perfect for PS4, load times are a bit slower though</t>
+    <t>Works 'out of the box' with XP without reconfiguration.</t>
+  </si>
+  <si>
+    <t>Don't try to reformat the drive on macOS High Sierra. Use Sierra or lower.</t>
+  </si>
+  <si>
+    <t>HIGHEST RECOMMENDATION - PERFECT FOR XBOX 1 &amp; ALL YOUR DATA STORAGE NEEDS!!!</t>
+  </si>
+  <si>
+    <t>Works as a DISH Wally DVR</t>
+  </si>
+  <si>
+    <t>Perfect PS4 replacement HDD</t>
+  </si>
+  <si>
+    <t>I was slightly disappointed when I realized the price I paid for this ...</t>
+  </si>
+  <si>
+    <t>Works well. I have a MAC. When you ...</t>
+  </si>
+  <si>
+    <t>Poor Engineering</t>
+  </si>
+  <si>
+    <t>GREAT DRIVE FOR XBOX ONE</t>
+  </si>
+  <si>
+    <t>i bought one then realized i needed another drive so i shopped around for the second one and came to the conclusion this was sti</t>
+  </si>
+  <si>
+    <t>Stopped working after a month</t>
+  </si>
+  <si>
+    <t>... on the plus side if you are space limited like me. I immediately plugged it in and formatted ...</t>
+  </si>
+  <si>
+    <t>So far, so good!</t>
+  </si>
+  <si>
+    <t>Very happy with these drives.</t>
+  </si>
+  <si>
+    <t>Perfect as a PS4 internal HDD replacement</t>
+  </si>
+  <si>
+    <t>Works fine with our PS4</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>I have a MacBook Air and this product is not ...</t>
+  </si>
+  <si>
+    <t>Smooth working, durable, and looks great</t>
+  </si>
+  <si>
+    <t>Super legit, usually if you format the hard drive ...</t>
+  </si>
+  <si>
+    <t>stops working on the first 2 months</t>
+  </si>
+  <si>
+    <t>The protection was good and my product was not harmed or scratched</t>
+  </si>
+  <si>
+    <t>Bad cable...</t>
   </si>
   <si>
     <t>Great purchase.</t>
+  </si>
+  <si>
+    <t>Great external hard drive!</t>
+  </si>
+  <si>
+    <t>so far so good. Now if only my old laptop had a ...</t>
+  </si>
+  <si>
+    <t>Almost perfect!</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Weirdly Not User Friendly</t>
+  </si>
+  <si>
+    <t>Exactly what I need for more space</t>
+  </si>
+  <si>
+    <t>Works great on PS4</t>
+  </si>
+  <si>
+    <t>Failed in 9 months of light use</t>
+  </si>
+  <si>
+    <t>Very good and well made hard drive</t>
+  </si>
+  <si>
+    <t>Worth the Price</t>
+  </si>
+  <si>
+    <t>Easy setup and very reasonably priced but…</t>
+  </si>
+  <si>
+    <t>Lots of space and fast upload</t>
+  </si>
+  <si>
+    <t>Reformatted for Mac</t>
+  </si>
+  <si>
+    <t>PS4 extended storage</t>
+  </si>
+  <si>
+    <t>From 5 stars to ONE Star</t>
+  </si>
+  <si>
+    <t>Good product for extra storage</t>
+  </si>
+  <si>
+    <t>This little thing is just that,, it's tiny in size, mighty in brain power wow</t>
+  </si>
+  <si>
+    <t>Love the extra storage and no muss no fuss installation</t>
+  </si>
+  <si>
+    <t>Screw this hard drive.</t>
+  </si>
+  <si>
+    <t>Works great with the Xbox One S.</t>
+  </si>
+  <si>
+    <t>Almost but not quite perfect.</t>
+  </si>
+  <si>
+    <t>Short lifespan - not reliable</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Working awesome with my Wii U!</t>
+  </si>
+  <si>
+    <t>Waste of money.</t>
+  </si>
+  <si>
+    <t>A fantastic product at a great price-point</t>
+  </si>
+  <si>
+    <t>Great for PS4</t>
+  </si>
+  <si>
+    <t>It works!!!</t>
+  </si>
+  <si>
+    <t>Best for computers with less than 256GB</t>
+  </si>
+  <si>
+    <t>Small, dark and roomy</t>
+  </si>
+  <si>
+    <t>ps4 hard drive</t>
+  </si>
+  <si>
+    <t>Nice drive for backups.</t>
+  </si>
+  <si>
+    <t>Worth Every Dollar - Excellent Technology</t>
+  </si>
+  <si>
+    <t>So reliable and doesn't slow down or lag!!</t>
+  </si>
+  <si>
+    <t>It works great, there's something you should know though</t>
+  </si>
+  <si>
+    <t>Amazing</t>
+  </si>
+  <si>
+    <t>Nice Little Hard Drive, short USB cord!</t>
+  </si>
+  <si>
+    <t>Great Product</t>
+  </si>
+  <si>
+    <t>A Great Little External Drive</t>
+  </si>
+  <si>
+    <t>My First Portable Hard Drive</t>
+  </si>
+  <si>
+    <t>Seagate 1-TB Portable Expansion Drive: Works Well with Computers But Not with Older Portable Devices</t>
+  </si>
+  <si>
+    <t>has been working fine with my newer MacBook Pro</t>
+  </si>
+  <si>
+    <t>Great for Wii Softmodders!</t>
+  </si>
+  <si>
+    <t>Need a longer cord, but that's not a deal breaker</t>
+  </si>
+  <si>
+    <t>Works Great as a Replacement PS4 Drive.</t>
+  </si>
+  <si>
+    <t>This is frustrating I hate this product</t>
+  </si>
+  <si>
+    <t>Great Investment</t>
+  </si>
+  <si>
+    <t>This hard drive is perfect for students to use</t>
+  </si>
+  <si>
+    <t>Great Product, Great Looks, and Great Speed</t>
+  </si>
+  <si>
+    <t>5 on PSN and am so far pleased by this solution</t>
+  </si>
+  <si>
+    <t>Back up. Back up! With Seagate</t>
+  </si>
+  <si>
+    <t>STOPS WORKING FOR NO REASON!!! DO NOT BUY!!!!</t>
+  </si>
+  <si>
+    <t>Fast lightweight durable external tb</t>
+  </si>
+  <si>
+    <t>Just got and installed - This is sold as a ...</t>
+  </si>
+  <si>
+    <t>great!</t>
+  </si>
+  <si>
+    <t>For my PS 4</t>
+  </si>
+  <si>
+    <t>Works great with the Nintendo Wii U</t>
+  </si>
+  <si>
+    <t>They lied !</t>
+  </si>
+  <si>
+    <t>Compact and mighty powerful.</t>
+  </si>
+  <si>
+    <t>holding up</t>
+  </si>
+  <si>
+    <t>Doesn't work out of the box</t>
+  </si>
+  <si>
+    <t>No BS setup to deal with like other externals I have purchased</t>
+  </si>
+  <si>
+    <t>Not satisfied...</t>
+  </si>
+  <si>
+    <t>Great product!</t>
+  </si>
+  <si>
+    <t>Perfect!</t>
+  </si>
+  <si>
+    <t>Great Drive in a Small Case</t>
+  </si>
+  <si>
+    <t>Awesome Drive</t>
+  </si>
+  <si>
+    <t>Perfect for a PS4 backup!</t>
+  </si>
+  <si>
+    <t>Lightweight, amazing 4TB capacity, small footprint, decent write speeds.</t>
+  </si>
+  <si>
+    <t>Ultimately, disappointed with this one</t>
+  </si>
+  <si>
+    <t>??????USB 4 ?????? Wtf</t>
+  </si>
+  <si>
+    <t>Works great. Just turn your xbox one on and then ...</t>
+  </si>
+  <si>
+    <t>Must have for any computer!</t>
+  </si>
+  <si>
+    <t>what i needed for a long time as a gamer who uses a digital games only</t>
+  </si>
+  <si>
+    <t>The Best Fifty Bucks I've Spent in Years</t>
+  </si>
+  <si>
+    <t>Great external HDD</t>
+  </si>
+  <si>
+    <t>Great telephone support</t>
+  </si>
+  <si>
+    <t>Don't drop it.</t>
+  </si>
+  <si>
+    <t>4.5 stars</t>
+  </si>
+  <si>
+    <t>Seagate expansion 2tb a must buy!</t>
+  </si>
+  <si>
+    <t>I like it</t>
+  </si>
+  <si>
+    <t>Great External Drive!</t>
+  </si>
+  <si>
+    <t>Seagate Doesn't Let You Down</t>
+  </si>
+  <si>
+    <t>GREAT BUY!</t>
+  </si>
+  <si>
+    <t>Works great.</t>
+  </si>
+  <si>
+    <t>Does not work with PS4 as others have stated</t>
+  </si>
+  <si>
+    <t>Great for backup or just an extension of your C drive.</t>
+  </si>
+  <si>
+    <t>So far do good</t>
+  </si>
+  <si>
+    <t>Excellent drive!</t>
+  </si>
+  <si>
+    <t>A bit flakey if you're using it for a back-up drive</t>
+  </si>
+  <si>
+    <t>Good performance, no noise, great value</t>
+  </si>
+  <si>
+    <t>louder than I would've have liked though. I use it as a backup drive ...</t>
+  </si>
+  <si>
+    <t>Great!</t>
+  </si>
+  <si>
+    <t>Dependable external hard drive!</t>
+  </si>
+  <si>
+    <t>works best on PC, not really so much on the Mac even after partitioning</t>
+  </si>
+  <si>
+    <t>I loved these hard drives for Time Machine Backups</t>
+  </si>
+  <si>
+    <t>Effortsly and works great and tons of storage, perfect for pics!!</t>
+  </si>
+  <si>
+    <t>PS4 Perfect !</t>
+  </si>
+  <si>
+    <t>PS4 External HDD</t>
+  </si>
+  <si>
+    <t>I use this with my ps4 and have been very ...</t>
+  </si>
+  <si>
+    <t>It's an OK item</t>
+  </si>
+  <si>
+    <t>This is a great Hard-drive. I use it with my standard 500 ...</t>
+  </si>
+  <si>
+    <t>Works wonderfully for a hard drive expansion!</t>
+  </si>
+  <si>
+    <t>4TB for $120. Can't go wrong with Seagate's track record</t>
+  </si>
+  <si>
+    <t>Put some photos on it and now I can't even ...</t>
+  </si>
+  <si>
+    <t>Quieter than a mouse.</t>
+  </si>
+  <si>
+    <t>Fine for PCs supporting Win10 &amp; USB3.0. But older PCs may have driver issues at USB3 speeds.</t>
+  </si>
+  <si>
+    <t>Perfect for XBOX 1</t>
+  </si>
+  <si>
+    <t>Should've paid more attention to the reviews!</t>
+  </si>
+  <si>
+    <t>DIED after 8 months - packaging &amp; return will cost almost as much as a NEW drive</t>
+  </si>
+  <si>
+    <t>100% recommend, wonderful product!</t>
+  </si>
+  <si>
+    <t>DOA</t>
+  </si>
+  <si>
+    <t>I like that it doesn't require a separate power connection and ...</t>
+  </si>
+  <si>
+    <t>Loving the portable physical size of this drive and of ...</t>
+  </si>
+  <si>
+    <t>Good &amp; reliable</t>
+  </si>
+  <si>
+    <t>A great deal for the price.</t>
+  </si>
+  <si>
+    <t>It works great. They usually last a couple of years then ...</t>
+  </si>
+  <si>
+    <t>Great drive for a great price!</t>
+  </si>
+  <si>
+    <t>Very small and light, good buy</t>
+  </si>
+  <si>
+    <t>Drive crashed</t>
+  </si>
+  <si>
+    <t>Great external drive</t>
+  </si>
+  <si>
+    <t>Very convenient electronic storage device</t>
+  </si>
+  <si>
+    <t>super small! it fits right in my laptop case</t>
+  </si>
+  <si>
+    <t>it's easy enough though to go back and forth between the ...</t>
+  </si>
+  <si>
+    <t>Small, powered directly through USB and very dependable performance</t>
+  </si>
+  <si>
+    <t>Great for expanding Xbox One storage capacity</t>
+  </si>
+  <si>
+    <t>Best Xbox One external expansion!</t>
+  </si>
+  <si>
+    <t>Runs Like a Big Dog</t>
+  </si>
+  <si>
+    <t>My son likes it</t>
+  </si>
+  <si>
+    <t>dope external hard-drive</t>
+  </si>
+  <si>
+    <t>0 transfer speed is decent and the design is pretty smooth. If your looking to buy a hardrive</t>
+  </si>
+  <si>
+    <t>Love it so far</t>
+  </si>
+  <si>
+    <t>Longevity??</t>
+  </si>
+  <si>
+    <t>I use this external drive as a backup for my ...</t>
+  </si>
+  <si>
+    <t>Fabulous Product!</t>
+  </si>
+  <si>
+    <t>Received the unit today and immediately hooked it up to ...</t>
+  </si>
+  <si>
+    <t>Works as expected</t>
+  </si>
+  <si>
+    <t>Happy</t>
+  </si>
+  <si>
+    <t>Used HD expansion on my Xbox One</t>
+  </si>
+  <si>
+    <t>My son..</t>
+  </si>
+  <si>
+    <t>It seem pretty fast too</t>
+  </si>
+  <si>
+    <t>PS4 EXTERNAL harddrive. working smoothly.</t>
+  </si>
+  <si>
+    <t>It works like a charm</t>
+  </si>
+  <si>
+    <t>Affordable. Reliable. Fast.</t>
+  </si>
+  <si>
+    <t>Great for clearing space off laptop</t>
+  </si>
+  <si>
+    <t>Worked good at first but slowly getting worse.</t>
+  </si>
+  <si>
+    <t>Not sure, can't get it to connect yet</t>
+  </si>
+  <si>
+    <t>Seems like a winner</t>
+  </si>
+  <si>
+    <t>Excellent quality, love the convenience</t>
+  </si>
+  <si>
+    <t>Bigger is better</t>
+  </si>
+  <si>
+    <t>like others, as an external for my Xbone</t>
+  </si>
+  <si>
+    <t>Happy to Have Extra Storage</t>
+  </si>
+  <si>
+    <t>Good choice for expanded storage or backup</t>
+  </si>
+  <si>
+    <t>Great steal!</t>
+  </si>
+  <si>
+    <t>Easy to use w/ Xbox One</t>
+  </si>
+  <si>
+    <t>A great portable 1TB USB drive</t>
+  </si>
+  <si>
+    <t>Buy this please</t>
+  </si>
+  <si>
+    <t>Sturdy outside so won't worry about if it gets accidentally ...</t>
+  </si>
+  <si>
+    <t>Five Stars</t>
+  </si>
+  <si>
+    <t>Best external hard drive price!</t>
+  </si>
+  <si>
+    <t>Would definitely reccomend this product</t>
+  </si>
+  <si>
+    <t>Easy to use, plug &amp; play. Looks nice, about the size of my phone.</t>
+  </si>
+  <si>
+    <t>Great price on a reasonably attractive bare-bones drive with no backup software but a 2 TB 2.5" SATA notebook drive inside</t>
+  </si>
+  <si>
+    <t>Excellent product and highly recommended by my tech who picked ...</t>
+  </si>
+  <si>
+    <t>Works great so far.</t>
+  </si>
+  <si>
+    <t>Lifesaver</t>
+  </si>
+  <si>
+    <t>I just wanted to let all know this worked as ...</t>
+  </si>
+  <si>
+    <t>Great external  storage</t>
+  </si>
+  <si>
+    <t>Works great with xBox 360. No special power requirements</t>
+  </si>
+  <si>
+    <t>Please, use this to back up your important pictures and data.</t>
+  </si>
+  <si>
+    <t>Excellent. Very attractive for a portable hard drive.</t>
+  </si>
+  <si>
+    <t>Lasts a little over a year before dying, good until then</t>
+  </si>
+  <si>
+    <t>Perfect in every way, exactly what its meant to do</t>
+  </si>
+  <si>
+    <t>Small size with lots of room.</t>
+  </si>
+  <si>
+    <t>Ps4 external hard drive. Need 4.50 update or newer.</t>
+  </si>
+  <si>
+    <t>Failed right out of the box - returned to Amazon</t>
+  </si>
+  <si>
+    <t>Nice drive, easy to use</t>
+  </si>
+  <si>
+    <t>Great for expanding Xbox storage capacity</t>
+  </si>
+  <si>
+    <t>Fantastic for Xbox One!</t>
+  </si>
+  <si>
+    <t>Works well</t>
+  </si>
+  <si>
+    <t>super simple and works</t>
+  </si>
+  <si>
+    <t>Solid 1TB external for a decent price.</t>
+  </si>
+  <si>
+    <t>Seagate delivers!</t>
+  </si>
+  <si>
+    <t>Its a must for the for price!</t>
+  </si>
+  <si>
+    <t>So far so good. I was a little worried at first reading ...</t>
+  </si>
+  <si>
+    <t>This external hard drive is a total LIFESAVER. I ...</t>
+  </si>
+  <si>
+    <t>Small physical footprint, very lightweight</t>
+  </si>
+  <si>
+    <t>Plug and play (xbox one)👍</t>
+  </si>
+  <si>
+    <t>Great External Drive</t>
+  </si>
+  <si>
+    <t>seagate hard drive works on ps4 ,enjoy</t>
+  </si>
+  <si>
+    <t>Cute little drive that's a powerhouse or storage</t>
+  </si>
+  <si>
+    <t>So far, so good.</t>
+  </si>
+  <si>
+    <t>... on our Xbox One console and it has been perfect! It was easy to set up</t>
+  </si>
+  <si>
+    <t>works super fast, easy to install</t>
+  </si>
+  <si>
+    <t>All my data is 168gB and still 80% free space on the drive</t>
+  </si>
+  <si>
+    <t>2TB in a great little package.</t>
+  </si>
+  <si>
+    <t>Its has a reallly nice feel to it and its easy to set up</t>
+  </si>
+  <si>
+    <t>Save Your Data &amp; Store it in Another Place for safety!</t>
+  </si>
+  <si>
+    <t>IT WORKS!</t>
+  </si>
+  <si>
+    <t>After reading the reviews, we were a little skeptical ...</t>
+  </si>
+  <si>
+    <t>... but when I received the replacement order I was pleased. It is way smaller than I realized but ...</t>
+  </si>
+  <si>
+    <t>Great product</t>
+  </si>
+  <si>
+    <t>Seems to work fine but this was clearly not new when it arrived</t>
+  </si>
+  <si>
+    <t>usb3 for the win on my imac</t>
+  </si>
+  <si>
+    <t>Perfect to expand your PS4 storage capacity</t>
+  </si>
+  <si>
+    <t>Perfect HD at a great price</t>
+  </si>
+  <si>
+    <t>Seagate 1TB Portable External Hard Drive</t>
+  </si>
+  <si>
+    <t>Shirt pocket storage</t>
+  </si>
+  <si>
+    <t>Excellent Hard Drive</t>
+  </si>
+  <si>
+    <t>it worked fine. Small size is very manageable and easily stored</t>
+  </si>
+  <si>
+    <t>Big drive in a tiny format</t>
+  </si>
+  <si>
+    <t>Works perfectly with my XBox one. I have used ...</t>
+  </si>
+  <si>
+    <t>Works on my Windows XP Professional and Windows 2000 Professional</t>
+  </si>
+  <si>
+    <t>with several bad and weak sectors</t>
+  </si>
+  <si>
+    <t>... portable hard drive for my PS4 and it works great. It didn't take long to format and allows ...</t>
+  </si>
+  <si>
+    <t>Great storage and speed for the price</t>
+  </si>
+  <si>
+    <t>Works great</t>
+  </si>
+  <si>
+    <t>Used on my PS4. It works!</t>
+  </si>
+  <si>
+    <t>Great product, lousy manual</t>
+  </si>
+  <si>
+    <t>Faulty cable?</t>
+  </si>
+  <si>
+    <t>Works Great Looks Great</t>
+  </si>
+  <si>
+    <t>Not sure how I lived without all this space before...</t>
+  </si>
+  <si>
+    <t>Great, easy registration software</t>
+  </si>
+  <si>
+    <t>3.63Tb Actual available space</t>
+  </si>
+  <si>
+    <t>Great external!</t>
+  </si>
+  <si>
+    <t>great size, great little device</t>
+  </si>
+  <si>
+    <t>Highly Recommend even for non techies.</t>
+  </si>
+  <si>
+    <t>So far so good it's working just fine</t>
+  </si>
+  <si>
+    <t>Good deal</t>
+  </si>
+  <si>
+    <t>Small and Rugged</t>
+  </si>
+  <si>
+    <t>Seagate Expansion 1TB Portable External Hard ...</t>
+  </si>
+  <si>
+    <t>Great for PS4 use</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Make sure you're buying for the right OS</t>
+  </si>
+  <si>
+    <t>I got this because it was cheaper than the internal ...</t>
+  </si>
+  <si>
+    <t>Great drive. Perfect size so i can easily carry ...</t>
+  </si>
+  <si>
+    <t>Working great as an extension to my laptop</t>
+  </si>
+  <si>
+    <t>Excellent portable computer drive</t>
+  </si>
+  <si>
+    <t>Would be appreciated by everyone</t>
+  </si>
+  <si>
+    <t>Aye papi!</t>
+  </si>
+  <si>
+    <t>Happy with my purchase now I can backup my wii ...</t>
+  </si>
+  <si>
+    <t>Extremely easy setup, just plug it in and you're good ...</t>
+  </si>
+  <si>
+    <t>The connector to the device will easily break off</t>
+  </si>
+  <si>
+    <t>XBOX hard drive.</t>
+  </si>
+  <si>
+    <t>REFORMAT IT FOR MAC OS</t>
+  </si>
+  <si>
+    <t>Ps4 external drive</t>
+  </si>
+  <si>
+    <t>Perfect Extrenal</t>
+  </si>
+  <si>
+    <t>) I always hated uninstal game and movies I bought from xbox store ...</t>
+  </si>
+  <si>
+    <t>VERY DISAPPOINTED</t>
+  </si>
+  <si>
+    <t>Worth every penny</t>
+  </si>
+  <si>
+    <t>They Fail - You'll lose your data!!!</t>
+  </si>
+  <si>
+    <t>Good to go!</t>
+  </si>
+  <si>
+    <t>I have been really pleased with this external hard drive</t>
+  </si>
+  <si>
+    <t>... a bundle with my router for a extra $7 best hardrive ive had for the price</t>
+  </si>
+  <si>
+    <t>Reliable and nice blue light</t>
+  </si>
+  <si>
+    <t>Awesome</t>
+  </si>
+  <si>
+    <t>Perfect For My Game System.</t>
+  </si>
+  <si>
+    <t>A great external hard drive that is so easy to use!</t>
+  </si>
+  <si>
+    <t>Stores Stuff; That's About It</t>
+  </si>
+  <si>
+    <t>Works well, and at a great price point</t>
+  </si>
+  <si>
+    <t>It does fit the PS4 drive slot and was very easy to install</t>
+  </si>
+  <si>
+    <t>So far so good..</t>
+  </si>
+  <si>
+    <t>Cheap plastic case n good speeds</t>
+  </si>
+  <si>
+    <t>A great small portable mini drive powered by one USB port</t>
+  </si>
+  <si>
+    <t>Won't Work On Older Computers</t>
+  </si>
+  <si>
+    <t>My computer (Lenovo Windows 10) didn't recognize it. When ...</t>
+  </si>
+  <si>
+    <t>Great for the money.</t>
+  </si>
+  <si>
+    <t>Works Great for PS4</t>
+  </si>
+  <si>
+    <t>Used for Xbox one and it's perfect!</t>
+  </si>
+  <si>
+    <t>set it up as the main drive and it works perfect.</t>
+  </si>
+  <si>
+    <t>Work with the xbox one for a couple months.</t>
+  </si>
+  <si>
+    <t>Using with Tablo</t>
+  </si>
+  <si>
+    <t>Swing and a Miss</t>
+  </si>
+  <si>
+    <t>Confirmed Working upgrade to PS4. Manufactured 04/16. The ...</t>
+  </si>
+  <si>
+    <t>In the event of a computer it's better to be safe than very sorry</t>
+  </si>
+  <si>
+    <t>Save your money, buy a WD drive instead.</t>
+  </si>
+  <si>
+    <t>it worked just like any external storage</t>
+  </si>
+  <si>
+    <t>Windows - yes, MAC - yes, Chrome OS -NO</t>
+  </si>
+  <si>
+    <t>Excellent works as intended awesome product great price</t>
+  </si>
+  <si>
+    <t>It's Great</t>
+  </si>
+  <si>
+    <t>Very reliable</t>
+  </si>
+  <si>
+    <t>Would recommend buying this opposed to buying the HDD without the ...</t>
+  </si>
+  <si>
+    <t>I am very happy with my experience</t>
+  </si>
+  <si>
+    <t>Biggest chunk of space I have!</t>
+  </si>
+  <si>
+    <t>Not compatible wtth Wii U</t>
+  </si>
+  <si>
+    <t>Nice sturdy little external hard drive!</t>
+  </si>
+  <si>
+    <t>Seagate Expansion 2TB Portable External Hard Drive a bargain!</t>
+  </si>
+  <si>
+    <t>Fulfills its intended very well</t>
+  </si>
+  <si>
+    <t>Excellent price, excellent item</t>
+  </si>
+  <si>
+    <t>Does what it says so far. But the truth ...</t>
+  </si>
+  <si>
+    <t>Love it, no complaints</t>
+  </si>
+  <si>
+    <t>Does exactly what it says. Great item.</t>
+  </si>
+  <si>
+    <t>does not work</t>
+  </si>
+  <si>
+    <t>Works Great</t>
+  </si>
+  <si>
+    <t>So much better than I expected (until one of the two died)</t>
+  </si>
+  <si>
+    <t>Working well.</t>
+  </si>
+  <si>
+    <t>Just what I needed.</t>
+  </si>
+  <si>
+    <t>Great external for your Xbox One and Computer</t>
+  </si>
+  <si>
+    <t>Not great</t>
+  </si>
+  <si>
+    <t>I love my hard drive</t>
+  </si>
+  <si>
+    <t>Great for storing media with PLEX on Mac</t>
+  </si>
+  <si>
+    <t>Opted for the backup model instead - free software with backup unit, not with this one</t>
+  </si>
+  <si>
+    <t>Risky</t>
+  </si>
+  <si>
+    <t>Great Price &amp; Trusted Brand</t>
+  </si>
+  <si>
+    <t>I have only had this device for three weeks at ...</t>
+  </si>
+  <si>
+    <t>WORKED THEN STOPPED. I NEED HELP.</t>
+  </si>
+  <si>
+    <t>Excellent product, could not be happier</t>
+  </si>
+  <si>
+    <t>Incredible</t>
+  </si>
+  <si>
+    <t>Feels a bit cheap but does the job.</t>
+  </si>
+  <si>
+    <t>The easiest setup ever!!!</t>
+  </si>
+  <si>
+    <t>Great buy!!</t>
+  </si>
+  <si>
+    <t>Died Within 2 Weeks of Purchase</t>
+  </si>
+  <si>
+    <t>Easy to open the Expansion box with a cutter and ...</t>
+  </si>
+  <si>
+    <t>I would not recommend this product at all</t>
+  </si>
+  <si>
+    <t>Works great with Time Machine</t>
+  </si>
+  <si>
+    <t>So far so good. Only problem I has was I removed it ...</t>
+  </si>
+  <si>
+    <t>Extremely happy. Works for ps4 HDD swap.</t>
+  </si>
+  <si>
+    <t>Perfect for PS4</t>
+  </si>
+  <si>
+    <t>We bought two of these. One for the xbox ...</t>
+  </si>
+  <si>
+    <t>Works for Dish Wally as DVR hard drive, but needed to be formatted via PC first</t>
+  </si>
+  <si>
+    <t>Seems to be working well so far. Haven't tried ...</t>
+  </si>
+  <si>
+    <t>Perfect for Xbox One!</t>
+  </si>
+  <si>
+    <t>I use this for my XBOX 1 and it increases ...</t>
+  </si>
+  <si>
+    <t>Works like it should</t>
+  </si>
+  <si>
+    <t>This is a nice product in terms of its looks</t>
+  </si>
+  <si>
+    <t>This harddrive is small in size and perfect for your backup</t>
+  </si>
+  <si>
+    <t>Nice unit. Good speeds. Easy to use. Small. Runs cool. Good, brand name, that is currently trustworthy.</t>
+  </si>
+  <si>
+    <t>Great for XBox</t>
+  </si>
+  <si>
+    <t>It has a proprietary USB connection which means I can't easily change out the cable with a longer</t>
+  </si>
+  <si>
+    <t>Perfect</t>
+  </si>
+  <si>
+    <t>It's not solid state, but it is a solid product</t>
+  </si>
+  <si>
+    <t>Probably o.k. but not right for dish receiver</t>
+  </si>
+  <si>
+    <t>I ordered this as a backup for my photo sessions ...</t>
+  </si>
+  <si>
+    <t>FANTASTIC DRIVE</t>
+  </si>
+  <si>
+    <t>Poor quality</t>
+  </si>
+  <si>
+    <t>Exactly what I needed!</t>
+  </si>
+  <si>
+    <t>Works flawlessly couldn't ask for a better external drive.</t>
+  </si>
+  <si>
+    <t>Great for XBOX ONE, not for PS4</t>
+  </si>
+  <si>
+    <t>One of the better HDD out there for XBone users.</t>
+  </si>
+  <si>
+    <t>My friend said this holds a lot of data, ...</t>
+  </si>
+  <si>
+    <t>Quality lacking</t>
+  </si>
+  <si>
+    <t>Worked great for our Xbox One</t>
+  </si>
+  <si>
+    <t>Short life time</t>
+  </si>
+  <si>
+    <t>A must buy if you want large portable storage</t>
+  </si>
+  <si>
+    <t>Rough Start</t>
+  </si>
+  <si>
+    <t>Needed modifications but good drive</t>
+  </si>
+  <si>
+    <t>All the storage I needed</t>
+  </si>
+  <si>
+    <t>Perfect for added Xbox One storage</t>
+  </si>
+  <si>
+    <t>Plus it looks pretty bad ass</t>
+  </si>
+  <si>
+    <t>Great portable hard drive.</t>
+  </si>
+  <si>
+    <t>Small, fast and portable.</t>
+  </si>
+  <si>
+    <t>Lots of Space in a Small Package!</t>
+  </si>
+  <si>
+    <t>Works great for XboxOne</t>
+  </si>
+  <si>
+    <t>Functional and Solid</t>
+  </si>
+  <si>
+    <t>You will not regret this product purchase!</t>
+  </si>
+  <si>
+    <t>Working fine, like it should.</t>
+  </si>
+  <si>
+    <t>Great way to store or transfer a lage amout of data.</t>
+  </si>
+  <si>
+    <t>Worked great. Well done Amazon</t>
+  </si>
+  <si>
+    <t>don't notice any difference in game load times or anything like that.</t>
+  </si>
+  <si>
+    <t>Great for Picture Backups! Easy to use!</t>
+  </si>
+  <si>
+    <t>I personally love the sleek design</t>
+  </si>
+  <si>
+    <t>Failure after 5 Months</t>
+  </si>
+  <si>
+    <t>holds entire contents of computer no hassle</t>
+  </si>
+  <si>
+    <t>Quiet, convenient and pretty</t>
+  </si>
+  <si>
+    <t>Thumbs Up!</t>
+  </si>
+  <si>
+    <t>This is much more quieter than my Western digital hard ...</t>
+  </si>
+  <si>
+    <t>Installation was easy and it seems to work just fine</t>
+  </si>
+  <si>
+    <t>Works as intended, out of the box, even with Opensuse Linux</t>
+  </si>
+  <si>
+    <t>DVR Data Storage</t>
+  </si>
+  <si>
+    <t>... for my ps4 as extra storage and it works great. The only problem is the flimsy cord they ...</t>
+  </si>
+  <si>
+    <t>effective and easy to use</t>
+  </si>
+  <si>
+    <t>Durable and Fast</t>
+  </si>
+  <si>
+    <t>A must have great deal too</t>
+  </si>
+  <si>
+    <t>Runs 24/7 without any performance issues, even for editing videos in Final Cut Pro!</t>
+  </si>
+  <si>
+    <t>Best Little External Hard Drive</t>
+  </si>
+  <si>
+    <t>It's great! A nice small size</t>
+  </si>
+  <si>
+    <t>Highly recommend for gaming!</t>
+  </si>
+  <si>
+    <t>Works without problems all day long. When I shut ...</t>
+  </si>
+  <si>
+    <t>So much more</t>
+  </si>
+  <si>
+    <t>Perfect for the PS4 for the Price.</t>
+  </si>
+  <si>
+    <t>good for the price I'm happy with it!</t>
+  </si>
+  <si>
+    <t>Great file storage unit.</t>
+  </si>
+  <si>
+    <t>Descent but I preferred the TOSHIBA one I own</t>
+  </si>
+  <si>
+    <t>Sure glad i paid so much for nothing</t>
+  </si>
+  <si>
+    <t>Don’t Waste Your Money!</t>
+  </si>
+  <si>
+    <t>works very well</t>
+  </si>
+  <si>
+    <t>It's Bigger on the Inside!</t>
+  </si>
+  <si>
+    <t>easy to set up</t>
+  </si>
+  <si>
+    <t>i like it</t>
+  </si>
+  <si>
+    <t>I just use this to store my xbox one games ...</t>
+  </si>
+  <si>
+    <t>Simply easy to set up</t>
+  </si>
+  <si>
+    <t>Don't buy this drive, really</t>
+  </si>
+  <si>
+    <t>Very Impressed!</t>
+  </si>
+  <si>
+    <t>Extra Storage for Game Systems</t>
+  </si>
+  <si>
+    <t>Love this product</t>
+  </si>
+  <si>
+    <t>easy to set up out of box</t>
+  </si>
+  <si>
+    <t>It should be Green</t>
+  </si>
+  <si>
+    <t>Lesson learned</t>
+  </si>
+  <si>
+    <t>very easy. Used half of partition for Time Machine Back ...</t>
+  </si>
+  <si>
+    <t>Works great. I use it to make a complete copy ...</t>
+  </si>
+  <si>
+    <t>Good for macs</t>
+  </si>
+  <si>
+    <t>Sleek, light weight and affordable</t>
+  </si>
+  <si>
+    <t>Great Hard Drive!</t>
+  </si>
+  <si>
+    <t>Doesn't Work For me on Xbox One</t>
+  </si>
+  <si>
+    <t>This is a fantastic drive. Ordered it for my iMac and it ...</t>
   </si>
 </sst>
 </file>
@@ -449,7 +3047,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D451"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -474,10 +3072,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -488,10 +3086,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>459</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -502,10 +3100,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>460</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -516,10 +3114,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>461</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -530,10 +3128,10 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>462</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -544,10 +3142,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>463</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -555,13 +3153,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>464</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -572,10 +3170,10 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>465</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -586,10 +3184,10 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>466</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -600,10 +3198,6170 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
         <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" t="s">
+        <v>64</v>
+      </c>
+      <c r="D58" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>65</v>
+      </c>
+      <c r="D59" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>66</v>
+      </c>
+      <c r="D60" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" t="s">
+        <v>67</v>
+      </c>
+      <c r="D61" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>69</v>
+      </c>
+      <c r="D63" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>70</v>
+      </c>
+      <c r="D64" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>71</v>
+      </c>
+      <c r="D65" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
+        <v>72</v>
+      </c>
+      <c r="D66" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
+        <v>73</v>
+      </c>
+      <c r="D67" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>74</v>
+      </c>
+      <c r="D68" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
+        <v>75</v>
+      </c>
+      <c r="D69" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
+        <v>76</v>
+      </c>
+      <c r="D70" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" t="s">
+        <v>77</v>
+      </c>
+      <c r="D71" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D72" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
+        <v>79</v>
+      </c>
+      <c r="D73" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>80</v>
+      </c>
+      <c r="D74" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
+        <v>81</v>
+      </c>
+      <c r="D75" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>82</v>
+      </c>
+      <c r="D76" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
+        <v>83</v>
+      </c>
+      <c r="D77" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>84</v>
+      </c>
+      <c r="D78" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>85</v>
+      </c>
+      <c r="D79" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>86</v>
+      </c>
+      <c r="D80" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" t="s">
+        <v>87</v>
+      </c>
+      <c r="D81" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" t="s">
+        <v>88</v>
+      </c>
+      <c r="D82" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" t="s">
+        <v>89</v>
+      </c>
+      <c r="D83" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" t="s">
+        <v>90</v>
+      </c>
+      <c r="D84" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" t="s">
+        <v>91</v>
+      </c>
+      <c r="D85" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" t="s">
+        <v>92</v>
+      </c>
+      <c r="D86" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" t="s">
+        <v>93</v>
+      </c>
+      <c r="D87" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" t="s">
+        <v>94</v>
+      </c>
+      <c r="D88" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89" t="s">
+        <v>95</v>
+      </c>
+      <c r="D89" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" t="s">
+        <v>96</v>
+      </c>
+      <c r="D90" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" t="s">
+        <v>97</v>
+      </c>
+      <c r="D91" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" t="s">
+        <v>98</v>
+      </c>
+      <c r="D92" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" t="s">
+        <v>99</v>
+      </c>
+      <c r="D93" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" t="s">
+        <v>100</v>
+      </c>
+      <c r="D94" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" t="s">
+        <v>101</v>
+      </c>
+      <c r="D95" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" t="s">
+        <v>102</v>
+      </c>
+      <c r="D96" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" t="s">
+        <v>103</v>
+      </c>
+      <c r="D97" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" t="s">
+        <v>104</v>
+      </c>
+      <c r="D98" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" t="s">
+        <v>105</v>
+      </c>
+      <c r="D99" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" t="s">
+        <v>106</v>
+      </c>
+      <c r="D100" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" t="s">
+        <v>107</v>
+      </c>
+      <c r="D101" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102" t="s">
+        <v>108</v>
+      </c>
+      <c r="D102" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" t="s">
+        <v>109</v>
+      </c>
+      <c r="D103" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" t="s">
+        <v>110</v>
+      </c>
+      <c r="D104" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" t="s">
+        <v>111</v>
+      </c>
+      <c r="D105" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" t="s">
+        <v>112</v>
+      </c>
+      <c r="D106" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" t="s">
+        <v>113</v>
+      </c>
+      <c r="D107" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" t="s">
+        <v>114</v>
+      </c>
+      <c r="D108" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109" t="s">
+        <v>115</v>
+      </c>
+      <c r="D109" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110" t="s">
+        <v>116</v>
+      </c>
+      <c r="D110" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111" t="s">
+        <v>117</v>
+      </c>
+      <c r="D111" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" t="s">
+        <v>118</v>
+      </c>
+      <c r="D112" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" t="s">
+        <v>119</v>
+      </c>
+      <c r="D113" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" t="s">
+        <v>120</v>
+      </c>
+      <c r="D114" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" t="s">
+        <v>121</v>
+      </c>
+      <c r="D115" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" t="s">
+        <v>122</v>
+      </c>
+      <c r="D116" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" t="s">
+        <v>123</v>
+      </c>
+      <c r="D117" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118" t="s">
+        <v>124</v>
+      </c>
+      <c r="D118" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" t="s">
+        <v>125</v>
+      </c>
+      <c r="D119" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" t="s">
+        <v>126</v>
+      </c>
+      <c r="D120" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" t="s">
+        <v>127</v>
+      </c>
+      <c r="D121" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>4</v>
+      </c>
+      <c r="C122" t="s">
+        <v>128</v>
+      </c>
+      <c r="D122" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123" t="s">
+        <v>129</v>
+      </c>
+      <c r="D123" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124" t="s">
+        <v>130</v>
+      </c>
+      <c r="D124" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" t="s">
+        <v>131</v>
+      </c>
+      <c r="D125" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" t="s">
+        <v>132</v>
+      </c>
+      <c r="D126" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127" t="s">
+        <v>133</v>
+      </c>
+      <c r="D127" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>4</v>
+      </c>
+      <c r="C128" t="s">
+        <v>134</v>
+      </c>
+      <c r="D128" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129" t="s">
+        <v>135</v>
+      </c>
+      <c r="D129" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" t="s">
+        <v>136</v>
+      </c>
+      <c r="D130" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131" t="s">
+        <v>137</v>
+      </c>
+      <c r="D131" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>3</v>
+      </c>
+      <c r="C132" t="s">
+        <v>138</v>
+      </c>
+      <c r="D132" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133" t="s">
+        <v>139</v>
+      </c>
+      <c r="D133" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>4</v>
+      </c>
+      <c r="C134" t="s">
+        <v>140</v>
+      </c>
+      <c r="D134" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" t="s">
+        <v>141</v>
+      </c>
+      <c r="D135" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>3</v>
+      </c>
+      <c r="C136" t="s">
+        <v>142</v>
+      </c>
+      <c r="D136" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>6</v>
+      </c>
+      <c r="C137" t="s">
+        <v>143</v>
+      </c>
+      <c r="D137" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C138" t="s">
+        <v>144</v>
+      </c>
+      <c r="D138" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>6</v>
+      </c>
+      <c r="C139" t="s">
+        <v>145</v>
+      </c>
+      <c r="D139" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>6</v>
+      </c>
+      <c r="C140" t="s">
+        <v>146</v>
+      </c>
+      <c r="D140" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141" t="s">
+        <v>147</v>
+      </c>
+      <c r="D141" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>4</v>
+      </c>
+      <c r="C142" t="s">
+        <v>148</v>
+      </c>
+      <c r="D142" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143" t="s">
+        <v>149</v>
+      </c>
+      <c r="D143" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144" t="s">
+        <v>150</v>
+      </c>
+      <c r="D144" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C145" t="s">
+        <v>151</v>
+      </c>
+      <c r="D145" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146" t="s">
+        <v>152</v>
+      </c>
+      <c r="D146" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" t="s">
+        <v>153</v>
+      </c>
+      <c r="D147" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>3</v>
+      </c>
+      <c r="C148" t="s">
+        <v>154</v>
+      </c>
+      <c r="D148" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" t="s">
+        <v>155</v>
+      </c>
+      <c r="D149" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>3</v>
+      </c>
+      <c r="C150" t="s">
+        <v>156</v>
+      </c>
+      <c r="D150" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151" t="s">
+        <v>157</v>
+      </c>
+      <c r="D151" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>3</v>
+      </c>
+      <c r="C152" t="s">
+        <v>158</v>
+      </c>
+      <c r="D152" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>7</v>
+      </c>
+      <c r="C153" t="s">
+        <v>159</v>
+      </c>
+      <c r="D153" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>3</v>
+      </c>
+      <c r="C154" t="s">
+        <v>160</v>
+      </c>
+      <c r="D154" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155" t="s">
+        <v>161</v>
+      </c>
+      <c r="D155" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>6</v>
+      </c>
+      <c r="C156" t="s">
+        <v>162</v>
+      </c>
+      <c r="D156" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>3</v>
+      </c>
+      <c r="C157" t="s">
+        <v>163</v>
+      </c>
+      <c r="D157" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>3</v>
+      </c>
+      <c r="C158" t="s">
+        <v>164</v>
+      </c>
+      <c r="D158" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>3</v>
+      </c>
+      <c r="C159" t="s">
+        <v>165</v>
+      </c>
+      <c r="D159" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>3</v>
+      </c>
+      <c r="C160" t="s">
+        <v>166</v>
+      </c>
+      <c r="D160" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161" t="s">
+        <v>167</v>
+      </c>
+      <c r="D161" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>3</v>
+      </c>
+      <c r="C162" t="s">
+        <v>168</v>
+      </c>
+      <c r="D162" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>3</v>
+      </c>
+      <c r="C163" t="s">
+        <v>169</v>
+      </c>
+      <c r="D163" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164" t="s">
+        <v>170</v>
+      </c>
+      <c r="D164" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>3</v>
+      </c>
+      <c r="C165" t="s">
+        <v>171</v>
+      </c>
+      <c r="D165" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" t="s">
+        <v>172</v>
+      </c>
+      <c r="D166" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>3</v>
+      </c>
+      <c r="C167" t="s">
+        <v>173</v>
+      </c>
+      <c r="D167" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>3</v>
+      </c>
+      <c r="C168" t="s">
+        <v>174</v>
+      </c>
+      <c r="D168" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>3</v>
+      </c>
+      <c r="C169" t="s">
+        <v>175</v>
+      </c>
+      <c r="D169" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>3</v>
+      </c>
+      <c r="C170" t="s">
+        <v>176</v>
+      </c>
+      <c r="D170" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>3</v>
+      </c>
+      <c r="C171" t="s">
+        <v>177</v>
+      </c>
+      <c r="D171" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>3</v>
+      </c>
+      <c r="C172" t="s">
+        <v>178</v>
+      </c>
+      <c r="D172" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>3</v>
+      </c>
+      <c r="C173" t="s">
+        <v>179</v>
+      </c>
+      <c r="D173" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>3</v>
+      </c>
+      <c r="C174" t="s">
+        <v>180</v>
+      </c>
+      <c r="D174" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>3</v>
+      </c>
+      <c r="C175" t="s">
+        <v>181</v>
+      </c>
+      <c r="D175" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>3</v>
+      </c>
+      <c r="C176" t="s">
+        <v>182</v>
+      </c>
+      <c r="D176" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>3</v>
+      </c>
+      <c r="C177" t="s">
+        <v>183</v>
+      </c>
+      <c r="D177" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>3</v>
+      </c>
+      <c r="C178" t="s">
+        <v>184</v>
+      </c>
+      <c r="D178" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>7</v>
+      </c>
+      <c r="C179" t="s">
+        <v>185</v>
+      </c>
+      <c r="D179" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>4</v>
+      </c>
+      <c r="C180" t="s">
+        <v>186</v>
+      </c>
+      <c r="D180" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>3</v>
+      </c>
+      <c r="C181" t="s">
+        <v>187</v>
+      </c>
+      <c r="D181" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" t="s">
+        <v>3</v>
+      </c>
+      <c r="C182" t="s">
+        <v>188</v>
+      </c>
+      <c r="D182" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183" t="s">
+        <v>3</v>
+      </c>
+      <c r="C183" t="s">
+        <v>189</v>
+      </c>
+      <c r="D183" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" t="s">
+        <v>3</v>
+      </c>
+      <c r="C184" t="s">
+        <v>190</v>
+      </c>
+      <c r="D184" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" t="s">
+        <v>3</v>
+      </c>
+      <c r="C185" t="s">
+        <v>191</v>
+      </c>
+      <c r="D185" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186" t="s">
+        <v>3</v>
+      </c>
+      <c r="C186" t="s">
+        <v>192</v>
+      </c>
+      <c r="D186" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" t="s">
+        <v>3</v>
+      </c>
+      <c r="C187" t="s">
+        <v>193</v>
+      </c>
+      <c r="D187" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188" t="s">
+        <v>3</v>
+      </c>
+      <c r="C188" t="s">
+        <v>194</v>
+      </c>
+      <c r="D188" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189" t="s">
+        <v>3</v>
+      </c>
+      <c r="C189" t="s">
+        <v>195</v>
+      </c>
+      <c r="D189" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" t="s">
+        <v>3</v>
+      </c>
+      <c r="C190" t="s">
+        <v>196</v>
+      </c>
+      <c r="D190" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191" t="s">
+        <v>3</v>
+      </c>
+      <c r="C191" t="s">
+        <v>197</v>
+      </c>
+      <c r="D191" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192" t="s">
+        <v>3</v>
+      </c>
+      <c r="C192" t="s">
+        <v>198</v>
+      </c>
+      <c r="D192" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193" t="s">
+        <v>3</v>
+      </c>
+      <c r="C193" t="s">
+        <v>199</v>
+      </c>
+      <c r="D193" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194" t="s">
+        <v>3</v>
+      </c>
+      <c r="C194" t="s">
+        <v>200</v>
+      </c>
+      <c r="D194" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195" t="s">
+        <v>3</v>
+      </c>
+      <c r="C195" t="s">
+        <v>201</v>
+      </c>
+      <c r="D195" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196" t="s">
+        <v>3</v>
+      </c>
+      <c r="C196" t="s">
+        <v>202</v>
+      </c>
+      <c r="D196" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197" t="s">
+        <v>3</v>
+      </c>
+      <c r="C197" t="s">
+        <v>203</v>
+      </c>
+      <c r="D197" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198" t="s">
+        <v>3</v>
+      </c>
+      <c r="C198" t="s">
+        <v>204</v>
+      </c>
+      <c r="D198" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199" t="s">
+        <v>3</v>
+      </c>
+      <c r="C199" t="s">
+        <v>205</v>
+      </c>
+      <c r="D199" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200" t="s">
+        <v>3</v>
+      </c>
+      <c r="C200" t="s">
+        <v>206</v>
+      </c>
+      <c r="D200" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201" t="s">
+        <v>3</v>
+      </c>
+      <c r="C201" t="s">
+        <v>207</v>
+      </c>
+      <c r="D201" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202" t="s">
+        <v>3</v>
+      </c>
+      <c r="C202" t="s">
+        <v>208</v>
+      </c>
+      <c r="D202" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203" t="s">
+        <v>3</v>
+      </c>
+      <c r="C203" t="s">
+        <v>209</v>
+      </c>
+      <c r="D203" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204" t="s">
+        <v>3</v>
+      </c>
+      <c r="C204" t="s">
+        <v>210</v>
+      </c>
+      <c r="D204" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205" t="s">
+        <v>6</v>
+      </c>
+      <c r="C205" t="s">
+        <v>211</v>
+      </c>
+      <c r="D205" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206" t="s">
+        <v>3</v>
+      </c>
+      <c r="C206" t="s">
+        <v>212</v>
+      </c>
+      <c r="D206" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207" t="s">
+        <v>3</v>
+      </c>
+      <c r="C207" t="s">
+        <v>213</v>
+      </c>
+      <c r="D207" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208" t="s">
+        <v>3</v>
+      </c>
+      <c r="C208" t="s">
+        <v>214</v>
+      </c>
+      <c r="D208" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C209" t="s">
+        <v>215</v>
+      </c>
+      <c r="D209" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210" t="s">
+        <v>3</v>
+      </c>
+      <c r="C210" t="s">
+        <v>216</v>
+      </c>
+      <c r="D210" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211" t="s">
+        <v>3</v>
+      </c>
+      <c r="C211" t="s">
+        <v>217</v>
+      </c>
+      <c r="D211" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212" t="s">
+        <v>3</v>
+      </c>
+      <c r="C212" t="s">
+        <v>218</v>
+      </c>
+      <c r="D212" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213" t="s">
+        <v>3</v>
+      </c>
+      <c r="C213" t="s">
+        <v>219</v>
+      </c>
+      <c r="D213" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214" t="s">
+        <v>3</v>
+      </c>
+      <c r="C214" t="s">
+        <v>220</v>
+      </c>
+      <c r="D214" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215" t="s">
+        <v>3</v>
+      </c>
+      <c r="C215" t="s">
+        <v>221</v>
+      </c>
+      <c r="D215" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216" t="s">
+        <v>3</v>
+      </c>
+      <c r="C216" t="s">
+        <v>222</v>
+      </c>
+      <c r="D216" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217" t="s">
+        <v>3</v>
+      </c>
+      <c r="C217" t="s">
+        <v>223</v>
+      </c>
+      <c r="D217" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218" t="s">
+        <v>3</v>
+      </c>
+      <c r="C218" t="s">
+        <v>224</v>
+      </c>
+      <c r="D218" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219" t="s">
+        <v>6</v>
+      </c>
+      <c r="C219" t="s">
+        <v>225</v>
+      </c>
+      <c r="D219" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220" t="s">
+        <v>3</v>
+      </c>
+      <c r="C220" t="s">
+        <v>226</v>
+      </c>
+      <c r="D220" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221" t="s">
+        <v>3</v>
+      </c>
+      <c r="C221" t="s">
+        <v>227</v>
+      </c>
+      <c r="D221" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222" t="s">
+        <v>3</v>
+      </c>
+      <c r="C222" t="s">
+        <v>228</v>
+      </c>
+      <c r="D222" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223" t="s">
+        <v>3</v>
+      </c>
+      <c r="C223" t="s">
+        <v>229</v>
+      </c>
+      <c r="D223" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224" t="s">
+        <v>3</v>
+      </c>
+      <c r="C224" t="s">
+        <v>230</v>
+      </c>
+      <c r="D224" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225" t="s">
+        <v>3</v>
+      </c>
+      <c r="C225" t="s">
+        <v>231</v>
+      </c>
+      <c r="D225" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226" t="s">
+        <v>3</v>
+      </c>
+      <c r="C226" t="s">
+        <v>232</v>
+      </c>
+      <c r="D226" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227" t="s">
+        <v>3</v>
+      </c>
+      <c r="C227" t="s">
+        <v>233</v>
+      </c>
+      <c r="D227" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228" t="s">
+        <v>3</v>
+      </c>
+      <c r="C228" t="s">
+        <v>234</v>
+      </c>
+      <c r="D228" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229" t="s">
+        <v>3</v>
+      </c>
+      <c r="C229" t="s">
+        <v>235</v>
+      </c>
+      <c r="D229" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230" t="s">
+        <v>3</v>
+      </c>
+      <c r="C230" t="s">
+        <v>236</v>
+      </c>
+      <c r="D230" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231" t="s">
+        <v>3</v>
+      </c>
+      <c r="C231" t="s">
+        <v>237</v>
+      </c>
+      <c r="D231" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232" t="s">
+        <v>3</v>
+      </c>
+      <c r="C232" t="s">
+        <v>238</v>
+      </c>
+      <c r="D232" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233" t="s">
+        <v>3</v>
+      </c>
+      <c r="C233" t="s">
+        <v>239</v>
+      </c>
+      <c r="D233" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234" t="s">
+        <v>3</v>
+      </c>
+      <c r="C234" t="s">
+        <v>240</v>
+      </c>
+      <c r="D234" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235" t="s">
+        <v>3</v>
+      </c>
+      <c r="C235" t="s">
+        <v>241</v>
+      </c>
+      <c r="D235" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236" t="s">
+        <v>3</v>
+      </c>
+      <c r="C236" t="s">
+        <v>242</v>
+      </c>
+      <c r="D236" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237" t="s">
+        <v>3</v>
+      </c>
+      <c r="C237" t="s">
+        <v>243</v>
+      </c>
+      <c r="D237" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238" t="s">
+        <v>3</v>
+      </c>
+      <c r="C238" t="s">
+        <v>244</v>
+      </c>
+      <c r="D238" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239" t="s">
+        <v>7</v>
+      </c>
+      <c r="C239" t="s">
+        <v>245</v>
+      </c>
+      <c r="D239" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240" t="s">
+        <v>3</v>
+      </c>
+      <c r="C240" t="s">
+        <v>246</v>
+      </c>
+      <c r="D240" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241" t="s">
+        <v>3</v>
+      </c>
+      <c r="C241" t="s">
+        <v>247</v>
+      </c>
+      <c r="D241" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242" t="s">
+        <v>3</v>
+      </c>
+      <c r="C242" t="s">
+        <v>248</v>
+      </c>
+      <c r="D242" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243" t="s">
+        <v>3</v>
+      </c>
+      <c r="C243" t="s">
+        <v>249</v>
+      </c>
+      <c r="D243" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244" t="s">
+        <v>3</v>
+      </c>
+      <c r="C244" t="s">
+        <v>250</v>
+      </c>
+      <c r="D244" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245" t="s">
+        <v>3</v>
+      </c>
+      <c r="C245" t="s">
+        <v>251</v>
+      </c>
+      <c r="D245" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246" t="s">
+        <v>3</v>
+      </c>
+      <c r="C246" t="s">
+        <v>252</v>
+      </c>
+      <c r="D246" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247" t="s">
+        <v>6</v>
+      </c>
+      <c r="C247" t="s">
+        <v>253</v>
+      </c>
+      <c r="D247" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248" t="s">
+        <v>3</v>
+      </c>
+      <c r="C248" t="s">
+        <v>254</v>
+      </c>
+      <c r="D248" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249" t="s">
+        <v>3</v>
+      </c>
+      <c r="C249" t="s">
+        <v>255</v>
+      </c>
+      <c r="D249" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250" t="s">
+        <v>3</v>
+      </c>
+      <c r="C250" t="s">
+        <v>256</v>
+      </c>
+      <c r="D250" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251" t="s">
+        <v>7</v>
+      </c>
+      <c r="C251" t="s">
+        <v>257</v>
+      </c>
+      <c r="D251" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252" t="s">
+        <v>3</v>
+      </c>
+      <c r="C252" t="s">
+        <v>258</v>
+      </c>
+      <c r="D252" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253" t="s">
+        <v>3</v>
+      </c>
+      <c r="C253" t="s">
+        <v>259</v>
+      </c>
+      <c r="D253" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254" t="s">
+        <v>3</v>
+      </c>
+      <c r="C254" t="s">
+        <v>260</v>
+      </c>
+      <c r="D254" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255" t="s">
+        <v>3</v>
+      </c>
+      <c r="C255" t="s">
+        <v>261</v>
+      </c>
+      <c r="D255" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256" t="s">
+        <v>6</v>
+      </c>
+      <c r="C256" t="s">
+        <v>262</v>
+      </c>
+      <c r="D256" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257" t="s">
+        <v>3</v>
+      </c>
+      <c r="C257" t="s">
+        <v>263</v>
+      </c>
+      <c r="D257" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258" t="s">
+        <v>3</v>
+      </c>
+      <c r="C258" t="s">
+        <v>264</v>
+      </c>
+      <c r="D258" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259" t="s">
+        <v>3</v>
+      </c>
+      <c r="C259" t="s">
+        <v>265</v>
+      </c>
+      <c r="D259" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260" t="s">
+        <v>3</v>
+      </c>
+      <c r="C260" t="s">
+        <v>266</v>
+      </c>
+      <c r="D260" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261" t="s">
+        <v>6</v>
+      </c>
+      <c r="C261" t="s">
+        <v>267</v>
+      </c>
+      <c r="D261" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262" t="s">
+        <v>3</v>
+      </c>
+      <c r="C262" t="s">
+        <v>268</v>
+      </c>
+      <c r="D262" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263" t="s">
+        <v>3</v>
+      </c>
+      <c r="C263" t="s">
+        <v>269</v>
+      </c>
+      <c r="D263" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264" t="s">
+        <v>3</v>
+      </c>
+      <c r="C264" t="s">
+        <v>270</v>
+      </c>
+      <c r="D264" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265" t="s">
+        <v>3</v>
+      </c>
+      <c r="C265" t="s">
+        <v>271</v>
+      </c>
+      <c r="D265" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266" t="s">
+        <v>3</v>
+      </c>
+      <c r="C266" t="s">
+        <v>272</v>
+      </c>
+      <c r="D266" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267" t="s">
+        <v>3</v>
+      </c>
+      <c r="C267" t="s">
+        <v>273</v>
+      </c>
+      <c r="D267" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268" t="s">
+        <v>3</v>
+      </c>
+      <c r="C268" t="s">
+        <v>274</v>
+      </c>
+      <c r="D268" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269" t="s">
+        <v>6</v>
+      </c>
+      <c r="C269" t="s">
+        <v>275</v>
+      </c>
+      <c r="D269" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270" t="s">
+        <v>3</v>
+      </c>
+      <c r="C270" t="s">
+        <v>276</v>
+      </c>
+      <c r="D270" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271" t="s">
+        <v>3</v>
+      </c>
+      <c r="C271" t="s">
+        <v>277</v>
+      </c>
+      <c r="D271" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272" t="s">
+        <v>3</v>
+      </c>
+      <c r="C272" t="s">
+        <v>278</v>
+      </c>
+      <c r="D272" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273" t="s">
+        <v>3</v>
+      </c>
+      <c r="C273" t="s">
+        <v>279</v>
+      </c>
+      <c r="D273" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274" t="s">
+        <v>3</v>
+      </c>
+      <c r="C274" t="s">
+        <v>280</v>
+      </c>
+      <c r="D274" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275" t="s">
+        <v>3</v>
+      </c>
+      <c r="C275" t="s">
+        <v>281</v>
+      </c>
+      <c r="D275" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276" t="s">
+        <v>3</v>
+      </c>
+      <c r="C276" t="s">
+        <v>282</v>
+      </c>
+      <c r="D276" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277" t="s">
+        <v>3</v>
+      </c>
+      <c r="C277" t="s">
+        <v>283</v>
+      </c>
+      <c r="D277" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278" t="s">
+        <v>3</v>
+      </c>
+      <c r="C278" t="s">
+        <v>284</v>
+      </c>
+      <c r="D278" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279" t="s">
+        <v>3</v>
+      </c>
+      <c r="C279" t="s">
+        <v>285</v>
+      </c>
+      <c r="D279" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280" t="s">
+        <v>7</v>
+      </c>
+      <c r="C280" t="s">
+        <v>286</v>
+      </c>
+      <c r="D280" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281" t="s">
+        <v>3</v>
+      </c>
+      <c r="C281" t="s">
+        <v>287</v>
+      </c>
+      <c r="D281" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282" t="s">
+        <v>3</v>
+      </c>
+      <c r="C282" t="s">
+        <v>288</v>
+      </c>
+      <c r="D282" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283" t="s">
+        <v>3</v>
+      </c>
+      <c r="C283" t="s">
+        <v>289</v>
+      </c>
+      <c r="D283" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284" t="s">
+        <v>3</v>
+      </c>
+      <c r="C284" t="s">
+        <v>290</v>
+      </c>
+      <c r="D284" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285" t="s">
+        <v>5</v>
+      </c>
+      <c r="C285" t="s">
+        <v>291</v>
+      </c>
+      <c r="D285" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286" t="s">
+        <v>3</v>
+      </c>
+      <c r="C286" t="s">
+        <v>292</v>
+      </c>
+      <c r="D286" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287" t="s">
+        <v>3</v>
+      </c>
+      <c r="C287" t="s">
+        <v>293</v>
+      </c>
+      <c r="D287" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288" t="s">
+        <v>5</v>
+      </c>
+      <c r="C288" t="s">
+        <v>294</v>
+      </c>
+      <c r="D288" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289" t="s">
+        <v>3</v>
+      </c>
+      <c r="C289" t="s">
+        <v>295</v>
+      </c>
+      <c r="D289" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290" t="s">
+        <v>5</v>
+      </c>
+      <c r="C290" t="s">
+        <v>296</v>
+      </c>
+      <c r="D290" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291" t="s">
+        <v>3</v>
+      </c>
+      <c r="C291" t="s">
+        <v>297</v>
+      </c>
+      <c r="D291" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292" t="s">
+        <v>3</v>
+      </c>
+      <c r="C292" t="s">
+        <v>298</v>
+      </c>
+      <c r="D292" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293" t="s">
+        <v>3</v>
+      </c>
+      <c r="C293" t="s">
+        <v>299</v>
+      </c>
+      <c r="D293" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294" t="s">
+        <v>3</v>
+      </c>
+      <c r="C294" t="s">
+        <v>300</v>
+      </c>
+      <c r="D294" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295" t="s">
+        <v>3</v>
+      </c>
+      <c r="C295" t="s">
+        <v>301</v>
+      </c>
+      <c r="D295" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296" t="s">
+        <v>3</v>
+      </c>
+      <c r="C296" t="s">
+        <v>302</v>
+      </c>
+      <c r="D296" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297" t="s">
+        <v>3</v>
+      </c>
+      <c r="C297" t="s">
+        <v>303</v>
+      </c>
+      <c r="D297" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298" t="s">
+        <v>6</v>
+      </c>
+      <c r="C298" t="s">
+        <v>304</v>
+      </c>
+      <c r="D298" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299" t="s">
+        <v>6</v>
+      </c>
+      <c r="C299" t="s">
+        <v>305</v>
+      </c>
+      <c r="D299" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300" t="s">
+        <v>3</v>
+      </c>
+      <c r="C300" t="s">
+        <v>306</v>
+      </c>
+      <c r="D300" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301" t="s">
+        <v>3</v>
+      </c>
+      <c r="C301" t="s">
+        <v>307</v>
+      </c>
+      <c r="D301" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="B302" t="s">
+        <v>6</v>
+      </c>
+      <c r="C302" t="s">
+        <v>308</v>
+      </c>
+      <c r="D302" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+      <c r="B303" t="s">
+        <v>3</v>
+      </c>
+      <c r="C303" t="s">
+        <v>309</v>
+      </c>
+      <c r="D303" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+      <c r="B304" t="s">
+        <v>6</v>
+      </c>
+      <c r="C304" t="s">
+        <v>310</v>
+      </c>
+      <c r="D304" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+      <c r="B305" t="s">
+        <v>5</v>
+      </c>
+      <c r="C305" t="s">
+        <v>311</v>
+      </c>
+      <c r="D305" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" s="1">
+        <v>304</v>
+      </c>
+      <c r="B306" t="s">
+        <v>3</v>
+      </c>
+      <c r="C306" t="s">
+        <v>312</v>
+      </c>
+      <c r="D306" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" s="1">
+        <v>305</v>
+      </c>
+      <c r="B307" t="s">
+        <v>3</v>
+      </c>
+      <c r="C307" t="s">
+        <v>313</v>
+      </c>
+      <c r="D307" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" s="1">
+        <v>306</v>
+      </c>
+      <c r="B308" t="s">
+        <v>3</v>
+      </c>
+      <c r="C308" t="s">
+        <v>314</v>
+      </c>
+      <c r="D308" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" s="1">
+        <v>307</v>
+      </c>
+      <c r="B309" t="s">
+        <v>3</v>
+      </c>
+      <c r="C309" t="s">
+        <v>315</v>
+      </c>
+      <c r="D309" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" s="1">
+        <v>308</v>
+      </c>
+      <c r="B310" t="s">
+        <v>6</v>
+      </c>
+      <c r="C310" t="s">
+        <v>316</v>
+      </c>
+      <c r="D310" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" s="1">
+        <v>309</v>
+      </c>
+      <c r="B311" t="s">
+        <v>6</v>
+      </c>
+      <c r="C311" t="s">
+        <v>317</v>
+      </c>
+      <c r="D311" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312" t="s">
+        <v>7</v>
+      </c>
+      <c r="C312" t="s">
+        <v>318</v>
+      </c>
+      <c r="D312" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" s="1">
+        <v>311</v>
+      </c>
+      <c r="B313" t="s">
+        <v>3</v>
+      </c>
+      <c r="C313" t="s">
+        <v>319</v>
+      </c>
+      <c r="D313" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" s="1">
+        <v>312</v>
+      </c>
+      <c r="B314" t="s">
+        <v>3</v>
+      </c>
+      <c r="C314" t="s">
+        <v>320</v>
+      </c>
+      <c r="D314" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+      <c r="B315" t="s">
+        <v>4</v>
+      </c>
+      <c r="C315" t="s">
+        <v>321</v>
+      </c>
+      <c r="D315" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" s="1">
+        <v>314</v>
+      </c>
+      <c r="B316" t="s">
+        <v>6</v>
+      </c>
+      <c r="C316" t="s">
+        <v>322</v>
+      </c>
+      <c r="D316" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" s="1">
+        <v>315</v>
+      </c>
+      <c r="B317" t="s">
+        <v>4</v>
+      </c>
+      <c r="C317" t="s">
+        <v>323</v>
+      </c>
+      <c r="D317" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" s="1">
+        <v>316</v>
+      </c>
+      <c r="B318" t="s">
+        <v>3</v>
+      </c>
+      <c r="C318" t="s">
+        <v>324</v>
+      </c>
+      <c r="D318" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319" t="s">
+        <v>3</v>
+      </c>
+      <c r="C319" t="s">
+        <v>325</v>
+      </c>
+      <c r="D319" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320" t="s">
+        <v>3</v>
+      </c>
+      <c r="C320" t="s">
+        <v>326</v>
+      </c>
+      <c r="D320" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321" t="s">
+        <v>3</v>
+      </c>
+      <c r="C321" t="s">
+        <v>327</v>
+      </c>
+      <c r="D321" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322" t="s">
+        <v>3</v>
+      </c>
+      <c r="C322" t="s">
+        <v>328</v>
+      </c>
+      <c r="D322" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323" t="s">
+        <v>3</v>
+      </c>
+      <c r="C323" t="s">
+        <v>329</v>
+      </c>
+      <c r="D323" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324" t="s">
+        <v>7</v>
+      </c>
+      <c r="C324" t="s">
+        <v>330</v>
+      </c>
+      <c r="D324" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325" t="s">
+        <v>3</v>
+      </c>
+      <c r="C325" t="s">
+        <v>331</v>
+      </c>
+      <c r="D325" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326" t="s">
+        <v>3</v>
+      </c>
+      <c r="C326" t="s">
+        <v>332</v>
+      </c>
+      <c r="D326" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327" t="s">
+        <v>6</v>
+      </c>
+      <c r="C327" t="s">
+        <v>333</v>
+      </c>
+      <c r="D327" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328" t="s">
+        <v>3</v>
+      </c>
+      <c r="C328" t="s">
+        <v>334</v>
+      </c>
+      <c r="D328" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329" t="s">
+        <v>6</v>
+      </c>
+      <c r="C329" t="s">
+        <v>335</v>
+      </c>
+      <c r="D329" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330" t="s">
+        <v>3</v>
+      </c>
+      <c r="C330" t="s">
+        <v>336</v>
+      </c>
+      <c r="D330" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331" t="s">
+        <v>3</v>
+      </c>
+      <c r="C331" t="s">
+        <v>337</v>
+      </c>
+      <c r="D331" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" s="1">
+        <v>330</v>
+      </c>
+      <c r="B332" t="s">
+        <v>5</v>
+      </c>
+      <c r="C332" t="s">
+        <v>338</v>
+      </c>
+      <c r="D332" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" s="1">
+        <v>331</v>
+      </c>
+      <c r="B333" t="s">
+        <v>3</v>
+      </c>
+      <c r="C333" t="s">
+        <v>339</v>
+      </c>
+      <c r="D333" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" s="1">
+        <v>332</v>
+      </c>
+      <c r="B334" t="s">
+        <v>3</v>
+      </c>
+      <c r="C334" t="s">
+        <v>340</v>
+      </c>
+      <c r="D334" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" s="1">
+        <v>333</v>
+      </c>
+      <c r="B335" t="s">
+        <v>6</v>
+      </c>
+      <c r="C335" t="s">
+        <v>341</v>
+      </c>
+      <c r="D335" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" s="1">
+        <v>334</v>
+      </c>
+      <c r="B336" t="s">
+        <v>3</v>
+      </c>
+      <c r="C336" t="s">
+        <v>342</v>
+      </c>
+      <c r="D336" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" s="1">
+        <v>335</v>
+      </c>
+      <c r="B337" t="s">
+        <v>3</v>
+      </c>
+      <c r="C337" t="s">
+        <v>343</v>
+      </c>
+      <c r="D337" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" s="1">
+        <v>336</v>
+      </c>
+      <c r="B338" t="s">
+        <v>6</v>
+      </c>
+      <c r="C338" t="s">
+        <v>344</v>
+      </c>
+      <c r="D338" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" s="1">
+        <v>337</v>
+      </c>
+      <c r="B339" t="s">
+        <v>7</v>
+      </c>
+      <c r="C339" t="s">
+        <v>345</v>
+      </c>
+      <c r="D339" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" s="1">
+        <v>338</v>
+      </c>
+      <c r="B340" t="s">
+        <v>3</v>
+      </c>
+      <c r="C340" t="s">
+        <v>346</v>
+      </c>
+      <c r="D340" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341" s="1">
+        <v>339</v>
+      </c>
+      <c r="B341" t="s">
+        <v>3</v>
+      </c>
+      <c r="C341" t="s">
+        <v>347</v>
+      </c>
+      <c r="D341" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342" s="1">
+        <v>340</v>
+      </c>
+      <c r="B342" t="s">
+        <v>4</v>
+      </c>
+      <c r="C342" t="s">
+        <v>348</v>
+      </c>
+      <c r="D342" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" s="1">
+        <v>341</v>
+      </c>
+      <c r="B343" t="s">
+        <v>4</v>
+      </c>
+      <c r="C343" t="s">
+        <v>349</v>
+      </c>
+      <c r="D343" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" s="1">
+        <v>342</v>
+      </c>
+      <c r="B344" t="s">
+        <v>3</v>
+      </c>
+      <c r="C344" t="s">
+        <v>350</v>
+      </c>
+      <c r="D344" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" s="1">
+        <v>343</v>
+      </c>
+      <c r="B345" t="s">
+        <v>3</v>
+      </c>
+      <c r="C345" t="s">
+        <v>351</v>
+      </c>
+      <c r="D345" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346" s="1">
+        <v>344</v>
+      </c>
+      <c r="B346" t="s">
+        <v>7</v>
+      </c>
+      <c r="C346" t="s">
+        <v>352</v>
+      </c>
+      <c r="D346" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" s="1">
+        <v>345</v>
+      </c>
+      <c r="B347" t="s">
+        <v>3</v>
+      </c>
+      <c r="C347" t="s">
+        <v>353</v>
+      </c>
+      <c r="D347" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348" s="1">
+        <v>346</v>
+      </c>
+      <c r="B348" t="s">
+        <v>3</v>
+      </c>
+      <c r="C348" t="s">
+        <v>354</v>
+      </c>
+      <c r="D348" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" s="1">
+        <v>347</v>
+      </c>
+      <c r="B349" t="s">
+        <v>3</v>
+      </c>
+      <c r="C349" t="s">
+        <v>355</v>
+      </c>
+      <c r="D349" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" s="1">
+        <v>348</v>
+      </c>
+      <c r="B350" t="s">
+        <v>6</v>
+      </c>
+      <c r="C350" t="s">
+        <v>356</v>
+      </c>
+      <c r="D350" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" s="1">
+        <v>349</v>
+      </c>
+      <c r="B351" t="s">
+        <v>3</v>
+      </c>
+      <c r="C351" t="s">
+        <v>357</v>
+      </c>
+      <c r="D351" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" s="1">
+        <v>350</v>
+      </c>
+      <c r="B352" t="s">
+        <v>3</v>
+      </c>
+      <c r="C352" t="s">
+        <v>358</v>
+      </c>
+      <c r="D352" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" s="1">
+        <v>351</v>
+      </c>
+      <c r="B353" t="s">
+        <v>5</v>
+      </c>
+      <c r="C353" t="s">
+        <v>359</v>
+      </c>
+      <c r="D353" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" s="1">
+        <v>352</v>
+      </c>
+      <c r="B354" t="s">
+        <v>3</v>
+      </c>
+      <c r="C354" t="s">
+        <v>360</v>
+      </c>
+      <c r="D354" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" s="1">
+        <v>353</v>
+      </c>
+      <c r="B355" t="s">
+        <v>3</v>
+      </c>
+      <c r="C355" t="s">
+        <v>361</v>
+      </c>
+      <c r="D355" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" s="1">
+        <v>354</v>
+      </c>
+      <c r="B356" t="s">
+        <v>5</v>
+      </c>
+      <c r="C356" t="s">
+        <v>362</v>
+      </c>
+      <c r="D356" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" s="1">
+        <v>355</v>
+      </c>
+      <c r="B357" t="s">
+        <v>3</v>
+      </c>
+      <c r="C357" t="s">
+        <v>363</v>
+      </c>
+      <c r="D357" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" s="1">
+        <v>356</v>
+      </c>
+      <c r="B358" t="s">
+        <v>3</v>
+      </c>
+      <c r="C358" t="s">
+        <v>364</v>
+      </c>
+      <c r="D358" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" s="1">
+        <v>357</v>
+      </c>
+      <c r="B359" t="s">
+        <v>3</v>
+      </c>
+      <c r="C359" t="s">
+        <v>365</v>
+      </c>
+      <c r="D359" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" s="1">
+        <v>358</v>
+      </c>
+      <c r="B360" t="s">
+        <v>3</v>
+      </c>
+      <c r="C360" t="s">
+        <v>366</v>
+      </c>
+      <c r="D360" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" s="1">
+        <v>359</v>
+      </c>
+      <c r="B361" t="s">
+        <v>3</v>
+      </c>
+      <c r="C361" t="s">
+        <v>367</v>
+      </c>
+      <c r="D361" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" s="1">
+        <v>360</v>
+      </c>
+      <c r="B362" t="s">
+        <v>6</v>
+      </c>
+      <c r="C362" t="s">
+        <v>368</v>
+      </c>
+      <c r="D362" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" s="1">
+        <v>361</v>
+      </c>
+      <c r="B363" t="s">
+        <v>6</v>
+      </c>
+      <c r="C363" t="s">
+        <v>369</v>
+      </c>
+      <c r="D363" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" s="1">
+        <v>362</v>
+      </c>
+      <c r="B364" t="s">
+        <v>3</v>
+      </c>
+      <c r="C364" t="s">
+        <v>370</v>
+      </c>
+      <c r="D364" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" s="1">
+        <v>363</v>
+      </c>
+      <c r="B365" t="s">
+        <v>3</v>
+      </c>
+      <c r="C365" t="s">
+        <v>371</v>
+      </c>
+      <c r="D365" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" s="1">
+        <v>364</v>
+      </c>
+      <c r="B366" t="s">
+        <v>3</v>
+      </c>
+      <c r="C366" t="s">
+        <v>372</v>
+      </c>
+      <c r="D366" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" s="1">
+        <v>365</v>
+      </c>
+      <c r="B367" t="s">
+        <v>7</v>
+      </c>
+      <c r="C367" t="s">
+        <v>373</v>
+      </c>
+      <c r="D367" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="1">
+        <v>366</v>
+      </c>
+      <c r="B368" t="s">
+        <v>3</v>
+      </c>
+      <c r="C368" t="s">
+        <v>374</v>
+      </c>
+      <c r="D368" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="1">
+        <v>367</v>
+      </c>
+      <c r="B369" t="s">
+        <v>6</v>
+      </c>
+      <c r="C369" t="s">
+        <v>375</v>
+      </c>
+      <c r="D369" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="1">
+        <v>368</v>
+      </c>
+      <c r="B370" t="s">
+        <v>3</v>
+      </c>
+      <c r="C370" t="s">
+        <v>376</v>
+      </c>
+      <c r="D370" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="1">
+        <v>369</v>
+      </c>
+      <c r="B371" t="s">
+        <v>7</v>
+      </c>
+      <c r="C371" t="s">
+        <v>377</v>
+      </c>
+      <c r="D371" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="1">
+        <v>370</v>
+      </c>
+      <c r="B372" t="s">
+        <v>3</v>
+      </c>
+      <c r="C372" t="s">
+        <v>378</v>
+      </c>
+      <c r="D372" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="1">
+        <v>371</v>
+      </c>
+      <c r="B373" t="s">
+        <v>3</v>
+      </c>
+      <c r="C373" t="s">
+        <v>379</v>
+      </c>
+      <c r="D373" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="1">
+        <v>372</v>
+      </c>
+      <c r="B374" t="s">
+        <v>4</v>
+      </c>
+      <c r="C374" t="s">
+        <v>380</v>
+      </c>
+      <c r="D374" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="1">
+        <v>373</v>
+      </c>
+      <c r="B375" t="s">
+        <v>3</v>
+      </c>
+      <c r="C375" t="s">
+        <v>381</v>
+      </c>
+      <c r="D375" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="1">
+        <v>374</v>
+      </c>
+      <c r="B376" t="s">
+        <v>6</v>
+      </c>
+      <c r="C376" t="s">
+        <v>382</v>
+      </c>
+      <c r="D376" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="1">
+        <v>375</v>
+      </c>
+      <c r="B377" t="s">
+        <v>3</v>
+      </c>
+      <c r="C377" t="s">
+        <v>383</v>
+      </c>
+      <c r="D377" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="1">
+        <v>376</v>
+      </c>
+      <c r="B378" t="s">
+        <v>7</v>
+      </c>
+      <c r="C378" t="s">
+        <v>384</v>
+      </c>
+      <c r="D378" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="1">
+        <v>377</v>
+      </c>
+      <c r="B379" t="s">
+        <v>3</v>
+      </c>
+      <c r="C379" t="s">
+        <v>385</v>
+      </c>
+      <c r="D379" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="1">
+        <v>378</v>
+      </c>
+      <c r="B380" t="s">
+        <v>3</v>
+      </c>
+      <c r="C380" t="s">
+        <v>386</v>
+      </c>
+      <c r="D380" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="1">
+        <v>379</v>
+      </c>
+      <c r="B381" t="s">
+        <v>3</v>
+      </c>
+      <c r="C381" t="s">
+        <v>387</v>
+      </c>
+      <c r="D381" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="1">
+        <v>380</v>
+      </c>
+      <c r="B382" t="s">
+        <v>3</v>
+      </c>
+      <c r="C382" t="s">
+        <v>388</v>
+      </c>
+      <c r="D382" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383" s="1">
+        <v>381</v>
+      </c>
+      <c r="B383" t="s">
+        <v>3</v>
+      </c>
+      <c r="C383" t="s">
+        <v>389</v>
+      </c>
+      <c r="D383" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="1">
+        <v>382</v>
+      </c>
+      <c r="B384" t="s">
+        <v>4</v>
+      </c>
+      <c r="C384" t="s">
+        <v>390</v>
+      </c>
+      <c r="D384" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="1">
+        <v>383</v>
+      </c>
+      <c r="B385" t="s">
+        <v>3</v>
+      </c>
+      <c r="C385" t="s">
+        <v>391</v>
+      </c>
+      <c r="D385" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" s="1">
+        <v>384</v>
+      </c>
+      <c r="B386" t="s">
+        <v>7</v>
+      </c>
+      <c r="C386" t="s">
+        <v>392</v>
+      </c>
+      <c r="D386" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" s="1">
+        <v>385</v>
+      </c>
+      <c r="B387" t="s">
+        <v>3</v>
+      </c>
+      <c r="C387" t="s">
+        <v>393</v>
+      </c>
+      <c r="D387" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" s="1">
+        <v>386</v>
+      </c>
+      <c r="B388" t="s">
+        <v>4</v>
+      </c>
+      <c r="C388" t="s">
+        <v>394</v>
+      </c>
+      <c r="D388" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" s="1">
+        <v>387</v>
+      </c>
+      <c r="B389" t="s">
+        <v>4</v>
+      </c>
+      <c r="C389" t="s">
+        <v>395</v>
+      </c>
+      <c r="D389" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" s="1">
+        <v>388</v>
+      </c>
+      <c r="B390" t="s">
+        <v>3</v>
+      </c>
+      <c r="C390" t="s">
+        <v>396</v>
+      </c>
+      <c r="D390" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391" s="1">
+        <v>389</v>
+      </c>
+      <c r="B391" t="s">
+        <v>3</v>
+      </c>
+      <c r="C391" t="s">
+        <v>397</v>
+      </c>
+      <c r="D391" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392" s="1">
+        <v>390</v>
+      </c>
+      <c r="B392" t="s">
+        <v>3</v>
+      </c>
+      <c r="C392" t="s">
+        <v>398</v>
+      </c>
+      <c r="D392" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
+      <c r="A393" s="1">
+        <v>391</v>
+      </c>
+      <c r="B393" t="s">
+        <v>3</v>
+      </c>
+      <c r="C393" t="s">
+        <v>399</v>
+      </c>
+      <c r="D393" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
+      <c r="A394" s="1">
+        <v>392</v>
+      </c>
+      <c r="B394" t="s">
+        <v>3</v>
+      </c>
+      <c r="C394" t="s">
+        <v>400</v>
+      </c>
+      <c r="D394" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
+      <c r="A395" s="1">
+        <v>393</v>
+      </c>
+      <c r="B395" t="s">
+        <v>3</v>
+      </c>
+      <c r="C395" t="s">
+        <v>401</v>
+      </c>
+      <c r="D395" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
+      <c r="A396" s="1">
+        <v>394</v>
+      </c>
+      <c r="B396" t="s">
+        <v>3</v>
+      </c>
+      <c r="C396" t="s">
+        <v>402</v>
+      </c>
+      <c r="D396" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
+      <c r="A397" s="1">
+        <v>395</v>
+      </c>
+      <c r="B397" t="s">
+        <v>3</v>
+      </c>
+      <c r="C397" t="s">
+        <v>403</v>
+      </c>
+      <c r="D397" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
+      <c r="A398" s="1">
+        <v>396</v>
+      </c>
+      <c r="B398" t="s">
+        <v>3</v>
+      </c>
+      <c r="C398" t="s">
+        <v>404</v>
+      </c>
+      <c r="D398" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4">
+      <c r="A399" s="1">
+        <v>397</v>
+      </c>
+      <c r="B399" t="s">
+        <v>3</v>
+      </c>
+      <c r="C399" t="s">
+        <v>405</v>
+      </c>
+      <c r="D399" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
+      <c r="A400" s="1">
+        <v>398</v>
+      </c>
+      <c r="B400" t="s">
+        <v>3</v>
+      </c>
+      <c r="C400" t="s">
+        <v>406</v>
+      </c>
+      <c r="D400" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
+      <c r="A401" s="1">
+        <v>399</v>
+      </c>
+      <c r="B401" t="s">
+        <v>6</v>
+      </c>
+      <c r="C401" t="s">
+        <v>407</v>
+      </c>
+      <c r="D401" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
+      <c r="A402" s="1">
+        <v>400</v>
+      </c>
+      <c r="B402" t="s">
+        <v>3</v>
+      </c>
+      <c r="C402" t="s">
+        <v>408</v>
+      </c>
+      <c r="D402" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
+      <c r="A403" s="1">
+        <v>401</v>
+      </c>
+      <c r="B403" t="s">
+        <v>3</v>
+      </c>
+      <c r="C403" t="s">
+        <v>409</v>
+      </c>
+      <c r="D403" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4">
+      <c r="A404" s="1">
+        <v>402</v>
+      </c>
+      <c r="B404" t="s">
+        <v>3</v>
+      </c>
+      <c r="C404" t="s">
+        <v>410</v>
+      </c>
+      <c r="D404" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
+      <c r="A405" s="1">
+        <v>403</v>
+      </c>
+      <c r="B405" t="s">
+        <v>3</v>
+      </c>
+      <c r="C405" t="s">
+        <v>411</v>
+      </c>
+      <c r="D405" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4">
+      <c r="A406" s="1">
+        <v>404</v>
+      </c>
+      <c r="B406" t="s">
+        <v>3</v>
+      </c>
+      <c r="C406" t="s">
+        <v>412</v>
+      </c>
+      <c r="D406" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4">
+      <c r="A407" s="1">
+        <v>405</v>
+      </c>
+      <c r="B407" t="s">
+        <v>4</v>
+      </c>
+      <c r="C407" t="s">
+        <v>413</v>
+      </c>
+      <c r="D407" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="A408" s="1">
+        <v>406</v>
+      </c>
+      <c r="B408" t="s">
+        <v>3</v>
+      </c>
+      <c r="C408" t="s">
+        <v>414</v>
+      </c>
+      <c r="D408" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4">
+      <c r="A409" s="1">
+        <v>407</v>
+      </c>
+      <c r="B409" t="s">
+        <v>3</v>
+      </c>
+      <c r="C409" t="s">
+        <v>415</v>
+      </c>
+      <c r="D409" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4">
+      <c r="A410" s="1">
+        <v>408</v>
+      </c>
+      <c r="B410" t="s">
+        <v>3</v>
+      </c>
+      <c r="C410" t="s">
+        <v>416</v>
+      </c>
+      <c r="D410" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
+      <c r="A411" s="1">
+        <v>409</v>
+      </c>
+      <c r="B411" t="s">
+        <v>3</v>
+      </c>
+      <c r="C411" t="s">
+        <v>417</v>
+      </c>
+      <c r="D411" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
+      <c r="A412" s="1">
+        <v>410</v>
+      </c>
+      <c r="B412" t="s">
+        <v>3</v>
+      </c>
+      <c r="C412" t="s">
+        <v>418</v>
+      </c>
+      <c r="D412" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="A413" s="1">
+        <v>411</v>
+      </c>
+      <c r="B413" t="s">
+        <v>3</v>
+      </c>
+      <c r="C413" t="s">
+        <v>419</v>
+      </c>
+      <c r="D413" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="A414" s="1">
+        <v>412</v>
+      </c>
+      <c r="B414" t="s">
+        <v>3</v>
+      </c>
+      <c r="C414" t="s">
+        <v>420</v>
+      </c>
+      <c r="D414" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
+      <c r="A415" s="1">
+        <v>413</v>
+      </c>
+      <c r="B415" t="s">
+        <v>6</v>
+      </c>
+      <c r="C415" t="s">
+        <v>421</v>
+      </c>
+      <c r="D415" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="A416" s="1">
+        <v>414</v>
+      </c>
+      <c r="B416" t="s">
+        <v>3</v>
+      </c>
+      <c r="C416" t="s">
+        <v>422</v>
+      </c>
+      <c r="D416" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417" s="1">
+        <v>415</v>
+      </c>
+      <c r="B417" t="s">
+        <v>3</v>
+      </c>
+      <c r="C417" t="s">
+        <v>423</v>
+      </c>
+      <c r="D417" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
+      <c r="A418" s="1">
+        <v>416</v>
+      </c>
+      <c r="B418" t="s">
+        <v>3</v>
+      </c>
+      <c r="C418" t="s">
+        <v>424</v>
+      </c>
+      <c r="D418" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
+      <c r="A419" s="1">
+        <v>417</v>
+      </c>
+      <c r="B419" t="s">
+        <v>3</v>
+      </c>
+      <c r="C419" t="s">
+        <v>425</v>
+      </c>
+      <c r="D419" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="A420" s="1">
+        <v>418</v>
+      </c>
+      <c r="B420" t="s">
+        <v>3</v>
+      </c>
+      <c r="C420" t="s">
+        <v>426</v>
+      </c>
+      <c r="D420" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421" s="1">
+        <v>419</v>
+      </c>
+      <c r="B421" t="s">
+        <v>3</v>
+      </c>
+      <c r="C421" t="s">
+        <v>427</v>
+      </c>
+      <c r="D421" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="A422" s="1">
+        <v>420</v>
+      </c>
+      <c r="B422" t="s">
+        <v>3</v>
+      </c>
+      <c r="C422" t="s">
+        <v>428</v>
+      </c>
+      <c r="D422" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
+      <c r="A423" s="1">
+        <v>421</v>
+      </c>
+      <c r="B423" t="s">
+        <v>3</v>
+      </c>
+      <c r="C423" t="s">
+        <v>429</v>
+      </c>
+      <c r="D423" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424" s="1">
+        <v>422</v>
+      </c>
+      <c r="B424" t="s">
+        <v>3</v>
+      </c>
+      <c r="C424" t="s">
+        <v>430</v>
+      </c>
+      <c r="D424" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425" s="1">
+        <v>423</v>
+      </c>
+      <c r="B425" t="s">
+        <v>3</v>
+      </c>
+      <c r="C425" t="s">
+        <v>431</v>
+      </c>
+      <c r="D425" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
+      <c r="A426" s="1">
+        <v>424</v>
+      </c>
+      <c r="B426" t="s">
+        <v>6</v>
+      </c>
+      <c r="C426" t="s">
+        <v>432</v>
+      </c>
+      <c r="D426" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4">
+      <c r="A427" s="1">
+        <v>425</v>
+      </c>
+      <c r="B427" t="s">
+        <v>3</v>
+      </c>
+      <c r="C427" t="s">
+        <v>433</v>
+      </c>
+      <c r="D427" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4">
+      <c r="A428" s="1">
+        <v>426</v>
+      </c>
+      <c r="B428" t="s">
+        <v>4</v>
+      </c>
+      <c r="C428" t="s">
+        <v>434</v>
+      </c>
+      <c r="D428" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
+      <c r="A429" s="1">
+        <v>427</v>
+      </c>
+      <c r="B429" t="s">
+        <v>7</v>
+      </c>
+      <c r="C429" t="s">
+        <v>435</v>
+      </c>
+      <c r="D429" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
+      <c r="A430" s="1">
+        <v>428</v>
+      </c>
+      <c r="B430" t="s">
+        <v>5</v>
+      </c>
+      <c r="C430" t="s">
+        <v>436</v>
+      </c>
+      <c r="D430" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
+      <c r="A431" s="1">
+        <v>429</v>
+      </c>
+      <c r="B431" t="s">
+        <v>3</v>
+      </c>
+      <c r="C431" t="s">
+        <v>437</v>
+      </c>
+      <c r="D431" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
+      <c r="A432" s="1">
+        <v>430</v>
+      </c>
+      <c r="B432" t="s">
+        <v>3</v>
+      </c>
+      <c r="C432" t="s">
+        <v>438</v>
+      </c>
+      <c r="D432" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
+      <c r="A433" s="1">
+        <v>431</v>
+      </c>
+      <c r="B433" t="s">
+        <v>3</v>
+      </c>
+      <c r="C433" t="s">
+        <v>439</v>
+      </c>
+      <c r="D433" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="A434" s="1">
+        <v>432</v>
+      </c>
+      <c r="B434" t="s">
+        <v>6</v>
+      </c>
+      <c r="C434" t="s">
+        <v>440</v>
+      </c>
+      <c r="D434" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
+      <c r="A435" s="1">
+        <v>433</v>
+      </c>
+      <c r="B435" t="s">
+        <v>6</v>
+      </c>
+      <c r="C435" t="s">
+        <v>441</v>
+      </c>
+      <c r="D435" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
+      <c r="A436" s="1">
+        <v>434</v>
+      </c>
+      <c r="B436" t="s">
+        <v>3</v>
+      </c>
+      <c r="C436" t="s">
+        <v>442</v>
+      </c>
+      <c r="D436" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
+      <c r="A437" s="1">
+        <v>435</v>
+      </c>
+      <c r="B437" t="s">
+        <v>3</v>
+      </c>
+      <c r="C437" t="s">
+        <v>443</v>
+      </c>
+      <c r="D437" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="A438" s="1">
+        <v>436</v>
+      </c>
+      <c r="B438" t="s">
+        <v>5</v>
+      </c>
+      <c r="C438" t="s">
+        <v>444</v>
+      </c>
+      <c r="D438" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
+      <c r="A439" s="1">
+        <v>437</v>
+      </c>
+      <c r="B439" t="s">
+        <v>3</v>
+      </c>
+      <c r="C439" t="s">
+        <v>445</v>
+      </c>
+      <c r="D439" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="A440" s="1">
+        <v>438</v>
+      </c>
+      <c r="B440" t="s">
+        <v>3</v>
+      </c>
+      <c r="C440" t="s">
+        <v>446</v>
+      </c>
+      <c r="D440" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4">
+      <c r="A441" s="1">
+        <v>439</v>
+      </c>
+      <c r="B441" t="s">
+        <v>3</v>
+      </c>
+      <c r="C441" t="s">
+        <v>447</v>
+      </c>
+      <c r="D441" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
+      <c r="A442" s="1">
+        <v>440</v>
+      </c>
+      <c r="B442" t="s">
+        <v>3</v>
+      </c>
+      <c r="C442" t="s">
+        <v>448</v>
+      </c>
+      <c r="D442" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4">
+      <c r="A443" s="1">
+        <v>441</v>
+      </c>
+      <c r="B443" t="s">
+        <v>3</v>
+      </c>
+      <c r="C443" t="s">
+        <v>449</v>
+      </c>
+      <c r="D443" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
+      <c r="A444" s="1">
+        <v>442</v>
+      </c>
+      <c r="B444" t="s">
+        <v>5</v>
+      </c>
+      <c r="C444" t="s">
+        <v>450</v>
+      </c>
+      <c r="D444" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4">
+      <c r="A445" s="1">
+        <v>443</v>
+      </c>
+      <c r="B445" t="s">
+        <v>3</v>
+      </c>
+      <c r="C445" t="s">
+        <v>451</v>
+      </c>
+      <c r="D445" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4">
+      <c r="A446" s="1">
+        <v>444</v>
+      </c>
+      <c r="B446" t="s">
+        <v>3</v>
+      </c>
+      <c r="C446" t="s">
+        <v>452</v>
+      </c>
+      <c r="D446" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4">
+      <c r="A447" s="1">
+        <v>445</v>
+      </c>
+      <c r="B447" t="s">
+        <v>6</v>
+      </c>
+      <c r="C447" t="s">
+        <v>453</v>
+      </c>
+      <c r="D447" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4">
+      <c r="A448" s="1">
+        <v>446</v>
+      </c>
+      <c r="B448" t="s">
+        <v>3</v>
+      </c>
+      <c r="C448" t="s">
+        <v>454</v>
+      </c>
+      <c r="D448" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4">
+      <c r="A449" s="1">
+        <v>447</v>
+      </c>
+      <c r="B449" t="s">
+        <v>3</v>
+      </c>
+      <c r="C449" t="s">
+        <v>455</v>
+      </c>
+      <c r="D449" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4">
+      <c r="A450" s="1">
+        <v>448</v>
+      </c>
+      <c r="B450" t="s">
+        <v>7</v>
+      </c>
+      <c r="C450" t="s">
+        <v>456</v>
+      </c>
+      <c r="D450" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4">
+      <c r="A451" s="1">
+        <v>449</v>
+      </c>
+      <c r="B451" t="s">
+        <v>3</v>
+      </c>
+      <c r="C451" t="s">
+        <v>457</v>
+      </c>
+      <c r="D451" t="s">
+        <v>891</v>
       </c>
     </row>
   </sheetData>
